--- a/CGE/1model.xlsx
+++ b/CGE/1model.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF33232-5FC3-4EB7-88E1-4681E3649F7E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703F99E6-4F78-4EB5-A967-4507DD2CBF11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -6244,12 +6246,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6257,107 +6259,121 @@
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>52325.432882070083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8">
-        <v>5303.2</v>
+        <f>L3/10</f>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C8" s="11"/>
       <c r="I8" s="24"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9">
-        <v>5303.2</v>
+        <f>B8</f>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C9" s="11"/>
       <c r="I9" s="24"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="75">
-        <v>5303.2</v>
+        <f t="shared" ref="B10:B17" si="0">B9</f>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C10" s="11"/>
       <c r="I10" s="24"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C11" s="11"/>
       <c r="I11" s="24"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C12" s="11"/>
       <c r="I12" s="24"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C13" s="11"/>
       <c r="I13" s="24"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C14" s="11"/>
       <c r="I14" s="24"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C15" s="11"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C16" s="11"/>
       <c r="I16" s="24"/>
@@ -6367,7 +6383,8 @@
         <v>739</v>
       </c>
       <c r="B17" s="75">
-        <v>5303.2</v>
+        <f t="shared" si="0"/>
+        <v>5232.5432882070081</v>
       </c>
       <c r="C17" s="11"/>
     </row>

--- a/CGE/1model.xlsx
+++ b/CGE/1model.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C9F54-7A13-40EC-A2D5-A9692A0E0946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1652BF0-0213-436E-B9F8-6A9515D7478A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3090" yWindow="-20610" windowWidth="33960" windowHeight="19515" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
+    <author>tc={8B0C0E1B-BED0-433B-AF40-C9D35D14DFEA}</author>
   </authors>
   <commentList>
     <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -142,6 +143,14 @@
           <t xml:space="preserve">
 previously 0.1</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="1" shapeId="0" xr:uid="{8B0C0E1B-BED0-433B-AF40-C9D35D14DFEA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    was 0.28</t>
       </text>
     </comment>
   </commentList>
@@ -2735,12 +2744,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2852,12 +2877,12 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2865,21 +2890,37 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="28">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{FFE3B1CE-55B5-4923-8F68-C70334D9802A}"/>
+    <cellStyle name="Comma 2 10" xfId="22" xr:uid="{3C4DA270-6F00-4E21-9AAC-6EA76EC6F530}"/>
+    <cellStyle name="Comma 2 11" xfId="24" xr:uid="{1EC96FD3-00E9-4993-995D-9A0FA37AEB85}"/>
+    <cellStyle name="Comma 2 12" xfId="26" xr:uid="{C541EBA2-4156-4EC1-B1E1-6254E813B953}"/>
     <cellStyle name="Comma 2 2" xfId="6" xr:uid="{96AD8200-598B-4364-AB20-D6F5A343DA52}"/>
     <cellStyle name="Comma 2 3" xfId="8" xr:uid="{B444E0FE-77D2-41D2-9A99-6D122B91FFE7}"/>
     <cellStyle name="Comma 2 4" xfId="10" xr:uid="{D5352661-22D5-4B57-BE00-C0DDB340C744}"/>
+    <cellStyle name="Comma 2 5" xfId="12" xr:uid="{8BF3888E-2745-4F45-8FF3-C1C06DFA649E}"/>
+    <cellStyle name="Comma 2 6" xfId="14" xr:uid="{3E2D340B-06F3-49E6-8222-104C989A30F8}"/>
+    <cellStyle name="Comma 2 7" xfId="16" xr:uid="{A98C57F5-7D2F-40E3-A8B7-7CEEA9D57A57}"/>
+    <cellStyle name="Comma 2 8" xfId="18" xr:uid="{9A0630BC-F3EB-4DEA-9532-DE344ABF682A}"/>
+    <cellStyle name="Comma 2 9" xfId="20" xr:uid="{8F7B1F03-7001-485A-966B-C507C4856E66}"/>
     <cellStyle name="Comma 3" xfId="5" xr:uid="{D6107CC6-31F9-46E5-8283-5EDE17DFC44B}"/>
+    <cellStyle name="Comma 3 10" xfId="23" xr:uid="{C8D7E613-5ECF-471E-8816-31F96EE17C1F}"/>
+    <cellStyle name="Comma 3 11" xfId="25" xr:uid="{D131169D-4827-40BC-8959-EA044E12DE22}"/>
+    <cellStyle name="Comma 3 12" xfId="27" xr:uid="{7A80C278-5F64-4BEA-9CCD-5C435C4A25E9}"/>
     <cellStyle name="Comma 3 2" xfId="7" xr:uid="{AF403A0E-1089-4AD0-89EE-11F4E87F1C02}"/>
     <cellStyle name="Comma 3 3" xfId="9" xr:uid="{0082FBA4-26AA-4A21-94EA-694DD0B9EEEB}"/>
     <cellStyle name="Comma 3 4" xfId="11" xr:uid="{53BC70D6-7F8C-44D1-9314-D47A9016920F}"/>
+    <cellStyle name="Comma 3 5" xfId="13" xr:uid="{CB2CB86E-1BAC-4A82-A128-E45C8D2B0E27}"/>
+    <cellStyle name="Comma 3 6" xfId="15" xr:uid="{BECE2F40-E07B-40E9-B7FC-F1B3370E8833}"/>
+    <cellStyle name="Comma 3 7" xfId="17" xr:uid="{B93EBE4B-402C-4CA1-B49B-F4409FB2CAFC}"/>
+    <cellStyle name="Comma 3 8" xfId="19" xr:uid="{04FECEA8-3E71-4EC0-8095-A4FDB52D654E}"/>
+    <cellStyle name="Comma 3 9" xfId="21" xr:uid="{4FAFD243-F2BA-4CA0-8402-45924AC29C71}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <font>
         <b val="0"/>
@@ -2889,6 +2930,16 @@
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3027,6 +3078,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3348,6 +3403,14 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B31" dT="2021-09-20T06:39:56.10" personId="{00000000-0000-0000-0000-000000000000}" id="{8B0C0E1B-BED0-433B-AF40-C9D35D14DFEA}">
+    <text>was 0.28</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V88"/>
@@ -12231,7 +12294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AX176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
       <selection pane="bottomLeft" activeCell="AM5" sqref="AM5"/>
@@ -16219,11 +16282,11 @@
   <dimension ref="A1:ER154"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="DO123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G10" sqref="G10"/>
       <selection pane="topRight" activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
-      <selection pane="bottomRight" activeCell="DQ116" sqref="DQ116"/>
+      <selection pane="bottomRight" activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16925,7 +16988,7 @@
       </c>
       <c r="B5" s="81">
         <f t="shared" si="0"/>
-        <v>-518.2700256354791</v>
+        <v>-518.27002563547865</v>
       </c>
       <c r="C5" s="81">
         <f t="shared" si="1"/>
@@ -17233,451 +17296,451 @@
       <c r="ER6" s="75"/>
     </row>
     <row r="7" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="85" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="85" t="s">
+      <c r="C7" s="88" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="85" t="s">
+      <c r="D7" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="88" t="s">
         <v>591</v>
       </c>
-      <c r="G7" s="85" t="s">
+      <c r="G7" s="88" t="s">
         <v>731</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="88" t="s">
         <v>592</v>
       </c>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="88" t="s">
         <v>567</v>
       </c>
-      <c r="J7" s="85" t="s">
+      <c r="J7" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="K7" s="85" t="s">
+      <c r="K7" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="L7" s="85" t="s">
+      <c r="L7" s="88" t="s">
         <v>580</v>
       </c>
-      <c r="M7" s="85" t="s">
+      <c r="M7" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="N7" s="85" t="s">
+      <c r="N7" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="O7" s="85" t="s">
+      <c r="O7" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="P7" s="85" t="s">
+      <c r="P7" s="88" t="s">
         <v>349</v>
       </c>
-      <c r="Q7" s="85" t="s">
+      <c r="Q7" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="R7" s="85" t="s">
+      <c r="R7" s="88" t="s">
         <v>351</v>
       </c>
-      <c r="S7" s="85" t="s">
+      <c r="S7" s="88" t="s">
         <v>352</v>
       </c>
-      <c r="T7" s="85" t="s">
+      <c r="T7" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="U7" s="85" t="s">
+      <c r="U7" s="88" t="s">
         <v>354</v>
       </c>
-      <c r="V7" s="85" t="s">
+      <c r="V7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="W7" s="85" t="s">
+      <c r="W7" s="88" t="s">
         <v>732</v>
       </c>
-      <c r="X7" s="85" t="s">
+      <c r="X7" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="Y7" s="85" t="s">
+      <c r="Y7" s="88" t="s">
         <v>356</v>
       </c>
-      <c r="Z7" s="85" t="s">
+      <c r="Z7" s="88" t="s">
         <v>357</v>
       </c>
-      <c r="AA7" s="85" t="s">
+      <c r="AA7" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="AB7" s="85" t="s">
+      <c r="AB7" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="AC7" s="85" t="s">
+      <c r="AC7" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="AD7" s="85" t="s">
+      <c r="AD7" s="88" t="s">
         <v>360</v>
       </c>
-      <c r="AE7" s="85" t="s">
+      <c r="AE7" s="88" t="s">
         <v>361</v>
       </c>
-      <c r="AF7" s="85" t="s">
+      <c r="AF7" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="AG7" s="85" t="s">
+      <c r="AG7" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="AH7" s="85" t="s">
+      <c r="AH7" s="88" t="s">
         <v>733</v>
       </c>
-      <c r="AI7" s="85" t="s">
+      <c r="AI7" s="88" t="s">
         <v>734</v>
       </c>
-      <c r="AJ7" s="85" t="s">
+      <c r="AJ7" s="88" t="s">
         <v>363</v>
       </c>
-      <c r="AK7" s="85" t="s">
+      <c r="AK7" s="88" t="s">
         <v>364</v>
       </c>
-      <c r="AL7" s="85" t="s">
+      <c r="AL7" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="AM7" s="85" t="s">
+      <c r="AM7" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="AN7" s="85" t="s">
+      <c r="AN7" s="88" t="s">
         <v>366</v>
       </c>
-      <c r="AO7" s="85" t="s">
+      <c r="AO7" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="AP7" s="85" t="s">
+      <c r="AP7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AQ7" s="85" t="s">
+      <c r="AQ7" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="AR7" s="85" t="s">
+      <c r="AR7" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="AS7" s="85" t="s">
+      <c r="AS7" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="AT7" s="85" t="s">
+      <c r="AT7" s="88" t="s">
         <v>367</v>
       </c>
-      <c r="AU7" s="85" t="s">
+      <c r="AU7" s="88" t="s">
         <v>729</v>
       </c>
-      <c r="AV7" s="85" t="s">
+      <c r="AV7" s="88" t="s">
         <v>568</v>
       </c>
-      <c r="AW7" s="85" t="s">
+      <c r="AW7" s="88" t="s">
         <v>710</v>
       </c>
-      <c r="AX7" s="85" t="s">
+      <c r="AX7" s="88" t="s">
         <v>711</v>
       </c>
-      <c r="AY7" s="85" t="s">
+      <c r="AY7" s="88" t="s">
         <v>717</v>
       </c>
-      <c r="AZ7" s="85" t="s">
+      <c r="AZ7" s="88" t="s">
         <v>718</v>
       </c>
-      <c r="BA7" s="85" t="s">
+      <c r="BA7" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="BB7" s="85" t="s">
+      <c r="BB7" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="BC7" s="85" t="s">
+      <c r="BC7" s="88" t="s">
         <v>368</v>
       </c>
-      <c r="BD7" s="85" t="s">
+      <c r="BD7" s="88" t="s">
         <v>25</v>
       </c>
-      <c r="BE7" s="85" t="s">
+      <c r="BE7" s="88" t="s">
         <v>369</v>
       </c>
-      <c r="BF7" s="85" t="s">
+      <c r="BF7" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="BG7" s="85" t="s">
+      <c r="BG7" s="88" t="s">
         <v>406</v>
       </c>
-      <c r="BH7" s="85" t="s">
+      <c r="BH7" s="88" t="s">
         <v>407</v>
       </c>
-      <c r="BI7" s="85" t="s">
+      <c r="BI7" s="88" t="s">
         <v>551</v>
       </c>
-      <c r="BJ7" s="85" t="s">
+      <c r="BJ7" s="88" t="s">
         <v>552</v>
       </c>
-      <c r="BK7" s="85" t="s">
+      <c r="BK7" s="88" t="s">
         <v>735</v>
       </c>
-      <c r="BL7" s="85" t="s">
+      <c r="BL7" s="88" t="s">
         <v>593</v>
       </c>
-      <c r="BM7" s="85" t="s">
+      <c r="BM7" s="88" t="s">
         <v>569</v>
       </c>
-      <c r="BN7" s="85" t="s">
+      <c r="BN7" s="88" t="s">
         <v>327</v>
       </c>
-      <c r="BO7" s="85" t="s">
+      <c r="BO7" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="BP7" s="85" t="s">
+      <c r="BP7" s="88" t="s">
         <v>590</v>
       </c>
-      <c r="BQ7" s="85" t="s">
+      <c r="BQ7" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="BR7" s="85" t="s">
+      <c r="BR7" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="BS7" s="85" t="s">
+      <c r="BS7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="BT7" s="85" t="s">
+      <c r="BT7" s="88" t="s">
         <v>371</v>
       </c>
-      <c r="BU7" s="85" t="s">
+      <c r="BU7" s="88" t="s">
         <v>372</v>
       </c>
-      <c r="BV7" s="85" t="s">
+      <c r="BV7" s="88" t="s">
         <v>373</v>
       </c>
-      <c r="BW7" s="85" t="s">
+      <c r="BW7" s="88" t="s">
         <v>374</v>
       </c>
-      <c r="BX7" s="85" t="s">
+      <c r="BX7" s="88" t="s">
         <v>375</v>
       </c>
-      <c r="BY7" s="85" t="s">
+      <c r="BY7" s="88" t="s">
         <v>376</v>
       </c>
-      <c r="BZ7" s="85" t="s">
+      <c r="BZ7" s="88" t="s">
         <v>712</v>
       </c>
-      <c r="CA7" s="85" t="s">
+      <c r="CA7" s="88" t="s">
         <v>713</v>
       </c>
-      <c r="CB7" s="85" t="s">
+      <c r="CB7" s="88" t="s">
         <v>570</v>
       </c>
-      <c r="CC7" s="85" t="s">
+      <c r="CC7" s="88" t="s">
         <v>736</v>
       </c>
-      <c r="CD7" s="85" t="s">
+      <c r="CD7" s="88" t="s">
         <v>377</v>
       </c>
-      <c r="CE7" s="85" t="s">
+      <c r="CE7" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="CF7" s="85" t="s">
+      <c r="CF7" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="CG7" s="85" t="s">
+      <c r="CG7" s="88" t="s">
         <v>380</v>
       </c>
-      <c r="CH7" s="85" t="s">
+      <c r="CH7" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="CI7" s="85" t="s">
+      <c r="CI7" s="88" t="s">
         <v>32</v>
       </c>
-      <c r="CJ7" s="85" t="s">
+      <c r="CJ7" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="CK7" s="85" t="s">
+      <c r="CK7" s="88" t="s">
         <v>383</v>
       </c>
-      <c r="CL7" s="85" t="s">
+      <c r="CL7" s="88" t="s">
         <v>384</v>
       </c>
-      <c r="CM7" s="85" t="s">
+      <c r="CM7" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="CN7" s="85" t="s">
+      <c r="CN7" s="88" t="s">
         <v>737</v>
       </c>
-      <c r="CO7" s="85" t="s">
+      <c r="CO7" s="88" t="s">
         <v>738</v>
       </c>
-      <c r="CP7" s="85" t="s">
+      <c r="CP7" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="CQ7" s="85" t="s">
+      <c r="CQ7" s="88" t="s">
         <v>386</v>
       </c>
-      <c r="CR7" s="85" t="s">
+      <c r="CR7" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="CS7" s="85" t="s">
+      <c r="CS7" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="CT7" s="85" t="s">
+      <c r="CT7" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="CU7" s="85" t="s">
+      <c r="CU7" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="CV7" s="85" t="s">
+      <c r="CV7" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="CW7" s="85" t="s">
+      <c r="CW7" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="CX7" s="85" t="s">
+      <c r="CX7" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="CY7" s="85" t="s">
+      <c r="CY7" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="CZ7" s="85" t="s">
+      <c r="CZ7" s="88" t="s">
         <v>389</v>
       </c>
-      <c r="DA7" s="85" t="s">
+      <c r="DA7" s="88" t="s">
         <v>572</v>
       </c>
-      <c r="DB7" s="85" t="s">
+      <c r="DB7" s="88" t="s">
         <v>573</v>
       </c>
-      <c r="DC7" s="85" t="s">
+      <c r="DC7" s="88" t="s">
         <v>575</v>
       </c>
-      <c r="DD7" s="85" t="s">
+      <c r="DD7" s="88" t="s">
         <v>576</v>
       </c>
-      <c r="DE7" s="85" t="s">
+      <c r="DE7" s="88" t="s">
         <v>714</v>
       </c>
-      <c r="DF7" s="85" t="s">
+      <c r="DF7" s="88" t="s">
         <v>730</v>
       </c>
-      <c r="DG7" s="85" t="s">
+      <c r="DG7" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="DH7" s="85" t="s">
+      <c r="DH7" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="DI7" s="85" t="s">
+      <c r="DI7" s="88" t="s">
         <v>390</v>
       </c>
-      <c r="DJ7" s="85" t="s">
+      <c r="DJ7" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="DK7" s="85" t="s">
+      <c r="DK7" s="88" t="s">
         <v>391</v>
       </c>
-      <c r="DL7" s="85" t="s">
+      <c r="DL7" s="88" t="s">
         <v>553</v>
       </c>
-      <c r="DM7" s="85" t="s">
+      <c r="DM7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="DN7" s="85" t="s">
+      <c r="DN7" s="88" t="s">
         <v>392</v>
       </c>
-      <c r="DO7" s="85" t="s">
+      <c r="DO7" s="88" t="s">
         <v>393</v>
       </c>
-      <c r="DP7" s="85" t="s">
+      <c r="DP7" s="88" t="s">
         <v>394</v>
       </c>
-      <c r="DQ7" s="85" t="s">
+      <c r="DQ7" s="88" t="s">
         <v>395</v>
       </c>
-      <c r="DR7" s="85" t="s">
+      <c r="DR7" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="DS7" s="85" t="s">
+      <c r="DS7" s="88" t="s">
         <v>531</v>
       </c>
-      <c r="DT7" s="85" t="s">
+      <c r="DT7" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="DU7" s="85" t="s">
+      <c r="DU7" s="88" t="s">
         <v>532</v>
       </c>
-      <c r="DV7" s="85" t="s">
+      <c r="DV7" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="DW7" s="85" t="s">
+      <c r="DW7" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="DX7" s="85" t="s">
+      <c r="DX7" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="DY7" s="85" t="s">
+      <c r="DY7" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="DZ7" s="85" t="s">
+      <c r="DZ7" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="EA7" s="85" t="s">
+      <c r="EA7" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="EB7" s="85" t="s">
+      <c r="EB7" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="EC7" s="85" t="s">
+      <c r="EC7" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="ED7" s="85" t="s">
+      <c r="ED7" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="EE7" s="85" t="s">
+      <c r="EE7" s="88" t="s">
         <v>728</v>
       </c>
-      <c r="EF7" s="85" t="s">
+      <c r="EF7" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="EG7" s="85" t="s">
+      <c r="EG7" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="EH7" s="85" t="s">
+      <c r="EH7" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="EI7" s="85" t="s">
+      <c r="EI7" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="EJ7" s="85" t="s">
+      <c r="EJ7" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="EK7" s="85" t="s">
+      <c r="EK7" s="88" t="s">
         <v>554</v>
       </c>
-      <c r="EL7" s="85" t="s">
+      <c r="EL7" s="88" t="s">
         <v>723</v>
       </c>
-      <c r="EM7" s="85" t="s">
+      <c r="EM7" s="88" t="s">
         <v>724</v>
       </c>
-      <c r="EN7" s="85" t="s">
+      <c r="EN7" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="EO7" s="85" t="s">
+      <c r="EO7" s="88" t="s">
         <v>535</v>
       </c>
-      <c r="EP7" s="85" t="s">
+      <c r="EP7" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="EQ7" s="85" t="s">
+      <c r="EQ7" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="ER7" s="85" t="s">
+      <c r="ER7" s="88" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="s">
+      <c r="A8" s="88" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="19"/>
@@ -17833,7 +17896,7 @@
       </c>
     </row>
     <row r="9" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
+      <c r="A9" s="88" t="s">
         <v>403</v>
       </c>
       <c r="B9" s="19"/>
@@ -17989,7 +18052,7 @@
       </c>
     </row>
     <row r="10" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A10" s="85" t="s">
+      <c r="A10" s="88" t="s">
         <v>404</v>
       </c>
       <c r="B10" s="19"/>
@@ -18145,7 +18208,7 @@
       </c>
     </row>
     <row r="11" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="88" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="19"/>
@@ -18307,7 +18370,7 @@
       </c>
     </row>
     <row r="12" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="88" t="s">
         <v>591</v>
       </c>
       <c r="B12" s="19"/>
@@ -18465,7 +18528,7 @@
       </c>
     </row>
     <row r="13" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="88" t="s">
         <v>731</v>
       </c>
       <c r="B13" s="19"/>
@@ -18621,7 +18684,7 @@
       </c>
     </row>
     <row r="14" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
+      <c r="A14" s="88" t="s">
         <v>592</v>
       </c>
       <c r="B14" s="19"/>
@@ -18779,7 +18842,7 @@
       </c>
     </row>
     <row r="15" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="88" t="s">
         <v>567</v>
       </c>
       <c r="B15" s="19"/>
@@ -18937,7 +19000,7 @@
       </c>
     </row>
     <row r="16" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="88" t="s">
         <v>328</v>
       </c>
       <c r="B16" s="19"/>
@@ -19093,7 +19156,7 @@
       </c>
     </row>
     <row r="17" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A17" s="85" t="s">
+      <c r="A17" s="88" t="s">
         <v>409</v>
       </c>
       <c r="B17" s="19"/>
@@ -19249,7 +19312,7 @@
       </c>
     </row>
     <row r="18" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="88" t="s">
         <v>580</v>
       </c>
       <c r="B18" s="19"/>
@@ -19405,7 +19468,7 @@
       </c>
     </row>
     <row r="19" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="88" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="19"/>
@@ -19561,7 +19624,7 @@
       </c>
     </row>
     <row r="20" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A20" s="85" t="s">
+      <c r="A20" s="88" t="s">
         <v>348</v>
       </c>
       <c r="B20" s="19"/>
@@ -19717,7 +19780,7 @@
       </c>
     </row>
     <row r="21" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A21" s="85" t="s">
+      <c r="A21" s="88" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="19"/>
@@ -19873,7 +19936,7 @@
       </c>
     </row>
     <row r="22" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="88" t="s">
         <v>349</v>
       </c>
       <c r="B22" s="19"/>
@@ -20029,7 +20092,7 @@
       </c>
     </row>
     <row r="23" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
+      <c r="A23" s="88" t="s">
         <v>350</v>
       </c>
       <c r="B23" s="19"/>
@@ -20185,7 +20248,7 @@
       </c>
     </row>
     <row r="24" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="88" t="s">
         <v>351</v>
       </c>
       <c r="B24" s="19"/>
@@ -20341,7 +20404,7 @@
       </c>
     </row>
     <row r="25" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A25" s="85" t="s">
+      <c r="A25" s="88" t="s">
         <v>352</v>
       </c>
       <c r="B25" s="19"/>
@@ -20497,7 +20560,7 @@
       </c>
     </row>
     <row r="26" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="88" t="s">
         <v>353</v>
       </c>
       <c r="B26" s="19"/>
@@ -20653,7 +20716,7 @@
       </c>
     </row>
     <row r="27" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
+      <c r="A27" s="88" t="s">
         <v>354</v>
       </c>
       <c r="B27" s="19"/>
@@ -20809,7 +20872,7 @@
       </c>
     </row>
     <row r="28" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+      <c r="A28" s="88" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="19"/>
@@ -20969,7 +21032,7 @@
       </c>
     </row>
     <row r="29" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A29" s="85" t="s">
+      <c r="A29" s="88" t="s">
         <v>732</v>
       </c>
       <c r="B29" s="19"/>
@@ -21052,7 +21115,7 @@
       <c r="CA29" s="19"/>
       <c r="CB29" s="19"/>
       <c r="CC29" s="19">
-        <v>0.57338577417059156</v>
+        <v>11979.787963430024</v>
       </c>
       <c r="CD29" s="19"/>
       <c r="CE29" s="19"/>
@@ -21121,11 +21184,11 @@
       <c r="EP29" s="19"/>
       <c r="EQ29" s="19"/>
       <c r="ER29" s="19">
-        <v>0.57338577417059156</v>
+        <v>11979.787963430024</v>
       </c>
     </row>
     <row r="30" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A30" s="85" t="s">
+      <c r="A30" s="88" t="s">
         <v>355</v>
       </c>
       <c r="B30" s="19"/>
@@ -21209,7 +21272,7 @@
       <c r="CB30" s="19"/>
       <c r="CC30" s="19"/>
       <c r="CD30" s="19">
-        <v>119797.30624852606</v>
+        <v>107818.09167087021</v>
       </c>
       <c r="CE30" s="19"/>
       <c r="CF30" s="19"/>
@@ -21277,11 +21340,11 @@
       <c r="EP30" s="19"/>
       <c r="EQ30" s="19"/>
       <c r="ER30" s="19">
-        <v>119797.30624852606</v>
+        <v>107818.09167087021</v>
       </c>
     </row>
     <row r="31" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
+      <c r="A31" s="88" t="s">
         <v>356</v>
       </c>
       <c r="B31" s="19"/>
@@ -21437,7 +21500,7 @@
       </c>
     </row>
     <row r="32" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="88" t="s">
         <v>357</v>
       </c>
       <c r="B32" s="19"/>
@@ -21593,7 +21656,7 @@
       </c>
     </row>
     <row r="33" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
+      <c r="A33" s="88" t="s">
         <v>358</v>
       </c>
       <c r="B33" s="19"/>
@@ -21749,7 +21812,7 @@
       </c>
     </row>
     <row r="34" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
+      <c r="A34" s="88" t="s">
         <v>359</v>
       </c>
       <c r="B34" s="19"/>
@@ -21905,7 +21968,7 @@
       </c>
     </row>
     <row r="35" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="88" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="19"/>
@@ -22061,7 +22124,7 @@
       </c>
     </row>
     <row r="36" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="88" t="s">
         <v>360</v>
       </c>
       <c r="B36" s="19"/>
@@ -22217,7 +22280,7 @@
       </c>
     </row>
     <row r="37" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="88" t="s">
         <v>361</v>
       </c>
       <c r="B37" s="19"/>
@@ -22373,7 +22436,7 @@
       </c>
     </row>
     <row r="38" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A38" s="85" t="s">
+      <c r="A38" s="88" t="s">
         <v>362</v>
       </c>
       <c r="B38" s="19"/>
@@ -22529,7 +22592,7 @@
       </c>
     </row>
     <row r="39" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="88" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="19"/>
@@ -22685,7 +22748,7 @@
       </c>
     </row>
     <row r="40" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="88" t="s">
         <v>733</v>
       </c>
       <c r="B40" s="19"/>
@@ -22779,7 +22842,7 @@
       <c r="CL40" s="19"/>
       <c r="CM40" s="19"/>
       <c r="CN40" s="19">
-        <v>8.8624956625664982E-6</v>
+        <v>0.21908671172170716</v>
       </c>
       <c r="CO40" s="19"/>
       <c r="CP40" s="19"/>
@@ -22837,11 +22900,11 @@
       <c r="EP40" s="19"/>
       <c r="EQ40" s="19"/>
       <c r="ER40" s="19">
-        <v>8.8624956625664982E-6</v>
+        <v>0.21908671172170716</v>
       </c>
     </row>
     <row r="41" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A41" s="85" t="s">
+      <c r="A41" s="88" t="s">
         <v>734</v>
       </c>
       <c r="B41" s="19"/>
@@ -22936,7 +22999,7 @@
       <c r="CM41" s="19"/>
       <c r="CN41" s="19"/>
       <c r="CO41" s="19">
-        <v>0.40451999999999999</v>
+        <v>1</v>
       </c>
       <c r="CP41" s="19"/>
       <c r="CQ41" s="19"/>
@@ -22993,11 +23056,11 @@
       <c r="EP41" s="19"/>
       <c r="EQ41" s="19"/>
       <c r="ER41" s="19">
-        <v>0.40451999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="88" t="s">
         <v>363</v>
       </c>
       <c r="B42" s="19"/>
@@ -23093,7 +23156,7 @@
       <c r="CN42" s="19"/>
       <c r="CO42" s="19"/>
       <c r="CP42" s="19">
-        <v>53698.512961224609</v>
+        <v>53697.698403375376</v>
       </c>
       <c r="CQ42" s="19"/>
       <c r="CR42" s="19"/>
@@ -23149,11 +23212,11 @@
       <c r="EP42" s="19"/>
       <c r="EQ42" s="19"/>
       <c r="ER42" s="19">
-        <v>53698.512961224609</v>
+        <v>53697.698403375376</v>
       </c>
     </row>
     <row r="43" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="88" t="s">
         <v>364</v>
       </c>
       <c r="B43" s="19"/>
@@ -23309,7 +23372,7 @@
       </c>
     </row>
     <row r="44" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="88" t="s">
         <v>16</v>
       </c>
       <c r="B44" s="19"/>
@@ -23465,7 +23528,7 @@
       </c>
     </row>
     <row r="45" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="88" t="s">
         <v>365</v>
       </c>
       <c r="B45" s="19"/>
@@ -23621,7 +23684,7 @@
       </c>
     </row>
     <row r="46" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="88" t="s">
         <v>366</v>
       </c>
       <c r="B46" s="19"/>
@@ -23777,7 +23840,7 @@
       </c>
     </row>
     <row r="47" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="88" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="19"/>
@@ -23933,7 +23996,7 @@
       </c>
     </row>
     <row r="48" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A48" s="85" t="s">
+      <c r="A48" s="88" t="s">
         <v>18</v>
       </c>
       <c r="B48" s="19"/>
@@ -24089,7 +24152,7 @@
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="88" t="s">
         <v>19</v>
       </c>
       <c r="B49" s="19"/>
@@ -24245,7 +24308,7 @@
       </c>
     </row>
     <row r="50" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A50" s="85" t="s">
+      <c r="A50" s="88" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="19"/>
@@ -24401,7 +24464,7 @@
       </c>
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A51" s="85" t="s">
+      <c r="A51" s="88" t="s">
         <v>21</v>
       </c>
       <c r="B51" s="19"/>
@@ -24557,7 +24620,7 @@
       </c>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A52" s="85" t="s">
+      <c r="A52" s="88" t="s">
         <v>367</v>
       </c>
       <c r="B52" s="19"/>
@@ -24713,7 +24776,7 @@
       </c>
     </row>
     <row r="53" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A53" s="85" t="s">
+      <c r="A53" s="88" t="s">
         <v>729</v>
       </c>
       <c r="B53" s="19"/>
@@ -24869,7 +24932,7 @@
       </c>
     </row>
     <row r="54" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A54" s="85" t="s">
+      <c r="A54" s="88" t="s">
         <v>568</v>
       </c>
       <c r="B54" s="19"/>
@@ -25025,7 +25088,7 @@
       </c>
     </row>
     <row r="55" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A55" s="85" t="s">
+      <c r="A55" s="88" t="s">
         <v>710</v>
       </c>
       <c r="B55" s="19"/>
@@ -25181,7 +25244,7 @@
       </c>
     </row>
     <row r="56" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A56" s="85" t="s">
+      <c r="A56" s="88" t="s">
         <v>711</v>
       </c>
       <c r="B56" s="19"/>
@@ -25337,7 +25400,7 @@
       </c>
     </row>
     <row r="57" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A57" s="85" t="s">
+      <c r="A57" s="88" t="s">
         <v>717</v>
       </c>
       <c r="B57" s="19"/>
@@ -25495,7 +25558,7 @@
       </c>
     </row>
     <row r="58" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A58" s="85" t="s">
+      <c r="A58" s="88" t="s">
         <v>718</v>
       </c>
       <c r="B58" s="19"/>
@@ -25653,7 +25716,7 @@
       </c>
     </row>
     <row r="59" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A59" s="85" t="s">
+      <c r="A59" s="88" t="s">
         <v>23</v>
       </c>
       <c r="B59" s="19"/>
@@ -25809,7 +25872,7 @@
       </c>
     </row>
     <row r="60" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="88" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="19"/>
@@ -25965,7 +26028,7 @@
       </c>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A61" s="85" t="s">
+      <c r="A61" s="88" t="s">
         <v>368</v>
       </c>
       <c r="B61" s="19"/>
@@ -26121,7 +26184,7 @@
       </c>
     </row>
     <row r="62" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A62" s="85" t="s">
+      <c r="A62" s="88" t="s">
         <v>25</v>
       </c>
       <c r="B62" s="19"/>
@@ -26277,7 +26340,7 @@
       </c>
     </row>
     <row r="63" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A63" s="85" t="s">
+      <c r="A63" s="88" t="s">
         <v>369</v>
       </c>
       <c r="B63" s="19"/>
@@ -26433,7 +26496,7 @@
       </c>
     </row>
     <row r="64" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A64" s="85" t="s">
+      <c r="A64" s="88" t="s">
         <v>26</v>
       </c>
       <c r="B64" s="19">
@@ -26465,7 +26528,7 @@
         <v>0.2689969576306187</v>
       </c>
       <c r="L64" s="19">
-        <v>8.4247574621180402E-4</v>
+        <v>6.5791510387528079E-4</v>
       </c>
       <c r="M64" s="19">
         <v>67143.489309255136</v>
@@ -26498,10 +26561,10 @@
         <v>112.96683752259995</v>
       </c>
       <c r="W64" s="19">
-        <v>4.8306312489847735E-4</v>
+        <v>10.092689167343423</v>
       </c>
       <c r="X64" s="19">
-        <v>100.92622404966697</v>
+        <v>90.83420250609079</v>
       </c>
       <c r="Y64" s="19">
         <v>664.43781539454687</v>
@@ -26531,13 +26594,13 @@
         <v>134.4266717394338</v>
       </c>
       <c r="AH64" s="19">
-        <v>1.4212346775231747E-8</v>
+        <v>3.5133854383545305E-4</v>
       </c>
       <c r="AI64" s="19">
-        <v>6.4870875387845739E-4</v>
+        <v>1.6036506325483471E-3</v>
       </c>
       <c r="AJ64" s="19">
-        <v>86.113654124661664</v>
+        <v>86.1123478584515</v>
       </c>
       <c r="AK64" s="19">
         <v>12.278975385051188</v>
@@ -26715,7 +26778,7 @@
       </c>
     </row>
     <row r="65" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A65" s="85" t="s">
+      <c r="A65" s="88" t="s">
         <v>406</v>
       </c>
       <c r="B65" s="19"/>
@@ -26760,7 +26823,7 @@
       <c r="AE65" s="19"/>
       <c r="AF65" s="19"/>
       <c r="AG65" s="19"/>
-      <c r="AH65" s="89"/>
+      <c r="AH65" s="86"/>
       <c r="AI65" s="19"/>
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19"/>
@@ -26909,7 +26972,7 @@
       </c>
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A66" s="85" t="s">
+      <c r="A66" s="88" t="s">
         <v>407</v>
       </c>
       <c r="B66" s="19"/>
@@ -27113,7 +27176,7 @@
       </c>
     </row>
     <row r="67" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A67" s="85" t="s">
+      <c r="A67" s="88" t="s">
         <v>551</v>
       </c>
       <c r="B67" s="19"/>
@@ -27129,7 +27192,7 @@
       <c r="J67" s="19"/>
       <c r="K67" s="19"/>
       <c r="L67" s="19">
-        <v>2.4537087939303982E-3</v>
+        <v>1.9161763211549521E-3</v>
       </c>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
@@ -27144,10 +27207,10 @@
         <v>7755.9852327964536</v>
       </c>
       <c r="W67" s="19">
-        <v>1.4069203094766607E-3</v>
+        <v>29.394935433655387</v>
       </c>
       <c r="X67" s="19">
-        <v>293.94740988377157</v>
+        <v>264.55441890289842</v>
       </c>
       <c r="Y67" s="19">
         <v>84.681048086391527</v>
@@ -27287,7 +27350,7 @@
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A68" s="85" t="s">
+      <c r="A68" s="88" t="s">
         <v>552</v>
       </c>
       <c r="B68" s="19">
@@ -27365,13 +27428,13 @@
         <v>112.9473647089075</v>
       </c>
       <c r="AH68" s="19">
-        <v>1.0222049462286968E-8</v>
+        <v>2.5269577430749946E-4</v>
       </c>
       <c r="AI68" s="19">
-        <v>4.6657551167555197E-4</v>
+        <v>1.1534052993067141E-3</v>
       </c>
       <c r="AJ68" s="19">
-        <v>61.93614970059275</v>
+        <v>61.935210185252863</v>
       </c>
       <c r="AK68" s="19">
         <v>15.643469439310474</v>
@@ -27535,205 +27598,205 @@
       </c>
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="89" t="s">
         <v>735</v>
       </c>
-      <c r="B69" s="88"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="88"/>
-      <c r="E69" s="88"/>
-      <c r="F69" s="88"/>
-      <c r="G69" s="88"/>
-      <c r="H69" s="88"/>
-      <c r="I69" s="88">
+      <c r="B69" s="85"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85">
         <v>0.13647386580237011</v>
       </c>
-      <c r="J69" s="88">
+      <c r="J69" s="85">
         <v>8.9527808404686587E-3</v>
       </c>
-      <c r="K69" s="88">
+      <c r="K69" s="85">
         <v>9.9330278017672573E-3</v>
       </c>
-      <c r="L69" s="88"/>
-      <c r="M69" s="88"/>
-      <c r="N69" s="88"/>
-      <c r="O69" s="88"/>
-      <c r="P69" s="88"/>
-      <c r="Q69" s="88"/>
-      <c r="R69" s="88"/>
-      <c r="S69" s="88">
+      <c r="L69" s="85"/>
+      <c r="M69" s="85"/>
+      <c r="N69" s="85"/>
+      <c r="O69" s="85"/>
+      <c r="P69" s="85"/>
+      <c r="Q69" s="85"/>
+      <c r="R69" s="85"/>
+      <c r="S69" s="85">
         <v>8.2056034095653576</v>
       </c>
-      <c r="T69" s="88"/>
-      <c r="U69" s="88">
+      <c r="T69" s="85"/>
+      <c r="U69" s="85">
         <v>0.27742686995506127</v>
       </c>
-      <c r="V69" s="88">
+      <c r="V69" s="85">
         <v>6.3661047750047652</v>
       </c>
-      <c r="W69" s="88"/>
-      <c r="X69" s="88"/>
-      <c r="Y69" s="88"/>
-      <c r="Z69" s="88"/>
-      <c r="AA69" s="88"/>
-      <c r="AB69" s="88"/>
-      <c r="AC69" s="88">
+      <c r="W69" s="85"/>
+      <c r="X69" s="85"/>
+      <c r="Y69" s="85"/>
+      <c r="Z69" s="85"/>
+      <c r="AA69" s="85"/>
+      <c r="AB69" s="85"/>
+      <c r="AC69" s="85">
         <v>0.15659213524581297</v>
       </c>
-      <c r="AD69" s="88">
+      <c r="AD69" s="85">
         <v>25388.785202557039</v>
       </c>
-      <c r="AE69" s="88">
+      <c r="AE69" s="85">
         <v>6899.5131833250034</v>
       </c>
-      <c r="AF69" s="88">
+      <c r="AF69" s="85">
         <v>1584.0307774392547</v>
       </c>
-      <c r="AG69" s="88">
+      <c r="AG69" s="85">
         <v>1375.3992289763646</v>
       </c>
-      <c r="AH69" s="88">
-        <v>2.5310680221788415E-7</v>
-      </c>
-      <c r="AI69" s="88">
-        <v>1.1552813962509543E-2</v>
-      </c>
-      <c r="AJ69" s="88">
-        <v>1506.0568484258881</v>
-      </c>
-      <c r="AK69" s="88">
+      <c r="AH69" s="85">
+        <v>6.2569663358519765E-3</v>
+      </c>
+      <c r="AI69" s="85">
+        <v>2.8559314650720712E-2</v>
+      </c>
+      <c r="AJ69" s="85">
+        <v>1506.0335852119708</v>
+      </c>
+      <c r="AK69" s="85">
         <v>398.03513872028998</v>
       </c>
-      <c r="AL69" s="88">
+      <c r="AL69" s="85">
         <v>2254.165961371396</v>
       </c>
-      <c r="AM69" s="88">
+      <c r="AM69" s="85">
         <v>193.90557684901427</v>
       </c>
-      <c r="AN69" s="88"/>
-      <c r="AO69" s="88">
+      <c r="AN69" s="85"/>
+      <c r="AO69" s="85">
         <v>165.5692319429437</v>
       </c>
-      <c r="AP69" s="88"/>
-      <c r="AQ69" s="88"/>
-      <c r="AR69" s="88"/>
-      <c r="AS69" s="88"/>
-      <c r="AT69" s="88"/>
-      <c r="AU69" s="88"/>
-      <c r="AV69" s="88"/>
-      <c r="AW69" s="88"/>
-      <c r="AX69" s="88"/>
-      <c r="AY69" s="88"/>
-      <c r="AZ69" s="88"/>
-      <c r="BA69" s="88"/>
-      <c r="BB69" s="88"/>
-      <c r="BC69" s="88">
+      <c r="AP69" s="85"/>
+      <c r="AQ69" s="85"/>
+      <c r="AR69" s="85"/>
+      <c r="AS69" s="85"/>
+      <c r="AT69" s="85"/>
+      <c r="AU69" s="85"/>
+      <c r="AV69" s="85"/>
+      <c r="AW69" s="85"/>
+      <c r="AX69" s="85"/>
+      <c r="AY69" s="85"/>
+      <c r="AZ69" s="85"/>
+      <c r="BA69" s="85"/>
+      <c r="BB69" s="85"/>
+      <c r="BC69" s="85">
         <v>802.69388925901012</v>
       </c>
-      <c r="BD69" s="88"/>
-      <c r="BE69" s="88">
+      <c r="BD69" s="85"/>
+      <c r="BE69" s="85">
         <v>5.2201037594586435</v>
       </c>
-      <c r="BF69" s="88"/>
-      <c r="BG69" s="88"/>
-      <c r="BH69" s="88"/>
-      <c r="BI69" s="88"/>
-      <c r="BJ69" s="88"/>
-      <c r="BK69" s="88"/>
-      <c r="BL69" s="88"/>
-      <c r="BM69" s="88"/>
-      <c r="BN69" s="88"/>
-      <c r="BO69" s="88"/>
-      <c r="BP69" s="88"/>
-      <c r="BQ69" s="88"/>
-      <c r="BR69" s="88"/>
-      <c r="BS69" s="88"/>
-      <c r="BT69" s="88"/>
-      <c r="BU69" s="88"/>
-      <c r="BV69" s="88"/>
-      <c r="BW69" s="88"/>
-      <c r="BX69" s="88"/>
-      <c r="BY69" s="88"/>
-      <c r="BZ69" s="88"/>
-      <c r="CA69" s="88"/>
-      <c r="CB69" s="88"/>
-      <c r="CC69" s="88"/>
-      <c r="CD69" s="88"/>
-      <c r="CE69" s="88"/>
-      <c r="CF69" s="88"/>
-      <c r="CG69" s="88"/>
-      <c r="CH69" s="88"/>
-      <c r="CI69" s="88"/>
-      <c r="CJ69" s="88"/>
-      <c r="CK69" s="88"/>
-      <c r="CL69" s="88"/>
-      <c r="CM69" s="88"/>
-      <c r="CN69" s="88"/>
-      <c r="CO69" s="88"/>
-      <c r="CP69" s="88"/>
-      <c r="CQ69" s="88"/>
-      <c r="CR69" s="88"/>
-      <c r="CS69" s="88"/>
-      <c r="CT69" s="88"/>
-      <c r="CU69" s="88"/>
-      <c r="CV69" s="88"/>
-      <c r="CW69" s="88"/>
-      <c r="CX69" s="88"/>
-      <c r="CY69" s="88"/>
-      <c r="CZ69" s="88"/>
-      <c r="DA69" s="88"/>
-      <c r="DB69" s="88"/>
-      <c r="DC69" s="88"/>
-      <c r="DD69" s="88"/>
-      <c r="DE69" s="88"/>
-      <c r="DF69" s="88"/>
-      <c r="DG69" s="88"/>
-      <c r="DH69" s="88"/>
-      <c r="DI69" s="88"/>
-      <c r="DJ69" s="88"/>
-      <c r="DK69" s="88"/>
-      <c r="DL69" s="88"/>
-      <c r="DM69" s="88"/>
-      <c r="DN69" s="88"/>
-      <c r="DO69" s="88"/>
-      <c r="DP69" s="88"/>
-      <c r="DQ69" s="88"/>
-      <c r="DR69" s="88"/>
-      <c r="DS69" s="88"/>
-      <c r="DT69" s="88"/>
-      <c r="DU69" s="88"/>
-      <c r="DV69" s="88"/>
-      <c r="DW69" s="88"/>
-      <c r="DX69" s="88"/>
-      <c r="DY69" s="88"/>
-      <c r="DZ69" s="88"/>
-      <c r="EA69" s="88"/>
-      <c r="EB69" s="88"/>
-      <c r="EC69" s="88"/>
-      <c r="ED69" s="88"/>
-      <c r="EE69" s="88"/>
-      <c r="EF69" s="88"/>
-      <c r="EG69" s="88"/>
-      <c r="EH69" s="88"/>
-      <c r="EI69" s="88"/>
-      <c r="EJ69" s="88"/>
-      <c r="EK69" s="88"/>
-      <c r="EL69" s="88"/>
-      <c r="EM69" s="88"/>
-      <c r="EN69" s="88"/>
-      <c r="EO69" s="88"/>
-      <c r="EP69" s="88">
+      <c r="BF69" s="85"/>
+      <c r="BG69" s="85"/>
+      <c r="BH69" s="85"/>
+      <c r="BI69" s="85"/>
+      <c r="BJ69" s="85"/>
+      <c r="BK69" s="85"/>
+      <c r="BL69" s="85"/>
+      <c r="BM69" s="85"/>
+      <c r="BN69" s="85"/>
+      <c r="BO69" s="85"/>
+      <c r="BP69" s="85"/>
+      <c r="BQ69" s="85"/>
+      <c r="BR69" s="85"/>
+      <c r="BS69" s="85"/>
+      <c r="BT69" s="85"/>
+      <c r="BU69" s="85"/>
+      <c r="BV69" s="85"/>
+      <c r="BW69" s="85"/>
+      <c r="BX69" s="85"/>
+      <c r="BY69" s="85"/>
+      <c r="BZ69" s="85"/>
+      <c r="CA69" s="85"/>
+      <c r="CB69" s="85"/>
+      <c r="CC69" s="85"/>
+      <c r="CD69" s="85"/>
+      <c r="CE69" s="85"/>
+      <c r="CF69" s="85"/>
+      <c r="CG69" s="85"/>
+      <c r="CH69" s="85"/>
+      <c r="CI69" s="85"/>
+      <c r="CJ69" s="85"/>
+      <c r="CK69" s="85"/>
+      <c r="CL69" s="85"/>
+      <c r="CM69" s="85"/>
+      <c r="CN69" s="85"/>
+      <c r="CO69" s="85"/>
+      <c r="CP69" s="85"/>
+      <c r="CQ69" s="85"/>
+      <c r="CR69" s="85"/>
+      <c r="CS69" s="85"/>
+      <c r="CT69" s="85"/>
+      <c r="CU69" s="85"/>
+      <c r="CV69" s="85"/>
+      <c r="CW69" s="85"/>
+      <c r="CX69" s="85"/>
+      <c r="CY69" s="85"/>
+      <c r="CZ69" s="85"/>
+      <c r="DA69" s="85"/>
+      <c r="DB69" s="85"/>
+      <c r="DC69" s="85"/>
+      <c r="DD69" s="85"/>
+      <c r="DE69" s="85"/>
+      <c r="DF69" s="85"/>
+      <c r="DG69" s="85"/>
+      <c r="DH69" s="85"/>
+      <c r="DI69" s="85"/>
+      <c r="DJ69" s="85"/>
+      <c r="DK69" s="85"/>
+      <c r="DL69" s="85"/>
+      <c r="DM69" s="85"/>
+      <c r="DN69" s="85"/>
+      <c r="DO69" s="85"/>
+      <c r="DP69" s="85"/>
+      <c r="DQ69" s="85"/>
+      <c r="DR69" s="85"/>
+      <c r="DS69" s="85"/>
+      <c r="DT69" s="85"/>
+      <c r="DU69" s="85"/>
+      <c r="DV69" s="85"/>
+      <c r="DW69" s="85"/>
+      <c r="DX69" s="85"/>
+      <c r="DY69" s="85"/>
+      <c r="DZ69" s="85"/>
+      <c r="EA69" s="85"/>
+      <c r="EB69" s="85"/>
+      <c r="EC69" s="85"/>
+      <c r="ED69" s="85"/>
+      <c r="EE69" s="85"/>
+      <c r="EF69" s="85"/>
+      <c r="EG69" s="85"/>
+      <c r="EH69" s="85"/>
+      <c r="EI69" s="85"/>
+      <c r="EJ69" s="85"/>
+      <c r="EK69" s="85"/>
+      <c r="EL69" s="85"/>
+      <c r="EM69" s="85"/>
+      <c r="EN69" s="85"/>
+      <c r="EO69" s="85"/>
+      <c r="EP69" s="85">
         <v>110.48702985183937</v>
       </c>
-      <c r="EQ69" s="88">
+      <c r="EQ69" s="85">
         <v>58319.278859883379</v>
       </c>
-      <c r="ER69" s="88">
+      <c r="ER69" s="85">
         <v>99018.313672292163</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A70" s="85" t="s">
+      <c r="A70" s="88" t="s">
         <v>593</v>
       </c>
       <c r="B70" s="19"/>
@@ -27791,13 +27854,13 @@
         <v>324.08841897772322</v>
       </c>
       <c r="AH70" s="19">
-        <v>5.4024751955229031E-8</v>
+        <v>1.3355273399394104E-3</v>
       </c>
       <c r="AI70" s="19">
-        <v>2.4659072898886476E-3</v>
+        <v>6.0958847273030938E-3</v>
       </c>
       <c r="AJ70" s="19">
-        <v>354.87582452269652</v>
+        <v>354.87085907194387</v>
       </c>
       <c r="AK70" s="19">
         <v>93.789916474974405</v>
@@ -27931,7 +27994,7 @@
       </c>
     </row>
     <row r="71" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A71" s="85" t="s">
+      <c r="A71" s="88" t="s">
         <v>569</v>
       </c>
       <c r="B71" s="19">
@@ -27963,7 +28026,7 @@
         <v>12.04336226080895</v>
       </c>
       <c r="L71" s="19">
-        <v>5.7486805797263368E-2</v>
+        <v>4.489320669185895E-2</v>
       </c>
       <c r="M71" s="19">
         <v>221.66428716646396</v>
@@ -27988,10 +28051,10 @@
         <v>3.6334181441316105</v>
       </c>
       <c r="W71" s="19">
-        <v>3.2962083684574636E-2</v>
+        <v>688.68031482695028</v>
       </c>
       <c r="X71" s="19">
-        <v>6886.7575925867113</v>
+        <v>6198.1228334425514</v>
       </c>
       <c r="Y71" s="19">
         <v>3651.4984525969039</v>
@@ -28195,7 +28258,7 @@
       </c>
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A72" s="85" t="s">
+      <c r="A72" s="88" t="s">
         <v>327</v>
       </c>
       <c r="B72" s="19"/>
@@ -28351,7 +28414,7 @@
       </c>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A73" s="85" t="s">
+      <c r="A73" s="88" t="s">
         <v>412</v>
       </c>
       <c r="B73" s="19"/>
@@ -28379,7 +28442,7 @@
         <v>0.32418851624690209</v>
       </c>
       <c r="L73" s="19">
-        <v>9.2615010495035351E-3</v>
+        <v>7.232589724301984E-3</v>
       </c>
       <c r="M73" s="19">
         <v>386.76896359537704</v>
@@ -28406,10 +28469,10 @@
         <v>6831.1176000000005</v>
       </c>
       <c r="W73" s="19">
-        <v>5.3104076388436946E-3</v>
+        <v>110.9509107365617</v>
       </c>
       <c r="X73" s="19">
-        <v>1109.5017680466526</v>
+        <v>998.55819662905503</v>
       </c>
       <c r="Y73" s="19">
         <v>588.28032418869691</v>
@@ -28587,24 +28650,28 @@
       </c>
     </row>
     <row r="74" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A74" s="85" t="s">
+      <c r="A74" s="88" t="s">
         <v>590</v>
       </c>
       <c r="B74" s="19"/>
       <c r="C74" s="19"/>
       <c r="D74" s="19"/>
       <c r="E74" s="19"/>
-      <c r="F74" s="19"/>
+      <c r="F74" s="19">
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
+      <c r="H74" s="19">
+        <v>7.6923076923076927E-2</v>
+      </c>
       <c r="I74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="J74" s="19"/>
       <c r="K74" s="19"/>
       <c r="L74" s="19"/>
       <c r="M74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="N74" s="19"/>
       <c r="O74" s="19"/>
@@ -28615,28 +28682,28 @@
       <c r="T74" s="19"/>
       <c r="U74" s="19"/>
       <c r="V74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="W74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="X74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Y74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="Z74" s="19"/>
       <c r="AA74" s="19"/>
       <c r="AB74" s="19"/>
       <c r="AC74" s="19"/>
       <c r="AD74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AE74" s="19"/>
       <c r="AF74" s="19"/>
       <c r="AG74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AH74" s="19"/>
       <c r="AI74" s="19"/>
@@ -28647,7 +28714,7 @@
       <c r="AN74" s="19"/>
       <c r="AO74" s="19"/>
       <c r="AP74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AQ74" s="19"/>
       <c r="AR74" s="19"/>
@@ -28658,10 +28725,10 @@
       </c>
       <c r="AV74" s="19"/>
       <c r="AW74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AX74" s="19">
-        <v>9.0909090909090912E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="AY74" s="19"/>
       <c r="AZ74" s="19"/>
@@ -28763,11 +28830,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="ER74" s="19">
-        <v>1.0000011</v>
+        <v>1.0000010999999998</v>
       </c>
     </row>
     <row r="75" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A75" s="85" t="s">
+      <c r="A75" s="88" t="s">
         <v>29</v>
       </c>
       <c r="B75" s="19">
@@ -28795,7 +28862,7 @@
         <v>5.2027871529316143E-2</v>
       </c>
       <c r="L75" s="19">
-        <v>1.1787426236464485E-2</v>
+        <v>9.2051620377876734E-3</v>
       </c>
       <c r="M75" s="19">
         <v>54794.726807006555</v>
@@ -28824,10 +28891,10 @@
         <v>2.4615930498405342E-2</v>
       </c>
       <c r="W75" s="19">
-        <v>6.7587357593381749E-3</v>
+        <v>141.21098396311072</v>
       </c>
       <c r="X75" s="19">
-        <v>1412.1004986311486</v>
+        <v>1270.898855667996</v>
       </c>
       <c r="Y75" s="19">
         <v>3209.7683243070956</v>
@@ -29015,7 +29082,7 @@
       </c>
     </row>
     <row r="76" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A76" s="85" t="s">
+      <c r="A76" s="88" t="s">
         <v>370</v>
       </c>
       <c r="B76" s="19"/>
@@ -29043,7 +29110,7 @@
         <v>11.208398907279868</v>
       </c>
       <c r="L76" s="19">
-        <v>2.8440457970817806E-5</v>
+        <v>2.2210024376686304E-5</v>
       </c>
       <c r="M76" s="19">
         <v>509.88789994793041</v>
@@ -29060,10 +29127,10 @@
       <c r="U76" s="19"/>
       <c r="V76" s="19"/>
       <c r="W76" s="19">
-        <v>1.6307337704025841E-5</v>
+        <v>0.34071093840628475</v>
       </c>
       <c r="X76" s="19">
-        <v>3.4070868462915485</v>
+        <v>3.0663984456565618</v>
       </c>
       <c r="Y76" s="19">
         <v>0.59932003602470352</v>
@@ -29241,7 +29308,7 @@
       </c>
     </row>
     <row r="77" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A77" s="85" t="s">
+      <c r="A77" s="88" t="s">
         <v>30</v>
       </c>
       <c r="B77" s="19"/>
@@ -29255,7 +29322,7 @@
       <c r="J77" s="19"/>
       <c r="K77" s="19"/>
       <c r="L77" s="19">
-        <v>1.6384251894261033E-4</v>
+        <v>1.2794963932672655E-4</v>
       </c>
       <c r="M77" s="19">
         <v>50.571529665689596</v>
@@ -29288,10 +29355,10 @@
         <v>39.707187112559225</v>
       </c>
       <c r="W77" s="19">
-        <v>9.3944875621092852E-5</v>
+        <v>1.9628002628180277</v>
       </c>
       <c r="X77" s="19">
-        <v>19.627872790425034</v>
+        <v>17.665202365362244</v>
       </c>
       <c r="Y77" s="19">
         <v>306.58632598927056</v>
@@ -29315,13 +29382,13 @@
         <v>49.747835891863119</v>
       </c>
       <c r="AH77" s="19">
-        <v>1.9166543265983583E-9</v>
+        <v>4.73809533916335E-5</v>
       </c>
       <c r="AI77" s="19">
-        <v>8.7483823712365097E-5</v>
+        <v>2.1626575623545215E-4</v>
       </c>
       <c r="AJ77" s="19">
-        <v>11.613149263743816</v>
+        <v>11.612973102774555</v>
       </c>
       <c r="AK77" s="19"/>
       <c r="AL77" s="19">
@@ -29491,7 +29558,7 @@
       </c>
     </row>
     <row r="78" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A78" s="85" t="s">
+      <c r="A78" s="88" t="s">
         <v>371</v>
       </c>
       <c r="B78" s="19">
@@ -29565,13 +29632,13 @@
         <v>109.10050590892386</v>
       </c>
       <c r="AH78" s="19">
-        <v>6.2439907268885603E-9</v>
+        <v>1.5435555045210521E-4</v>
       </c>
       <c r="AI78" s="19">
-        <v>2.8500088744861583E-4</v>
+        <v>7.0454090637945177E-4</v>
       </c>
       <c r="AJ78" s="19">
-        <v>37.832799434464754</v>
+        <v>37.832225545139373</v>
       </c>
       <c r="AK78" s="19">
         <v>136.0748104760799</v>
@@ -29751,11 +29818,11 @@
         <v>5675.8936556490207</v>
       </c>
       <c r="ER78" s="19">
-        <v>109403.70373058438</v>
+        <v>109403.70373058437</v>
       </c>
     </row>
     <row r="79" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A79" s="85" t="s">
+      <c r="A79" s="88" t="s">
         <v>372</v>
       </c>
       <c r="B79" s="19"/>
@@ -29977,7 +30044,7 @@
       </c>
     </row>
     <row r="80" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A80" s="85" t="s">
+      <c r="A80" s="88" t="s">
         <v>373</v>
       </c>
       <c r="B80" s="19"/>
@@ -30189,7 +30256,7 @@
       </c>
     </row>
     <row r="81" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A81" s="85" t="s">
+      <c r="A81" s="88" t="s">
         <v>374</v>
       </c>
       <c r="B81" s="19">
@@ -30223,7 +30290,7 @@
         <v>57.87308168251554</v>
       </c>
       <c r="L81" s="19">
-        <v>8.7913454778992053E-3</v>
+        <v>6.865430843918217E-3</v>
       </c>
       <c r="M81" s="19">
         <v>4112.4741299166435</v>
@@ -30256,10 +30323,10 @@
         <v>909.50069620565944</v>
       </c>
       <c r="W81" s="19">
-        <v>5.0408273920189749E-3</v>
+        <v>105.31854201160589</v>
       </c>
       <c r="X81" s="19">
-        <v>1053.1784533740324</v>
+        <v>947.86687810445267</v>
       </c>
       <c r="Y81" s="19">
         <v>2434.714933483589</v>
@@ -30289,13 +30356,13 @@
         <v>239.53317204334533</v>
       </c>
       <c r="AH81" s="19">
-        <v>1.3508713974768981E-8</v>
+        <v>3.3394427901633984E-4</v>
       </c>
       <c r="AI81" s="19">
-        <v>6.1659211864607735E-4</v>
+        <v>1.524256201537816E-3</v>
       </c>
       <c r="AJ81" s="19">
-        <v>81.850291422764684</v>
+        <v>81.849049827911486</v>
       </c>
       <c r="AK81" s="19">
         <v>123.66527191772326</v>
@@ -30471,11 +30538,11 @@
         <v>5029.9800896295146</v>
       </c>
       <c r="ER81" s="19">
-        <v>59771.082006278804</v>
+        <v>59771.082006278797</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A82" s="85" t="s">
+      <c r="A82" s="88" t="s">
         <v>375</v>
       </c>
       <c r="B82" s="19">
@@ -30509,7 +30576,7 @@
         <v>4.3469102799256838</v>
       </c>
       <c r="L82" s="19">
-        <v>2.168157702180035E-3</v>
+        <v>1.6931807310321611E-3</v>
       </c>
       <c r="M82" s="19">
         <v>3625.633240039193</v>
@@ -30542,10 +30609,10 @@
         <v>161.76364688716916</v>
       </c>
       <c r="W82" s="19">
-        <v>1.2431895393988915E-3</v>
+        <v>25.974091067048036</v>
       </c>
       <c r="X82" s="19">
-        <v>259.73919250396972</v>
+        <v>233.76681960343222</v>
       </c>
       <c r="Y82" s="19">
         <v>3332.8266588153574</v>
@@ -30575,13 +30642,13 @@
         <v>226.87822649637727</v>
       </c>
       <c r="AH82" s="19">
-        <v>2.3362695417240179E-8</v>
+        <v>5.7754117020765796E-4</v>
       </c>
       <c r="AI82" s="19">
-        <v>1.0663675233263999E-3</v>
+        <v>2.6361305332898246E-3</v>
       </c>
       <c r="AJ82" s="19">
-        <v>141.55628917712258</v>
+        <v>141.55414189630511</v>
       </c>
       <c r="AK82" s="19">
         <v>81.849726550251688</v>
@@ -30763,7 +30830,7 @@
       </c>
     </row>
     <row r="83" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A83" s="85" t="s">
+      <c r="A83" s="88" t="s">
         <v>376</v>
       </c>
       <c r="B83" s="19">
@@ -30797,7 +30864,7 @@
         <v>0.39627780008019342</v>
       </c>
       <c r="L83" s="19">
-        <v>9.8792354837540426E-5</v>
+        <v>7.7149974568743648E-5</v>
       </c>
       <c r="M83" s="19">
         <v>95.085456535871629</v>
@@ -30830,10 +30897,10 @@
         <v>13.175085883006934</v>
       </c>
       <c r="W83" s="19">
-        <v>5.664607421458472E-5</v>
+        <v>1.1835124440894222</v>
       </c>
       <c r="X83" s="19">
-        <v>11.835046152439736</v>
+        <v>10.651611996804798</v>
       </c>
       <c r="Y83" s="19">
         <v>133.3304902208609</v>
@@ -30863,13 +30930,13 @@
         <v>37.291698418022172</v>
       </c>
       <c r="AH83" s="19">
-        <v>2.8561641508534273E-9</v>
+        <v>7.0606253111179363E-5</v>
       </c>
       <c r="AI83" s="19">
-        <v>1.3036683641869814E-4</v>
+        <v>3.2227537926109498E-4</v>
       </c>
       <c r="AJ83" s="19">
-        <v>17.305708473150972</v>
+        <v>17.305445961211184</v>
       </c>
       <c r="AK83" s="19">
         <v>1891.2989719572008</v>
@@ -31055,7 +31122,7 @@
       </c>
     </row>
     <row r="84" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A84" s="85" t="s">
+      <c r="A84" s="88" t="s">
         <v>712</v>
       </c>
       <c r="B84" s="19"/>
@@ -31217,7 +31284,7 @@
       </c>
     </row>
     <row r="85" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="88" t="s">
         <v>713</v>
       </c>
       <c r="B85" s="19">
@@ -31429,7 +31496,7 @@
       </c>
     </row>
     <row r="86" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A86" s="85" t="s">
+      <c r="A86" s="88" t="s">
         <v>570</v>
       </c>
       <c r="B86" s="19">
@@ -31645,170 +31712,170 @@
       </c>
     </row>
     <row r="87" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A87" s="85" t="s">
+      <c r="A87" s="88" t="s">
         <v>736</v>
       </c>
       <c r="B87" s="19">
-        <v>6.8636667861307551E-2</v>
+        <v>1434.0305681357959</v>
       </c>
       <c r="C87" s="19">
-        <v>7.2755933886824121E-3</v>
+        <v>152.00946732699563</v>
       </c>
       <c r="D87" s="19">
-        <v>7.6142401674854463E-4</v>
+        <v>15.908483750064059</v>
       </c>
       <c r="E87" s="19">
-        <v>1.1989784455186216E-3</v>
+        <v>25.050338179061011</v>
       </c>
       <c r="F87" s="19">
-        <v>1.7775226226100058E-3</v>
+        <v>37.137901005427636</v>
       </c>
       <c r="G87" s="19">
-        <v>6.6040039634372473E-3</v>
+        <v>137.97790380493788</v>
       </c>
       <c r="H87" s="19">
-        <v>5.8280691565020717E-3</v>
+        <v>121.76624512893653</v>
       </c>
       <c r="I87" s="19">
-        <v>2.7744031537259984E-3</v>
+        <v>57.965793718524559</v>
       </c>
       <c r="J87" s="19">
-        <v>1.820027831144106E-4</v>
+        <v>3.8025965217199311</v>
       </c>
       <c r="K87" s="19">
-        <v>2.0193040987919679E-4</v>
+        <v>4.21894578256763</v>
       </c>
       <c r="L87" s="19">
-        <v>1.9304657830759772E-6</v>
+        <v>3.1497550110894369E-2</v>
       </c>
       <c r="M87" s="19">
-        <v>1.1413326011638011E-2</v>
+        <v>238.45939633696719</v>
       </c>
       <c r="N87" s="19">
-        <v>1.0215902037591325E-2</v>
+        <v>213.44153583605564</v>
       </c>
       <c r="O87" s="19">
-        <v>1.2151384441706249E-2</v>
+        <v>253.87970129592657</v>
       </c>
       <c r="P87" s="19">
-        <v>2.0179381533042681E-3</v>
+        <v>42.160919033733101</v>
       </c>
       <c r="Q87" s="19">
-        <v>1.2320997610409294E-3</v>
+        <v>25.742344076139759</v>
       </c>
       <c r="R87" s="19">
-        <v>3.1788018306000386E-3</v>
+        <v>66.414922768945161</v>
       </c>
       <c r="S87" s="19">
-        <v>2.1437994480263509E-3</v>
+        <v>44.790547621492124</v>
       </c>
       <c r="T87" s="19">
-        <v>2.1776757335664955E-2</v>
+        <v>454.98327158482869</v>
       </c>
       <c r="U87" s="19">
-        <v>1.0952460979548097E-3</v>
+        <v>22.88305118879541</v>
       </c>
       <c r="V87" s="19">
-        <v>5.2968150965259364E-2</v>
+        <v>1106.6671793464666</v>
       </c>
       <c r="W87" s="19"/>
       <c r="X87" s="19">
-        <v>0.23126547625359481</v>
+        <v>4831.8541545801436</v>
       </c>
       <c r="Y87" s="19">
-        <v>0.14196901042815313</v>
+        <v>2966.1681871466476</v>
       </c>
       <c r="Z87" s="19">
-        <v>2.5704672901471444E-2</v>
+        <v>537.04947855462046</v>
       </c>
       <c r="AA87" s="19">
-        <v>5.7306541806547352E-2</v>
+        <v>1197.3094741545237</v>
       </c>
       <c r="AB87" s="19">
-        <v>5.076435955033876E-4</v>
+        <v>10.606232154818841</v>
       </c>
       <c r="AC87" s="19">
-        <v>1.9521298149483099E-3</v>
+        <v>40.785980946246674</v>
       </c>
       <c r="AD87" s="19">
-        <v>8.8867551735900257E-3</v>
+        <v>185.67158003967026</v>
       </c>
       <c r="AE87" s="19">
-        <v>3.4954874278889658E-2</v>
+        <v>730.31456484106388</v>
       </c>
       <c r="AF87" s="19">
-        <v>1.2944060844779922E-3</v>
+        <v>27.044114327828687</v>
       </c>
       <c r="AG87" s="19">
-        <v>4.671643853640166E-3</v>
+        <v>97.60497265252998</v>
       </c>
       <c r="AH87" s="19">
-        <v>1.0416624938902175E-12</v>
+        <v>5.380086350736873E-4</v>
       </c>
       <c r="AI87" s="19">
-        <v>4.7545672017451217E-8</v>
+        <v>2.4556881193099822E-3</v>
       </c>
       <c r="AJ87" s="19">
-        <v>6.3115096525535345E-3</v>
+        <v>131.86479998133916</v>
       </c>
       <c r="AK87" s="19">
-        <v>1.6808335403852635E-3</v>
+        <v>35.117769436752816</v>
       </c>
       <c r="AL87" s="19">
-        <v>7.7599581409531476E-3</v>
+        <v>162.12933302745918</v>
       </c>
       <c r="AM87" s="19">
-        <v>6.4040567431429321E-5</v>
+        <v>1.3380039293720141</v>
       </c>
       <c r="AN87" s="19">
-        <v>3.1947205855213309E-3</v>
+        <v>66.74751439780924</v>
       </c>
       <c r="AO87" s="19">
-        <v>5.458455685987235E-3</v>
+        <v>114.04388575997551</v>
       </c>
       <c r="AP87" s="19">
-        <v>8.9005109299571876E-4</v>
+        <v>18.59589799926837</v>
       </c>
       <c r="AQ87" s="19">
-        <v>2.2212870668634017E-3</v>
+        <v>46.409501710127699</v>
       </c>
       <c r="AR87" s="19"/>
       <c r="AS87" s="19">
-        <v>1.0713400679281605E-3</v>
+        <v>22.383580878111623</v>
       </c>
       <c r="AT87" s="19">
-        <v>1.0791758997934502E-3</v>
+        <v>22.54729544602019</v>
       </c>
       <c r="AU87" s="19"/>
       <c r="AV87" s="19">
-        <v>1.2449394284194066E-4</v>
+        <v>2.6010604119629015</v>
       </c>
       <c r="AW87" s="19">
-        <v>8.1640459292672062E-5</v>
+        <v>1.7057196666205923</v>
       </c>
       <c r="AX87" s="19">
-        <v>5.1998082645577748E-4</v>
+        <v>10.863994759897921</v>
       </c>
       <c r="AY87" s="19">
-        <v>1.0752359695440614E-5</v>
+        <v>0.22464978215449455</v>
       </c>
       <c r="AZ87" s="19">
-        <v>1.4073730270571614E-4</v>
+        <v>2.9404340339597139</v>
       </c>
       <c r="BA87" s="19">
-        <v>7.4144525170925291E-4</v>
+        <v>15.491066053770298</v>
       </c>
       <c r="BB87" s="19">
-        <v>7.7482279350783328E-6</v>
+        <v>0.16188425303859666</v>
       </c>
       <c r="BC87" s="19">
-        <v>1.6834015040323857E-3</v>
+        <v>35.171422075824339</v>
       </c>
       <c r="BD87" s="19">
-        <v>1.9387282701318642E-3</v>
+        <v>40.505981559244688</v>
       </c>
       <c r="BE87" s="19">
-        <v>1.6398883978649637E-2</v>
+        <v>342.62299790274147</v>
       </c>
       <c r="BF87" s="19"/>
       <c r="BG87" s="19"/>
@@ -31879,34 +31946,34 @@
       <c r="DT87" s="19"/>
       <c r="DU87" s="19"/>
       <c r="DV87" s="19">
-        <v>3.054290086501918E-4</v>
+        <v>6.3813490434126612</v>
       </c>
       <c r="DW87" s="19">
-        <v>3.668181971495193E-4</v>
+        <v>7.6639575324927867</v>
       </c>
       <c r="DX87" s="19">
-        <v>4.2648314247370212E-4</v>
+        <v>8.9105412916857709</v>
       </c>
       <c r="DY87" s="19">
-        <v>7.0176260222944067E-4</v>
+        <v>14.661973760221642</v>
       </c>
       <c r="DZ87" s="19">
-        <v>7.1838839520087391E-4</v>
+        <v>15.009337583137832</v>
       </c>
       <c r="EA87" s="19">
-        <v>1.293044318273704E-3</v>
+        <v>27.015662853937943</v>
       </c>
       <c r="EB87" s="19">
-        <v>1.5503657353098154E-3</v>
+        <v>32.391896714990843</v>
       </c>
       <c r="EC87" s="19">
-        <v>2.8525718705382655E-3</v>
+        <v>59.598978033463212</v>
       </c>
       <c r="ED87" s="19">
-        <v>4.9365923741660619E-3</v>
+        <v>103.14056010535087</v>
       </c>
       <c r="EE87" s="19">
-        <v>8.8963254704678713E-3</v>
+        <v>185.87153290300998</v>
       </c>
       <c r="EF87" s="19"/>
       <c r="EG87" s="19"/>
@@ -31919,182 +31986,182 @@
       <c r="EN87" s="19"/>
       <c r="EO87" s="19"/>
       <c r="EP87" s="19">
-        <v>1.667626332836258E-2</v>
+        <v>348.41830351492177</v>
       </c>
       <c r="EQ87" s="19">
-        <v>0.18794763704569037</v>
+        <v>3926.8027590883289</v>
       </c>
       <c r="ER87" s="19">
-        <v>1.0000000000000002</v>
+        <v>20893.067988578747</v>
       </c>
     </row>
     <row r="88" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A88" s="85" t="s">
+      <c r="A88" s="88" t="s">
         <v>377</v>
       </c>
       <c r="B88" s="19">
-        <v>14340.237044690095</v>
+        <v>12906.27511322216</v>
       </c>
       <c r="C88" s="19">
-        <v>1520.0873976765672</v>
+        <v>1368.0852059429601</v>
       </c>
       <c r="D88" s="19">
-        <v>159.0840760766238</v>
+        <v>143.17635375057651</v>
       </c>
       <c r="E88" s="19">
-        <v>250.50218281216453</v>
+        <v>225.45304361154905</v>
       </c>
       <c r="F88" s="19">
-        <v>371.3772325316537</v>
+        <v>334.16418597192558</v>
       </c>
       <c r="G88" s="19">
-        <v>1379.7724340454149</v>
+        <v>1241.8011342444406</v>
       </c>
       <c r="H88" s="19">
-        <v>1217.6566232202085</v>
+        <v>1095.8192830835053</v>
       </c>
       <c r="I88" s="19">
-        <v>579.56425369118256</v>
+        <v>521.61522038979774</v>
       </c>
       <c r="J88" s="19">
-        <v>38.025783214416187</v>
+        <v>34.223368695479365</v>
       </c>
       <c r="K88" s="19">
-        <v>42.189255895266413</v>
+        <v>37.970512043108663</v>
       </c>
       <c r="L88" s="19">
-        <v>0.4033315980885297</v>
+        <v>0.28347795099804923</v>
       </c>
       <c r="M88" s="19">
-        <v>2384.4916409527505</v>
+        <v>2146.0576439557813</v>
       </c>
       <c r="N88" s="19">
-        <v>2134.4051424585182</v>
+        <v>1920.9738225245001</v>
       </c>
       <c r="O88" s="19">
-        <v>2538.7848615748235</v>
+        <v>2284.9173116633383</v>
       </c>
       <c r="P88" s="19">
-        <v>421.60717239917761</v>
+        <v>379.44827130359783</v>
       </c>
       <c r="Q88" s="19">
-        <v>257.42220866163643</v>
+        <v>231.68109668525773</v>
       </c>
       <c r="R88" s="19">
-        <v>664.14604888762085</v>
+        <v>597.73430492050625</v>
       </c>
       <c r="S88" s="19">
-        <v>447.90333241547302</v>
+        <v>403.11492859342894</v>
       </c>
       <c r="T88" s="19">
-        <v>4549.8109390909503</v>
+        <v>4094.8494442634574</v>
       </c>
       <c r="U88" s="19">
-        <v>228.82941664185608</v>
+        <v>205.94746069915863</v>
       </c>
       <c r="V88" s="19">
-        <v>11066.527916222787</v>
+        <v>9959.9276910412718</v>
       </c>
       <c r="W88" s="19">
-        <v>0.14035638534450395</v>
+        <v>4831.7772315032198</v>
       </c>
       <c r="X88" s="19">
-        <v>48317.89974773056</v>
+        <v>38654.756313564212</v>
       </c>
       <c r="Y88" s="19">
-        <v>29661.448993365131</v>
+        <v>26695.436761242898</v>
       </c>
       <c r="Z88" s="19">
-        <v>5370.4690808733012</v>
+        <v>4833.4453069915817</v>
       </c>
       <c r="AA88" s="19">
-        <v>11973.037435003427</v>
+        <v>10775.785267390711</v>
       </c>
       <c r="AB88" s="19">
-        <v>106.06181390459288</v>
+        <v>95.456089393369538</v>
       </c>
       <c r="AC88" s="19">
-        <v>407.85785733265169</v>
+        <v>367.07382851621992</v>
       </c>
       <c r="AD88" s="19">
-        <v>1856.6160045506197</v>
+        <v>1670.9672972801088</v>
       </c>
       <c r="AE88" s="19">
-        <v>7303.1106935363578</v>
+        <v>6572.8310835695729</v>
       </c>
       <c r="AF88" s="19">
-        <v>270.43984887220233</v>
+        <v>243.39702895045812</v>
       </c>
       <c r="AG88" s="19">
-        <v>975.9541457905367</v>
+        <v>878.36783079584632</v>
       </c>
       <c r="AH88" s="19">
-        <v>2.1763421139751404E-7</v>
+        <v>4.8420777156631843E-3</v>
       </c>
       <c r="AI88" s="19">
-        <v>9.9337020345607197E-3</v>
+        <v>2.2101193073789833E-2</v>
       </c>
       <c r="AJ88" s="19">
-        <v>1318.6616913040668</v>
+        <v>1186.7831998320521</v>
       </c>
       <c r="AK88" s="19">
-        <v>351.17601353398771</v>
+        <v>316.05992493077525</v>
       </c>
       <c r="AL88" s="19">
-        <v>1621.2855703164505</v>
+        <v>1459.1639972471323</v>
       </c>
       <c r="AM88" s="19">
-        <v>13.379975253152704</v>
+        <v>12.042035364348122</v>
       </c>
       <c r="AN88" s="19">
-        <v>667.47194925750682</v>
+        <v>600.72762958028306</v>
       </c>
       <c r="AO88" s="19">
-        <v>1140.4333991440687</v>
+        <v>1026.3949718397794</v>
       </c>
       <c r="AP88" s="19">
-        <v>185.86718085068156</v>
+        <v>167.28615891649221</v>
       </c>
       <c r="AQ88" s="19">
-        <v>464.09279581421004</v>
+        <v>417.68551539114918</v>
       </c>
       <c r="AR88" s="19"/>
       <c r="AS88" s="19">
-        <v>223.83473744104822</v>
+        <v>201.45222790300454</v>
       </c>
       <c r="AT88" s="19">
-        <v>225.47187528430206</v>
+        <v>202.92565901418166</v>
       </c>
       <c r="AU88" s="19"/>
       <c r="AV88" s="19">
-        <v>26.01047962568617</v>
+        <v>23.40954370766611</v>
       </c>
       <c r="AW88" s="19">
-        <v>16.966205934837536</v>
+        <v>15.27455392266225</v>
       </c>
       <c r="AX88" s="19">
-        <v>109.54851852724363</v>
+        <v>98.699029762158176</v>
       </c>
       <c r="AY88" s="19">
-        <v>2.2464870691852492</v>
+        <v>2.0218480393904503</v>
       </c>
       <c r="AZ88" s="19">
-        <v>29.40419960229443</v>
+        <v>26.463906305637419</v>
       </c>
       <c r="BA88" s="19">
-        <v>154.90991909245122</v>
+        <v>139.41959448393263</v>
       </c>
       <c r="BB88" s="19">
-        <v>1.6188347821580311</v>
+        <v>1.4569582773473695</v>
       </c>
       <c r="BC88" s="19">
-        <v>351.71253735673929</v>
+        <v>316.54279868241895</v>
       </c>
       <c r="BD88" s="19">
-        <v>405.05787686417659</v>
+        <v>364.55383403320207</v>
       </c>
       <c r="BE88" s="19">
-        <v>3426.2135801434351</v>
+        <v>3083.6069811246721</v>
       </c>
       <c r="BF88" s="19"/>
       <c r="BG88" s="19"/>
@@ -32165,34 +32232,34 @@
       <c r="DT88" s="19"/>
       <c r="DU88" s="19"/>
       <c r="DV88" s="19">
-        <v>63.813185005117944</v>
+        <v>57.43214139071393</v>
       </c>
       <c r="DW88" s="19">
-        <v>76.639208506730697</v>
+        <v>68.97561779243506</v>
       </c>
       <c r="DX88" s="19">
-        <v>89.104986433715212</v>
+        <v>80.194871625171913</v>
       </c>
       <c r="DY88" s="19">
-        <v>146.61903583961416</v>
+        <v>131.95776384199473</v>
       </c>
       <c r="DZ88" s="19">
-        <v>150.09265744298307</v>
+        <v>135.08403824824043</v>
       </c>
       <c r="EA88" s="19">
-        <v>270.15533549506108</v>
+        <v>243.14096568544142</v>
       </c>
       <c r="EB88" s="19">
-        <v>323.91741678417304</v>
+        <v>291.5270704349175</v>
       </c>
       <c r="EC88" s="19">
-        <v>595.98692776276141</v>
+        <v>536.39080230116872</v>
       </c>
       <c r="ED88" s="19">
-        <v>1031.4006644611343</v>
+        <v>928.26504094815755</v>
       </c>
       <c r="EE88" s="19">
-        <v>1858.7064327046289</v>
+        <v>1672.8437961270895</v>
       </c>
       <c r="EF88" s="19"/>
       <c r="EG88" s="19"/>
@@ -32205,17 +32272,17 @@
       <c r="EN88" s="19"/>
       <c r="EO88" s="19"/>
       <c r="EP88" s="19">
-        <v>3484.1663588858883</v>
+        <v>3135.764731634295</v>
       </c>
       <c r="EQ88" s="19">
-        <v>39267.839643246232</v>
+        <v>35341.224831794949</v>
       </c>
       <c r="ER88" s="19">
-        <v>208929.67988578751</v>
+        <v>188037.61189720861</v>
       </c>
     </row>
     <row r="89" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A89" s="85" t="s">
+      <c r="A89" s="88" t="s">
         <v>378</v>
       </c>
       <c r="B89" s="19">
@@ -32249,7 +32316,7 @@
         <v>122.85693286775538</v>
       </c>
       <c r="L89" s="19">
-        <v>7.5960564761545057E-2</v>
+        <v>5.9319930668903439E-2</v>
       </c>
       <c r="M89" s="19">
         <v>2388.9222576060838</v>
@@ -32282,10 +32349,10 @@
         <v>3122.6753272005881</v>
       </c>
       <c r="W89" s="19">
-        <v>4.3554663677570209E-2</v>
+        <v>909.99221349856441</v>
       </c>
       <c r="X89" s="19">
-        <v>9099.8619396878712</v>
+        <v>8189.9299214870771</v>
       </c>
       <c r="Y89" s="19">
         <v>12213.079357919189</v>
@@ -32315,13 +32382,13 @@
         <v>306.62203769326663</v>
       </c>
       <c r="AH89" s="19">
-        <v>5.2773261141246568E-8</v>
+        <v>1.3045896653131259E-3</v>
       </c>
       <c r="AI89" s="19">
-        <v>2.4087842081577868E-3</v>
+        <v>5.9546727186734569E-3</v>
       </c>
       <c r="AJ89" s="19">
-        <v>319.75706977477171</v>
+        <v>319.75221934936911</v>
       </c>
       <c r="AK89" s="19">
         <v>73.286500758557636</v>
@@ -32503,7 +32570,7 @@
       </c>
     </row>
     <row r="90" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A90" s="85" t="s">
+      <c r="A90" s="88" t="s">
         <v>379</v>
       </c>
       <c r="B90" s="19">
@@ -32537,7 +32604,7 @@
         <v>32.963089384001634</v>
       </c>
       <c r="L90" s="19">
-        <v>3.8729224346553573E-4</v>
+        <v>3.0244837045511654E-4</v>
       </c>
       <c r="M90" s="19"/>
       <c r="N90" s="19"/>
@@ -32564,10 +32631,10 @@
       </c>
       <c r="V90" s="19"/>
       <c r="W90" s="19">
-        <v>2.2206764078211072E-4</v>
+        <v>4.6396828013112206</v>
       </c>
       <c r="X90" s="19">
-        <v>46.396521101598402</v>
+        <v>41.757145211800974</v>
       </c>
       <c r="Y90" s="19">
         <v>66.84461785950694</v>
@@ -32591,13 +32658,13 @@
         <v>420.79139053936831</v>
       </c>
       <c r="AH90" s="19">
-        <v>9.1750431554266933E-10</v>
+        <v>2.268130909578437E-5</v>
       </c>
       <c r="AI90" s="19">
-        <v>4.1878592650937245E-5</v>
+        <v>1.0352663070042828E-4</v>
       </c>
       <c r="AJ90" s="19">
-        <v>5.5592261649432269</v>
+        <v>5.5591418365135858</v>
       </c>
       <c r="AK90" s="19">
         <v>63.423578945224413</v>
@@ -32779,7 +32846,7 @@
       </c>
     </row>
     <row r="91" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A91" s="85" t="s">
+      <c r="A91" s="88" t="s">
         <v>380</v>
       </c>
       <c r="B91" s="19">
@@ -32813,7 +32880,7 @@
         <v>17.352607881895214</v>
       </c>
       <c r="L91" s="19">
-        <v>4.7119202732030709E-3</v>
+        <v>3.6796828038501987E-3</v>
       </c>
       <c r="M91" s="19">
         <v>8254.4282836124203</v>
@@ -32846,10 +32913,10 @@
         <v>283.27311104891055</v>
       </c>
       <c r="W91" s="19">
-        <v>2.7017453519352975E-3</v>
+        <v>56.44785254955768</v>
       </c>
       <c r="X91" s="19">
-        <v>564.47479151275547</v>
+        <v>508.03067294601902</v>
       </c>
       <c r="Y91" s="19">
         <v>5430.8154464039626</v>
@@ -32879,13 +32946,13 @@
         <v>659.86233853128999</v>
       </c>
       <c r="AH91" s="19">
-        <v>2.4958063804285126E-7</v>
+        <v>6.169797242234037E-3</v>
       </c>
       <c r="AI91" s="19">
-        <v>1.1391865626240203E-2</v>
+        <v>2.8161439795906764E-2</v>
       </c>
       <c r="AJ91" s="19">
-        <v>1512.2274401536624</v>
+        <v>1512.2045010318311</v>
       </c>
       <c r="AK91" s="19">
         <v>493.5729614559516</v>
@@ -33067,7 +33134,7 @@
       </c>
     </row>
     <row r="92" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="88" t="s">
         <v>381</v>
       </c>
       <c r="B92" s="19">
@@ -33099,7 +33166,7 @@
         <v>1.4668436960304052</v>
       </c>
       <c r="L92" s="19">
-        <v>7.8278969996748788E-5</v>
+        <v>6.1130444298527364E-5</v>
       </c>
       <c r="M92" s="19">
         <v>324.58688309779762</v>
@@ -33126,10 +33193,10 @@
         <v>6.3808588205529899</v>
       </c>
       <c r="W92" s="19">
-        <v>4.4884002928859398E-5</v>
+        <v>0.93776623964479633</v>
       </c>
       <c r="X92" s="19">
-        <v>9.3776003639193348</v>
+        <v>8.4398961568031652</v>
       </c>
       <c r="Y92" s="19">
         <v>1319.8332186102555</v>
@@ -33157,13 +33224,13 @@
         <v>134.95058421086716</v>
       </c>
       <c r="AH92" s="19">
-        <v>1.3060791113798706E-8</v>
+        <v>3.2287133179567646E-4</v>
       </c>
       <c r="AI92" s="19">
-        <v>5.9614711504680628E-4</v>
+        <v>1.4737148102610658E-3</v>
       </c>
       <c r="AJ92" s="19">
-        <v>79.136293497783143</v>
+        <v>79.135093071816925</v>
       </c>
       <c r="AK92" s="19">
         <v>264.62595755535926</v>
@@ -33343,11 +33410,11 @@
         <v>896.12599570709085</v>
       </c>
       <c r="ER92" s="19">
-        <v>20154.622162880729</v>
+        <v>20154.622162880733</v>
       </c>
     </row>
     <row r="93" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="88" t="s">
         <v>32</v>
       </c>
       <c r="B93" s="19">
@@ -33429,13 +33496,13 @@
         <v>75.138403425486842</v>
       </c>
       <c r="AH93" s="19">
-        <v>6.5093018968949799E-9</v>
+        <v>1.6091421677284139E-4</v>
       </c>
       <c r="AI93" s="19">
-        <v>2.9711075791595066E-4</v>
+        <v>7.3447730128535212E-4</v>
       </c>
       <c r="AJ93" s="19">
-        <v>39.440338873064086</v>
+        <v>39.439740598813245</v>
       </c>
       <c r="AK93" s="19"/>
       <c r="AL93" s="19">
@@ -33619,7 +33686,7 @@
       </c>
     </row>
     <row r="94" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="88" t="s">
         <v>382</v>
       </c>
       <c r="B94" s="19">
@@ -33651,7 +33718,7 @@
         <v>17.993479860096034</v>
       </c>
       <c r="L94" s="19">
-        <v>1.4487479997050271E-3</v>
+        <v>1.131371668562443E-3</v>
       </c>
       <c r="M94" s="19"/>
       <c r="N94" s="19"/>
@@ -33678,10 +33745,10 @@
         <v>125.44456354699146</v>
       </c>
       <c r="W94" s="19">
-        <v>8.3069066269830035E-4</v>
+        <v>17.355708230866231</v>
       </c>
       <c r="X94" s="19">
-        <v>173.55593424166844</v>
+        <v>156.20137407779603</v>
       </c>
       <c r="Y94" s="19">
         <v>179.75119466272852</v>
@@ -33708,14 +33775,14 @@
       <c r="AG94" s="19">
         <v>15398.129405640264</v>
       </c>
-      <c r="AH94" s="87">
-        <v>6.9788350523679379E-7</v>
+      <c r="AH94" s="84">
+        <v>1.7252138466251205E-2</v>
       </c>
       <c r="AI94" s="19">
-        <v>3.1854214240217074E-2</v>
+        <v>7.8745709087849988E-2</v>
       </c>
       <c r="AJ94" s="19">
-        <v>4228.5274804774217</v>
+        <v>4228.4633375419908</v>
       </c>
       <c r="AK94" s="19">
         <v>364.94844162745812</v>
@@ -33871,7 +33938,7 @@
       </c>
     </row>
     <row r="95" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="88" t="s">
         <v>383</v>
       </c>
       <c r="B95" s="19">
@@ -33903,7 +33970,7 @@
         <v>8.2130168037010005</v>
       </c>
       <c r="L95" s="19">
-        <v>4.4859379026124515E-3</v>
+        <v>3.5032062518667887E-3</v>
       </c>
       <c r="M95" s="19">
         <v>2.4370794340845587</v>
@@ -33928,10 +33995,10 @@
         <v>280.46960994769779</v>
       </c>
       <c r="W95" s="19">
-        <v>2.5721704050002364E-3</v>
+        <v>53.740629423045114</v>
       </c>
       <c r="X95" s="19">
-        <v>537.40273932839534</v>
+        <v>483.66566480740596</v>
       </c>
       <c r="Y95" s="19">
         <v>212.53617120960001</v>
@@ -33959,13 +34026,13 @@
         <v>1537.3086077697074</v>
       </c>
       <c r="AH95" s="19">
-        <v>1.4315034618311356E-6</v>
+        <v>3.5387705473923059E-2</v>
       </c>
       <c r="AI95" s="19">
-        <v>6.5339584066124889E-2</v>
+        <v>0.16152374188204513</v>
       </c>
       <c r="AJ95" s="19">
-        <v>8673.584747116136</v>
+        <v>8673.4531766843484</v>
       </c>
       <c r="AK95" s="19">
         <v>155.12736876339807</v>
@@ -34121,7 +34188,7 @@
       </c>
     </row>
     <row r="96" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A96" s="85" t="s">
+      <c r="A96" s="88" t="s">
         <v>384</v>
       </c>
       <c r="B96" s="19">
@@ -34155,7 +34222,7 @@
         <v>120.32709679760613</v>
       </c>
       <c r="L96" s="19">
-        <v>8.1078405437967557E-3</v>
+        <v>6.3316609143489622E-3</v>
       </c>
       <c r="M96" s="19"/>
       <c r="N96" s="19">
@@ -34184,10 +34251,10 @@
       </c>
       <c r="V96" s="19"/>
       <c r="W96" s="19">
-        <v>4.6489157781408373E-3</v>
+        <v>97.130291043835882</v>
       </c>
       <c r="X96" s="19">
-        <v>971.29648534295097</v>
+        <v>874.17261939452271</v>
       </c>
       <c r="Y96" s="19">
         <v>75.947261651563281</v>
@@ -34215,13 +34282,13 @@
         <v>12460.129631715641</v>
       </c>
       <c r="AH96" s="19">
-        <v>3.0799432314018173E-7</v>
+        <v>7.6138218911347205E-3</v>
       </c>
       <c r="AI96" s="19">
-        <v>1.4058101503271846E-2</v>
+        <v>3.4752549943814513E-2</v>
       </c>
       <c r="AJ96" s="19">
-        <v>1866.1602534094725</v>
+        <v>1866.1319454471352</v>
       </c>
       <c r="AK96" s="19">
         <v>161.59785946708635</v>
@@ -34407,7 +34474,7 @@
       </c>
     </row>
     <row r="97" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A97" s="85" t="s">
+      <c r="A97" s="88" t="s">
         <v>33</v>
       </c>
       <c r="B97" s="19">
@@ -34441,7 +34508,7 @@
         <v>167.28958899422781</v>
       </c>
       <c r="L97" s="19">
-        <v>1.8795520520683575E-5</v>
+        <v>1.4677997427651344E-5</v>
       </c>
       <c r="M97" s="19">
         <v>19.667231235183742</v>
@@ -34462,10 +34529,10 @@
       </c>
       <c r="V97" s="19"/>
       <c r="W97" s="19">
-        <v>1.0777073307618085E-5</v>
+        <v>0.2251665370862711</v>
       </c>
       <c r="X97" s="19">
-        <v>2.2516504762663101</v>
+        <v>2.0264988337764396</v>
       </c>
       <c r="Y97" s="19">
         <v>328.65295163891847</v>
@@ -34491,13 +34558,13 @@
         <v>9247.0002502149091</v>
       </c>
       <c r="AH97" s="19">
-        <v>1.0081096945259363E-6</v>
+        <v>2.4921133553988336E-2</v>
       </c>
       <c r="AI97" s="19">
-        <v>4.6014187104441009E-2</v>
+        <v>0.11375009172461438</v>
       </c>
       <c r="AJ97" s="19">
-        <v>6108.2107747547789</v>
+        <v>6108.1181187247139</v>
       </c>
       <c r="AK97" s="19">
         <v>331.87918766876635</v>
@@ -34683,7 +34750,7 @@
       </c>
     </row>
     <row r="98" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A98" s="85" t="s">
+      <c r="A98" s="88" t="s">
         <v>737</v>
       </c>
       <c r="B98" s="19"/>
@@ -34697,7 +34764,7 @@
       <c r="J98" s="19"/>
       <c r="K98" s="19"/>
       <c r="L98" s="19">
-        <v>1.9799658711389275E-5</v>
+        <v>0.19799638911750364</v>
       </c>
       <c r="M98" s="19"/>
       <c r="N98" s="19"/>
@@ -34833,15 +34900,15 @@
       <c r="EN98" s="19"/>
       <c r="EO98" s="19"/>
       <c r="EP98" s="19"/>
-      <c r="EQ98" s="87">
-        <v>2.1090343694526117E-6</v>
+      <c r="EQ98" s="84">
+        <v>2.1090322604203515E-2</v>
       </c>
       <c r="ER98" s="19">
-        <v>2.1908693080841888E-5</v>
+        <v>0.21908671172170716</v>
       </c>
     </row>
     <row r="99" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A99" s="85" t="s">
+      <c r="A99" s="88" t="s">
         <v>738</v>
       </c>
       <c r="B99" s="19"/>
@@ -34881,7 +34948,7 @@
       <c r="AJ99" s="19"/>
       <c r="AK99" s="19"/>
       <c r="AL99" s="19">
-        <v>0.90373617622868929</v>
+        <v>0.90373527249341667</v>
       </c>
       <c r="AM99" s="19"/>
       <c r="AN99" s="19"/>
@@ -34991,15 +35058,15 @@
       <c r="EN99" s="19"/>
       <c r="EO99" s="19"/>
       <c r="EP99" s="19"/>
-      <c r="EQ99" s="87">
-        <v>9.6264823771310848E-2</v>
+      <c r="EQ99" s="84">
+        <v>9.6264727506583325E-2</v>
       </c>
       <c r="ER99" s="19">
-        <v>1.0000010000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A100" s="85" t="s">
+      <c r="A100" s="88" t="s">
         <v>385</v>
       </c>
       <c r="B100" s="19">
@@ -35033,7 +35100,7 @@
         <v>31.139657321646396</v>
       </c>
       <c r="L100" s="19">
-        <v>2.1090124607814399E-6</v>
+        <v>2.1090322604203515E-2</v>
       </c>
       <c r="M100" s="19"/>
       <c r="N100" s="19"/>
@@ -35050,10 +35117,10 @@
       </c>
       <c r="V100" s="19"/>
       <c r="W100" s="19">
-        <v>1.2562107818996213E-5</v>
+        <v>0.24055449243709093</v>
       </c>
       <c r="X100" s="19">
-        <v>2.6245971653136246</v>
+        <v>2.1649904319338176</v>
       </c>
       <c r="Y100" s="19"/>
       <c r="Z100" s="19"/>
@@ -35075,19 +35142,19 @@
         <v>3276.4440442386772</v>
       </c>
       <c r="AH100" s="19">
-        <v>3.9756113268644434E-7</v>
+        <v>9.8279722309513578E-3</v>
       </c>
       <c r="AI100" s="19">
-        <v>1.8146291464333199E-2</v>
+        <v>4.4858823950195789E-2</v>
       </c>
       <c r="AJ100" s="19">
-        <v>2408.8521389507318</v>
+        <v>2408.815598843576</v>
       </c>
       <c r="AK100" s="19">
         <v>5164.4423461763581</v>
       </c>
       <c r="AL100" s="19">
-        <v>1641.7214841037774</v>
+        <v>1641.7214850075127</v>
       </c>
       <c r="AM100" s="19">
         <v>745.60793784119767</v>
@@ -35260,14 +35327,14 @@
         <v>4939.2528036107033</v>
       </c>
       <c r="EQ100" s="19">
-        <v>12778.766657202514</v>
+        <v>12778.745569085209</v>
       </c>
       <c r="ER100" s="19">
-        <v>132746.09494240116</v>
+        <v>132745.87587859813</v>
       </c>
     </row>
     <row r="101" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A101" s="85" t="s">
+      <c r="A101" s="88" t="s">
         <v>386</v>
       </c>
       <c r="B101" s="19"/>
@@ -35295,7 +35362,7 @@
         <v>8.8032549957490982</v>
       </c>
       <c r="L101" s="19">
-        <v>3.2246006966721644E-4</v>
+        <v>2.5181894100177537E-4</v>
       </c>
       <c r="M101" s="19"/>
       <c r="N101" s="19"/>
@@ -35312,10 +35379,10 @@
       </c>
       <c r="V101" s="19"/>
       <c r="W101" s="19">
-        <v>1.8489383179140804E-4</v>
+        <v>3.8630064623995954</v>
       </c>
       <c r="X101" s="19">
-        <v>38.62980908903549</v>
+        <v>34.767058161596353</v>
       </c>
       <c r="Y101" s="19">
         <v>100.2283751254202</v>
@@ -35337,13 +35404,13 @@
         <v>9460.5138008332287</v>
       </c>
       <c r="AH101" s="19">
-        <v>1.3904061916793206E-6</v>
+        <v>3.4371753972098303E-2</v>
       </c>
       <c r="AI101" s="19">
-        <v>6.3463739117389784E-2</v>
+        <v>0.15688653000442446</v>
       </c>
       <c r="AJ101" s="19">
-        <v>8424.573364671407</v>
+        <v>8424.4455715169534</v>
       </c>
       <c r="AK101" s="19">
         <v>7732.6410198646527</v>
@@ -35525,7 +35592,7 @@
       </c>
     </row>
     <row r="102" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A102" s="85" t="s">
+      <c r="A102" s="88" t="s">
         <v>34</v>
       </c>
       <c r="B102" s="19">
@@ -35605,13 +35672,13 @@
         <v>1080.8530012081999</v>
       </c>
       <c r="AH102" s="19">
-        <v>2.4699179492509319E-7</v>
+        <v>6.1057993405787894E-3</v>
       </c>
       <c r="AI102" s="19">
-        <v>1.1273700398535908E-2</v>
+        <v>2.7869327594521678E-2</v>
       </c>
       <c r="AJ102" s="19">
-        <v>1496.5414493061057</v>
+        <v>1496.5187481265609</v>
       </c>
       <c r="AK102" s="19">
         <v>37.25366217003473</v>
@@ -35783,7 +35850,7 @@
       </c>
     </row>
     <row r="103" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A103" s="85" t="s">
+      <c r="A103" s="88" t="s">
         <v>387</v>
       </c>
       <c r="B103" s="19">
@@ -35843,13 +35910,13 @@
         <v>219.33296274627122</v>
       </c>
       <c r="AH103" s="19">
-        <v>2.3821260716168577E-7</v>
+        <v>5.8887720548226477E-3</v>
       </c>
       <c r="AI103" s="19">
-        <v>1.0872982906616129E-2</v>
+        <v>2.6878727644161302E-2</v>
       </c>
       <c r="AJ103" s="19">
-        <v>1443.3477044511781</v>
+        <v>1443.3258101725985</v>
       </c>
       <c r="AK103" s="19"/>
       <c r="AL103" s="19">
@@ -36023,7 +36090,7 @@
       </c>
     </row>
     <row r="104" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A104" s="85" t="s">
+      <c r="A104" s="88" t="s">
         <v>388</v>
       </c>
       <c r="B104" s="19"/>
@@ -36087,13 +36154,13 @@
         <v>5.8628892450465937</v>
       </c>
       <c r="AH104" s="19">
-        <v>3.0020662156762983E-9</v>
+        <v>7.421304795007165E-5</v>
       </c>
       <c r="AI104" s="19">
-        <v>1.3702639434789841E-4</v>
+        <v>3.3873824371575796E-4</v>
       </c>
       <c r="AJ104" s="19">
-        <v>18.189740097175218</v>
+        <v>18.189464175279969</v>
       </c>
       <c r="AK104" s="19">
         <v>7.8542020556095284</v>
@@ -36273,7 +36340,7 @@
       </c>
     </row>
     <row r="105" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A105" s="85" t="s">
+      <c r="A105" s="88" t="s">
         <v>35</v>
       </c>
       <c r="B105" s="19"/>
@@ -36301,7 +36368,7 @@
         <v>0.27918207513393445</v>
       </c>
       <c r="L105" s="19">
-        <v>2.8787290890478954E-4</v>
+        <v>2.2480876822459698E-4</v>
       </c>
       <c r="M105" s="19">
         <v>8857.7032659302167</v>
@@ -36334,10 +36401,10 @@
         <v>0.27977837366924579</v>
       </c>
       <c r="W105" s="19">
-        <v>1.6506206567304732E-4</v>
+        <v>3.4486592668562941</v>
       </c>
       <c r="X105" s="19">
-        <v>34.486364542356576</v>
+        <v>31.037933401706642</v>
       </c>
       <c r="Y105" s="19">
         <v>11.584594139666653</v>
@@ -36367,13 +36434,13 @@
         <v>203.874744569364</v>
       </c>
       <c r="AH105" s="19">
-        <v>1.5107839310523391E-8</v>
+        <v>3.7347570727092326E-4</v>
       </c>
       <c r="AI105" s="19">
-        <v>6.8958264021571421E-4</v>
+        <v>1.7046935632742861E-3</v>
       </c>
       <c r="AJ105" s="19">
-        <v>91.539509414746547</v>
+        <v>91.538120843224064</v>
       </c>
       <c r="AK105" s="19">
         <v>13.776145405355704</v>
@@ -36559,7 +36626,7 @@
       </c>
     </row>
     <row r="106" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A106" s="85" t="s">
+      <c r="A106" s="88" t="s">
         <v>36</v>
       </c>
       <c r="B106" s="19">
@@ -36593,7 +36660,7 @@
         <v>111.25074038414257</v>
       </c>
       <c r="L106" s="19">
-        <v>9.602536523080038E-2</v>
+        <v>7.4989147669303702E-2</v>
       </c>
       <c r="M106" s="19">
         <v>2748.1668716580457</v>
@@ -36626,10 +36693,10 @@
         <v>8241.5009901701305</v>
       </c>
       <c r="W106" s="19">
-        <v>1.6876838451687793E-2</v>
+        <v>352.61103682512913</v>
       </c>
       <c r="X106" s="19">
-        <v>3526.0724551952771</v>
+        <v>3173.499331426161</v>
       </c>
       <c r="Y106" s="19">
         <v>1553.562124320971</v>
@@ -36659,13 +36726,13 @@
         <v>894.24859579824147</v>
       </c>
       <c r="AH106" s="19">
-        <v>8.0667517527127158E-8</v>
+        <v>1.9941539980007704E-3</v>
       </c>
       <c r="AI106" s="19">
-        <v>3.6819904271325372E-3</v>
+        <v>9.1021220882342956E-3</v>
       </c>
       <c r="AJ106" s="19">
-        <v>488.77042124655412</v>
+        <v>488.76300704156256</v>
       </c>
       <c r="AK106" s="19">
         <v>161.07945874819038</v>
@@ -36845,7 +36912,7 @@
       </c>
     </row>
     <row r="107" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A107" s="85" t="s">
+      <c r="A107" s="88" t="s">
         <v>37</v>
       </c>
       <c r="B107" s="19">
@@ -36879,7 +36946,7 @@
         <v>30.168445308461113</v>
       </c>
       <c r="L107" s="19">
-        <v>9.2196868397036375E-4</v>
+        <v>7.1999357276644998E-4</v>
       </c>
       <c r="M107" s="19">
         <v>350.84141760224259</v>
@@ -36912,10 +36979,10 @@
         <v>66.96982738962248</v>
       </c>
       <c r="W107" s="19">
-        <v>5.2864319897618977E-4</v>
+        <v>11.04499849542041</v>
       </c>
       <c r="X107" s="19">
-        <v>110.4492543358939</v>
+        <v>99.404986458783668</v>
       </c>
       <c r="Y107" s="19">
         <v>61.54692698332444</v>
@@ -36945,13 +37012,13 @@
         <v>23.806819236026524</v>
       </c>
       <c r="AH107" s="19">
-        <v>3.7907605546765223E-9</v>
+        <v>9.3710089851590099E-5</v>
       </c>
       <c r="AI107" s="19">
-        <v>1.7302558082535376E-4</v>
+        <v>4.2773059632491292E-4</v>
       </c>
       <c r="AJ107" s="19">
-        <v>22.968497287330443</v>
+        <v>22.968148876015849</v>
       </c>
       <c r="AK107" s="19">
         <v>7.8677376787724729</v>
@@ -37133,7 +37200,7 @@
       </c>
     </row>
     <row r="108" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A108" s="85" t="s">
+      <c r="A108" s="88" t="s">
         <v>38</v>
       </c>
       <c r="B108" s="19">
@@ -37167,7 +37234,7 @@
         <v>1.0606702981699225</v>
       </c>
       <c r="L108" s="19">
-        <v>3.382766753936943E-4</v>
+        <v>2.6417061266268739E-4</v>
       </c>
       <c r="M108" s="19">
         <v>67.119864242424512</v>
@@ -37200,10 +37267,10 @@
         <v>284.73498240682744</v>
       </c>
       <c r="W108" s="19">
-        <v>1.9396283944162797E-4</v>
+        <v>4.0524862023179873</v>
       </c>
       <c r="X108" s="19">
-        <v>40.524593954277691</v>
+        <v>36.472375820861878</v>
       </c>
       <c r="Y108" s="19">
         <v>11.34937211931013</v>
@@ -37233,13 +37300,13 @@
         <v>39.663125647149656</v>
       </c>
       <c r="AH108" s="19">
-        <v>8.6075910563000989E-8</v>
+        <v>2.1278530248937258E-3</v>
       </c>
       <c r="AI108" s="19">
-        <v>3.928851270191964E-3</v>
+        <v>9.712378300682202E-3</v>
       </c>
       <c r="AJ108" s="19">
-        <v>521.54027226775759</v>
+        <v>521.53236097377805</v>
       </c>
       <c r="AK108" s="19">
         <v>10.632431755378299</v>
@@ -37425,7 +37492,7 @@
       </c>
     </row>
     <row r="109" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A109" s="85" t="s">
+      <c r="A109" s="88" t="s">
         <v>39</v>
       </c>
       <c r="B109" s="19">
@@ -37459,7 +37526,7 @@
         <v>0.50122218568860211</v>
       </c>
       <c r="L109" s="19">
-        <v>5.2118684188009144E-4</v>
+        <v>4.0701076174098357E-4</v>
       </c>
       <c r="M109" s="19">
         <v>161.83538120219299</v>
@@ -37492,10 +37559,10 @@
         <v>20.819981973210417</v>
       </c>
       <c r="W109" s="19">
-        <v>2.988408219781201E-4</v>
+        <v>6.2437130289596308</v>
       </c>
       <c r="X109" s="19">
-        <v>62.436717272694182</v>
+        <v>56.193417260636664</v>
       </c>
       <c r="Y109" s="19">
         <v>96.11106361542322</v>
@@ -37525,13 +37592,13 @@
         <v>48.608835000525673</v>
       </c>
       <c r="AH109" s="19">
-        <v>5.8670464994320533E-9</v>
+        <v>1.4503724165509872E-4</v>
       </c>
       <c r="AI109" s="19">
-        <v>2.6779563458347098E-4</v>
+        <v>6.6200839163322201E-4</v>
       </c>
       <c r="AJ109" s="19">
-        <v>35.548865987730942</v>
+        <v>35.548326743599276</v>
       </c>
       <c r="AK109" s="19">
         <v>11.535290712979663</v>
@@ -37695,7 +37762,7 @@
       </c>
     </row>
     <row r="110" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A110" s="85" t="s">
+      <c r="A110" s="88" t="s">
         <v>389</v>
       </c>
       <c r="B110" s="19">
@@ -37725,7 +37792,7 @@
         <v>1.8123896139722768</v>
       </c>
       <c r="L110" s="19">
-        <v>5.9119390892520057E-4</v>
+        <v>4.6168142376786067E-4</v>
       </c>
       <c r="M110" s="19">
         <v>108.76369821391245</v>
@@ -37758,10 +37825,10 @@
         <v>34.608675514971942</v>
       </c>
       <c r="W110" s="19">
-        <v>3.3898183817217622E-4</v>
+        <v>7.0823835430731892</v>
       </c>
       <c r="X110" s="19">
-        <v>70.823366936408547</v>
+        <v>63.741451887658684</v>
       </c>
       <c r="Y110" s="19">
         <v>97.3020661884199</v>
@@ -37791,13 +37858,13 @@
         <v>115.22894375126199</v>
       </c>
       <c r="AH110" s="19">
-        <v>1.1963633788158934E-8</v>
+        <v>2.9574888233360362E-4</v>
       </c>
       <c r="AI110" s="19">
-        <v>5.4606843537620062E-4</v>
+        <v>1.3499170260461797E-3</v>
       </c>
       <c r="AJ110" s="19">
-        <v>72.488537366119402</v>
+        <v>72.487437780610023</v>
       </c>
       <c r="AK110" s="19">
         <v>38.209848574020953</v>
@@ -37979,7 +38046,7 @@
       </c>
     </row>
     <row r="111" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A111" s="85" t="s">
+      <c r="A111" s="88" t="s">
         <v>572</v>
       </c>
       <c r="B111" s="19"/>
@@ -38157,7 +38224,7 @@
       </c>
     </row>
     <row r="112" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A112" s="85" t="s">
+      <c r="A112" s="88" t="s">
         <v>573</v>
       </c>
       <c r="B112" s="19">
@@ -38191,7 +38258,7 @@
         <v>71.926493514598306</v>
       </c>
       <c r="L112" s="19">
-        <v>0.16631627243275163</v>
+        <v>0.12988146916485099</v>
       </c>
       <c r="M112" s="19">
         <v>5980.4780593964633</v>
@@ -38224,10 +38291,10 @@
         <v>1541.12244417739</v>
       </c>
       <c r="W112" s="19">
-        <v>9.5363289262731077E-2</v>
+        <v>1992.4353296610677</v>
       </c>
       <c r="X112" s="19">
-        <v>19924.221498518142</v>
+        <v>17931.917966949604</v>
       </c>
       <c r="Y112" s="19">
         <v>9244.0570547441166</v>
@@ -38257,13 +38324,13 @@
         <v>902.26477621643085</v>
       </c>
       <c r="AH112" s="19">
-        <v>2.2154434203473858E-7</v>
+        <v>5.476721596824349E-3</v>
       </c>
       <c r="AI112" s="19">
-        <v>1.0112176146773939E-2</v>
+        <v>2.4997963380732572E-2</v>
       </c>
       <c r="AJ112" s="19">
-        <v>1342.3534601121698</v>
+        <v>1342.3330978248835</v>
       </c>
       <c r="AK112" s="19">
         <v>252.79185433652896</v>
@@ -38447,7 +38514,7 @@
       </c>
     </row>
     <row r="113" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A113" s="85" t="s">
+      <c r="A113" s="88" t="s">
         <v>575</v>
       </c>
       <c r="B113" s="19"/>
@@ -38625,7 +38692,7 @@
       </c>
     </row>
     <row r="114" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A114" s="85" t="s">
+      <c r="A114" s="88" t="s">
         <v>576</v>
       </c>
       <c r="B114" s="19">
@@ -38659,7 +38726,7 @@
         <v>1.3884415425251038</v>
       </c>
       <c r="L114" s="19">
-        <v>3.210505761645215E-3</v>
+        <v>2.5071822437176339E-3</v>
       </c>
       <c r="M114" s="19">
         <v>115.4448628882578</v>
@@ -38692,10 +38759,10 @@
         <v>29.749238688793096</v>
       </c>
       <c r="W114" s="19">
-        <v>1.8408564907635961E-3</v>
+        <v>38.461210151092075</v>
       </c>
       <c r="X114" s="19">
-        <v>384.60955733091191</v>
+        <v>346.15089135982856</v>
       </c>
       <c r="Y114" s="19">
         <v>178.44374456644422</v>
@@ -38725,13 +38792,13 @@
         <v>17.416974419888138</v>
       </c>
       <c r="AH114" s="19">
-        <v>4.2766072446737407E-9</v>
+        <v>1.0572053902585139E-4</v>
       </c>
       <c r="AI114" s="19">
-        <v>1.9520158073786149E-4</v>
+        <v>4.8255112414185083E-4</v>
       </c>
       <c r="AJ114" s="19">
-        <v>25.912278184310381</v>
+        <v>25.911885118504557</v>
       </c>
       <c r="AK114" s="19">
         <v>4.8797973461830839</v>
@@ -38915,7 +38982,7 @@
       </c>
     </row>
     <row r="115" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A115" s="85" t="s">
+      <c r="A115" s="88" t="s">
         <v>714</v>
       </c>
       <c r="B115" s="19"/>
@@ -38943,7 +39010,7 @@
         <v>365.67938646839457</v>
       </c>
       <c r="L115" s="19">
-        <v>3.2563356318300422E-3</v>
+        <v>2.5429721924951753E-3</v>
       </c>
       <c r="M115" s="19">
         <v>1140.4122254604338</v>
@@ -38976,10 +39043,10 @@
         <v>474.94751763366133</v>
       </c>
       <c r="W115" s="19">
-        <v>1.8671346600814917E-3</v>
+        <v>39.010242733258387</v>
       </c>
       <c r="X115" s="19">
-        <v>390.09984683448442</v>
+        <v>351.09218459932544</v>
       </c>
       <c r="Y115" s="19">
         <v>608.8813863603682</v>
@@ -39009,13 +39076,13 @@
         <v>351.05654260126664</v>
       </c>
       <c r="AH115" s="19">
-        <v>3.7588168027693292E-8</v>
+        <v>9.2920419330795243E-4</v>
       </c>
       <c r="AI115" s="19">
-        <v>1.7156753931949697E-3</v>
+        <v>4.2412622199025259E-3</v>
       </c>
       <c r="AJ115" s="19">
-        <v>227.7494747172708</v>
+        <v>227.74601996383896</v>
       </c>
       <c r="AK115" s="19">
         <v>88.497143762957847</v>
@@ -39185,7 +39252,7 @@
       </c>
     </row>
     <row r="116" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A116" s="85" t="s">
+      <c r="A116" s="88" t="s">
         <v>730</v>
       </c>
       <c r="B116" s="19"/>
@@ -39359,7 +39426,7 @@
       </c>
     </row>
     <row r="117" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A117" s="85" t="s">
+      <c r="A117" s="88" t="s">
         <v>41</v>
       </c>
       <c r="B117" s="19"/>
@@ -39387,7 +39454,7 @@
         <v>6.1112656624048505</v>
       </c>
       <c r="L117" s="19">
-        <v>6.6445786974964614E-4</v>
+        <v>5.1889549386170935E-4</v>
       </c>
       <c r="M117" s="19">
         <v>333.68109563146515</v>
@@ -39420,10 +39487,10 @@
         <v>26.464101780164636</v>
       </c>
       <c r="W117" s="19">
-        <v>3.8099030905983404E-4</v>
+        <v>7.960070986414328</v>
       </c>
       <c r="X117" s="19">
-        <v>79.600183311458309</v>
+        <v>71.640638877728932</v>
       </c>
       <c r="Y117" s="19">
         <v>197.63176833150158</v>
@@ -39453,13 +39520,13 @@
         <v>106.09332231000194</v>
       </c>
       <c r="AH117" s="19">
-        <v>1.2722741648572642E-8</v>
+        <v>3.1451452705855441E-4</v>
       </c>
       <c r="AI117" s="19">
-        <v>5.8071717579720613E-4</v>
+        <v>1.4355709873361171E-3</v>
       </c>
       <c r="AJ117" s="19">
-        <v>77.088026774159673</v>
+        <v>77.086857418543801</v>
       </c>
       <c r="AK117" s="19">
         <v>10569.09070536055</v>
@@ -39639,7 +39706,7 @@
       </c>
     </row>
     <row r="118" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A118" s="85" t="s">
+      <c r="A118" s="88" t="s">
         <v>42</v>
       </c>
       <c r="B118" s="19">
@@ -39673,7 +39740,7 @@
         <v>430.25130140359721</v>
       </c>
       <c r="L118" s="19">
-        <v>3.3448167056918197E-3</v>
+        <v>2.6120697720546141E-3</v>
       </c>
       <c r="M118" s="19">
         <v>1887.3221851218689</v>
@@ -39706,10 +39773,10 @@
         <v>209.34061709644061</v>
       </c>
       <c r="W118" s="19">
-        <v>1.9178683983834342E-3</v>
+        <v>40.07022811526506</v>
       </c>
       <c r="X118" s="19">
-        <v>400.69963053731851</v>
+        <v>360.63205303738545</v>
       </c>
       <c r="Y118" s="19">
         <v>1708.8500771249824</v>
@@ -39739,13 +39806,13 @@
         <v>1486.6942377522523</v>
       </c>
       <c r="AH118" s="19">
-        <v>8.1470933312807438E-8</v>
+        <v>2.0140149637300365E-3</v>
       </c>
       <c r="AI118" s="19">
-        <v>3.7186615597341712E-3</v>
+        <v>9.192775535781102E-3</v>
       </c>
       <c r="AJ118" s="19">
-        <v>493.63837646419393</v>
+        <v>493.6308884167251</v>
       </c>
       <c r="AK118" s="19">
         <v>674.66101456827732</v>
@@ -39927,7 +39994,7 @@
       </c>
     </row>
     <row r="119" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A119" s="85" t="s">
+      <c r="A119" s="88" t="s">
         <v>390</v>
       </c>
       <c r="B119" s="19">
@@ -39961,7 +40028,7 @@
         <v>63.887427259996457</v>
       </c>
       <c r="L119" s="19">
-        <v>2.8817482238637109E-2</v>
+        <v>2.2504454170589806E-2</v>
       </c>
       <c r="M119" s="19">
         <v>15218.628475655545</v>
@@ -39994,10 +40061,10 @@
         <v>1340.1378824655417</v>
       </c>
       <c r="W119" s="19">
-        <v>1.6523517839530374E-2</v>
+        <v>345.2276129346086</v>
       </c>
       <c r="X119" s="19">
-        <v>3452.2532928001774</v>
+        <v>3107.0485164114766</v>
       </c>
       <c r="Y119" s="19">
         <v>11449.699812177065</v>
@@ -40027,13 +40094,13 @@
         <v>3391.0620437932594</v>
       </c>
       <c r="AH119" s="19">
-        <v>3.3989619849860927E-7</v>
+        <v>8.4024571961487503E-3</v>
       </c>
       <c r="AI119" s="19">
-        <v>1.5514231594765055E-2</v>
+        <v>3.8352199136668284E-2</v>
       </c>
       <c r="AJ119" s="19">
-        <v>2059.4560621511073</v>
+        <v>2059.4248220662657</v>
       </c>
       <c r="AK119" s="19">
         <v>1130.8329468686077</v>
@@ -40219,7 +40286,7 @@
       </c>
     </row>
     <row r="120" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A120" s="85" t="s">
+      <c r="A120" s="88" t="s">
         <v>43</v>
       </c>
       <c r="B120" s="19"/>
@@ -40417,7 +40484,7 @@
       </c>
     </row>
     <row r="121" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A121" s="85" t="s">
+      <c r="A121" s="88" t="s">
         <v>391</v>
       </c>
       <c r="B121" s="19">
@@ -40451,7 +40518,7 @@
         <v>49.946155366155239</v>
       </c>
       <c r="L121" s="19">
-        <v>1.3973353156653046E-2</v>
+        <v>1.0912219295193952E-2</v>
       </c>
       <c r="M121" s="19">
         <v>15327.241919790589</v>
@@ -40484,10 +40551,10 @@
         <v>535.51496716846873</v>
       </c>
       <c r="W121" s="19">
-        <v>8.0121139053726826E-3</v>
+        <v>167.39794667057473</v>
       </c>
       <c r="X121" s="19">
-        <v>1673.96839345798</v>
+        <v>1506.5815200351719</v>
       </c>
       <c r="Y121" s="19">
         <v>2773.0188004892739</v>
@@ -40517,13 +40584,13 @@
         <v>1337.0060187436272</v>
       </c>
       <c r="AH121" s="19">
-        <v>3.4443728973035288E-7</v>
+        <v>8.5147159529900349E-3</v>
       </c>
       <c r="AI121" s="19">
-        <v>1.5721505290009149E-2</v>
+        <v>3.8864593320501212E-2</v>
       </c>
       <c r="AJ121" s="19">
-        <v>2086.9708676717901</v>
+        <v>2086.9392102122442</v>
       </c>
       <c r="AK121" s="19">
         <v>480.75147173077352</v>
@@ -40705,7 +40772,7 @@
       </c>
     </row>
     <row r="122" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A122" s="85" t="s">
+      <c r="A122" s="88" t="s">
         <v>553</v>
       </c>
       <c r="B122" s="19"/>
@@ -40863,7 +40930,7 @@
       </c>
     </row>
     <row r="123" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A123" s="85" t="s">
+      <c r="A123" s="88" t="s">
         <v>44</v>
       </c>
       <c r="B123" s="19"/>
@@ -40984,10 +41051,10 @@
         <v>11591.334920451747</v>
       </c>
       <c r="CC123" s="19">
-        <v>0.17886858328458136</v>
+        <v>3737.1134715855169</v>
       </c>
       <c r="CD123" s="19">
-        <v>37370.955847271878</v>
+        <v>33634.02124426965</v>
       </c>
       <c r="CE123" s="19">
         <v>41614.1652551527</v>
@@ -41016,14 +41083,10 @@
       <c r="CM123" s="19">
         <v>27490.69456641432</v>
       </c>
-      <c r="CN123" s="19">
-        <v>3.8252758953321792E-6</v>
-      </c>
-      <c r="CO123" s="19">
-        <v>0.17460100000000001</v>
-      </c>
+      <c r="CN123" s="19"/>
+      <c r="CO123" s="19"/>
       <c r="CP123" s="19">
-        <v>23177.574266453132</v>
+        <v>23177.748871278407</v>
       </c>
       <c r="CQ123" s="19">
         <v>14441.048081288409</v>
@@ -41091,11 +41154,11 @@
       <c r="EP123" s="19"/>
       <c r="EQ123" s="19"/>
       <c r="ER123" s="19">
-        <v>783716.98478327773</v>
+        <v>783716.98478327761</v>
       </c>
     </row>
     <row r="124" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A124" s="85" t="s">
+      <c r="A124" s="88" t="s">
         <v>392</v>
       </c>
       <c r="B124" s="19">
@@ -41129,7 +41192,7 @@
         <v>21.495306600468361</v>
       </c>
       <c r="L124" s="19">
-        <v>3.923777657108942E-5</v>
+        <v>3.0641981047740759E-5</v>
       </c>
       <c r="M124" s="19">
         <v>1661.4165310113679</v>
@@ -41162,10 +41225,10 @@
         <v>21.983296387093269</v>
       </c>
       <c r="W124" s="19">
-        <v>2.2498360397586422E-5</v>
+        <v>0.47006063299787276</v>
       </c>
       <c r="X124" s="19">
-        <v>4.7005752358228055</v>
+        <v>4.2305456969808537</v>
       </c>
       <c r="Y124" s="19">
         <v>320.65439285627565</v>
@@ -41195,13 +41258,13 @@
         <v>398.34420691544324</v>
       </c>
       <c r="AH124" s="19">
-        <v>5.8780108983783454E-8</v>
+        <v>1.4530828879606311E-3</v>
       </c>
       <c r="AI124" s="19">
-        <v>2.6829609391576578E-3</v>
+        <v>6.6324555996184562E-3</v>
       </c>
       <c r="AJ124" s="19">
-        <v>356.15300318188531</v>
+        <v>356.14760066311703</v>
       </c>
       <c r="AK124" s="19">
         <v>7.1613991924958835</v>
@@ -41359,7 +41422,7 @@
       </c>
     </row>
     <row r="125" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A125" s="85" t="s">
+      <c r="A125" s="88" t="s">
         <v>393</v>
       </c>
       <c r="B125" s="19">
@@ -41393,7 +41456,7 @@
         <v>72.621201004379529</v>
       </c>
       <c r="L125" s="19">
-        <v>8.7343808573866564E-3</v>
+        <v>6.8209454277026772E-3</v>
       </c>
       <c r="M125" s="19">
         <v>4309.6019019980422</v>
@@ -41426,10 +41489,10 @@
         <v>184.15183409250272</v>
       </c>
       <c r="W125" s="19">
-        <v>5.0081647216487233E-3</v>
+        <v>104.63611737095125</v>
       </c>
       <c r="X125" s="19">
-        <v>1046.3542521093609</v>
+        <v>941.72505633856099</v>
       </c>
       <c r="Y125" s="19">
         <v>1381.5137123481115</v>
@@ -41459,13 +41522,13 @@
         <v>1328.6585213024609</v>
       </c>
       <c r="AH125" s="19">
-        <v>1.9211186058404641E-7</v>
+        <v>4.7491313305657668E-3</v>
       </c>
       <c r="AI125" s="19">
-        <v>8.7687591399004915E-3</v>
+        <v>2.1676948333581757E-2</v>
       </c>
       <c r="AJ125" s="19">
-        <v>1164.0198911321511</v>
+        <v>1164.0022340037387</v>
       </c>
       <c r="AK125" s="19">
         <v>672.37186979921614</v>
@@ -41627,7 +41690,7 @@
       </c>
     </row>
     <row r="126" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A126" s="85" t="s">
+      <c r="A126" s="88" t="s">
         <v>394</v>
       </c>
       <c r="B126" s="19">
@@ -41661,7 +41724,7 @@
         <v>136.99556624660843</v>
       </c>
       <c r="L126" s="19">
-        <v>3.2333064387100457E-2</v>
+        <v>2.5249879905144844E-2</v>
       </c>
       <c r="M126" s="19">
         <v>10160.505689394238</v>
@@ -41694,10 +41757,10 @@
         <v>609.02158011044344</v>
       </c>
       <c r="W126" s="19">
-        <v>1.8539300615604572E-2</v>
+        <v>387.34357654097414</v>
       </c>
       <c r="X126" s="19">
-        <v>3873.4101429246434</v>
+        <v>3486.0921888687667</v>
       </c>
       <c r="Y126" s="19">
         <v>4435.5250790410937</v>
@@ -41727,13 +41790,13 @@
         <v>3777.1320546778193</v>
       </c>
       <c r="AH126" s="19">
-        <v>2.219288069922903E-7</v>
+        <v>5.4862258230072751E-3</v>
       </c>
       <c r="AI126" s="19">
-        <v>1.0129724676053985E-2</v>
+        <v>2.50413444973153E-2</v>
       </c>
       <c r="AJ126" s="19">
-        <v>1344.6829625002786</v>
+        <v>1344.662564876563</v>
       </c>
       <c r="AK126" s="19">
         <v>383.81853776121642</v>
@@ -41895,7 +41958,7 @@
       </c>
     </row>
     <row r="127" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A127" s="85" t="s">
+      <c r="A127" s="88" t="s">
         <v>395</v>
       </c>
       <c r="B127" s="19">
@@ -41929,7 +41992,7 @@
         <v>617.76429247641158</v>
       </c>
       <c r="L127" s="19">
-        <v>3.935107560167582E-2</v>
+        <v>3.0730459729545422E-2</v>
       </c>
       <c r="M127" s="19">
         <v>18954.629991051817</v>
@@ -41962,10 +42025,10 @@
         <v>3414.6862954153794</v>
       </c>
       <c r="W127" s="19">
-        <v>2.2563324384987985E-2</v>
+        <v>471.41793248549777</v>
       </c>
       <c r="X127" s="19">
-        <v>4714.1481409147191</v>
+        <v>4242.7613923694789</v>
       </c>
       <c r="Y127" s="19">
         <v>14245.563057809975</v>
@@ -41995,13 +42058,13 @@
         <v>11846.662409783157</v>
       </c>
       <c r="AH127" s="19">
-        <v>4.9441182519612825E-7</v>
+        <v>1.2222184940080299E-2</v>
       </c>
       <c r="AI127" s="19">
-        <v>2.2566947183184263E-2</v>
+        <v>5.5786975138891193E-2</v>
       </c>
       <c r="AJ127" s="19">
-        <v>2995.6776072927878</v>
+        <v>2995.6321655743041</v>
       </c>
       <c r="AK127" s="19">
         <v>2553.1423345374033</v>
@@ -42163,7 +42226,7 @@
       </c>
     </row>
     <row r="128" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A128" s="85" t="s">
+      <c r="A128" s="88" t="s">
         <v>45</v>
       </c>
       <c r="B128" s="19">
@@ -42197,7 +42260,7 @@
         <v>1452.7264845846353</v>
       </c>
       <c r="L128" s="19">
-        <v>4.3504360100161357E-2</v>
+        <v>3.3973886753446633E-2</v>
       </c>
       <c r="M128" s="19">
         <v>29397.222620938814</v>
@@ -42230,10 +42293,10 @@
         <v>23286.46521872616</v>
       </c>
       <c r="W128" s="19">
-        <v>2.4944756251070972E-2</v>
+        <v>521.17344135948485</v>
       </c>
       <c r="X128" s="19">
-        <v>5211.6999383652501</v>
+        <v>4690.5609722353629</v>
       </c>
       <c r="Y128" s="19">
         <v>2789.7672487795917</v>
@@ -42263,13 +42326,13 @@
         <v>7378.9380754579297</v>
       </c>
       <c r="AH128" s="19">
-        <v>2.5815189673906683E-8</v>
+        <v>6.3816843849269955E-4</v>
       </c>
       <c r="AI128" s="19">
-        <v>1.1783092397999102E-3</v>
+        <v>2.9128578062887129E-3</v>
       </c>
       <c r="AJ128" s="19">
-        <v>156.41613298184129</v>
+        <v>156.41376029065151</v>
       </c>
       <c r="AK128" s="19">
         <v>1463.4649484582119</v>
@@ -42425,11 +42488,11 @@
         <v>39604.999999994761</v>
       </c>
       <c r="ER128" s="19">
-        <v>1398265.2090070178</v>
+        <v>1398265.2090070173</v>
       </c>
     </row>
     <row r="129" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A129" s="85" t="s">
+      <c r="A129" s="88" t="s">
         <v>531</v>
       </c>
       <c r="B129" s="19"/>
@@ -42585,7 +42648,7 @@
       </c>
     </row>
     <row r="130" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A130" s="85" t="s">
+      <c r="A130" s="88" t="s">
         <v>530</v>
       </c>
       <c r="B130" s="19"/>
@@ -42769,7 +42832,7 @@
       </c>
     </row>
     <row r="131" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A131" s="85" t="s">
+      <c r="A131" s="88" t="s">
         <v>532</v>
       </c>
       <c r="B131" s="19"/>
@@ -42927,7 +42990,7 @@
       </c>
     </row>
     <row r="132" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A132" s="85" t="s">
+      <c r="A132" s="88" t="s">
         <v>47</v>
       </c>
       <c r="B132" s="19"/>
@@ -43097,7 +43160,7 @@
       </c>
     </row>
     <row r="133" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A133" s="85" t="s">
+      <c r="A133" s="88" t="s">
         <v>48</v>
       </c>
       <c r="B133" s="19"/>
@@ -43267,7 +43330,7 @@
       </c>
     </row>
     <row r="134" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A134" s="85" t="s">
+      <c r="A134" s="88" t="s">
         <v>49</v>
       </c>
       <c r="B134" s="19"/>
@@ -43437,7 +43500,7 @@
       </c>
     </row>
     <row r="135" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A135" s="85" t="s">
+      <c r="A135" s="88" t="s">
         <v>50</v>
       </c>
       <c r="B135" s="19"/>
@@ -43607,7 +43670,7 @@
       </c>
     </row>
     <row r="136" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A136" s="85" t="s">
+      <c r="A136" s="88" t="s">
         <v>51</v>
       </c>
       <c r="B136" s="19"/>
@@ -43777,7 +43840,7 @@
       </c>
     </row>
     <row r="137" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A137" s="85" t="s">
+      <c r="A137" s="88" t="s">
         <v>52</v>
       </c>
       <c r="B137" s="19"/>
@@ -43947,7 +44010,7 @@
       </c>
     </row>
     <row r="138" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A138" s="85" t="s">
+      <c r="A138" s="88" t="s">
         <v>53</v>
       </c>
       <c r="B138" s="19"/>
@@ -44117,7 +44180,7 @@
       </c>
     </row>
     <row r="139" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A139" s="85" t="s">
+      <c r="A139" s="88" t="s">
         <v>54</v>
       </c>
       <c r="B139" s="19"/>
@@ -44287,7 +44350,7 @@
       </c>
     </row>
     <row r="140" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A140" s="85" t="s">
+      <c r="A140" s="88" t="s">
         <v>55</v>
       </c>
       <c r="B140" s="19"/>
@@ -44457,7 +44520,7 @@
       </c>
     </row>
     <row r="141" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A141" s="85" t="s">
+      <c r="A141" s="88" t="s">
         <v>728</v>
       </c>
       <c r="B141" s="19"/>
@@ -44627,7 +44690,7 @@
       </c>
     </row>
     <row r="142" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A142" s="85" t="s">
+      <c r="A142" s="88" t="s">
         <v>60</v>
       </c>
       <c r="B142" s="19"/>
@@ -44817,7 +44880,7 @@
       </c>
     </row>
     <row r="143" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A143" s="85" t="s">
+      <c r="A143" s="88" t="s">
         <v>58</v>
       </c>
       <c r="B143" s="19">
@@ -44851,7 +44914,7 @@
         <v>17.821143111733338</v>
       </c>
       <c r="L143" s="19">
-        <v>-8.4914788091588634E-3</v>
+        <v>-6.6312557814310917E-3</v>
       </c>
       <c r="M143" s="19">
         <v>202.24578829710379</v>
@@ -44884,10 +44947,10 @@
         <v>498.32614937276048</v>
       </c>
       <c r="W143" s="19">
-        <v>-4.8688882819544477E-3</v>
+        <v>-101.72619992597136</v>
       </c>
       <c r="X143" s="19">
-        <v>-1017.2552701484037</v>
+        <v>-915.53579933374203</v>
       </c>
       <c r="Y143" s="19">
         <v>400.93280897918106</v>
@@ -44917,13 +44980,13 @@
         <v>-163.0446890783129</v>
       </c>
       <c r="AH143" s="19">
-        <v>2.4126527726724652E-8</v>
+        <v>5.9642360641561976E-4</v>
       </c>
       <c r="AI143" s="19">
-        <v>1.101231906632984E-3</v>
+        <v>2.7223175779516069E-3</v>
       </c>
       <c r="AJ143" s="19">
-        <v>146.18440538921038</v>
+        <v>146.18218790405916</v>
       </c>
       <c r="AK143" s="19">
         <v>65.757785048502853</v>
@@ -45081,7 +45144,7 @@
       </c>
     </row>
     <row r="144" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A144" s="85" t="s">
+      <c r="A144" s="88" t="s">
         <v>59</v>
       </c>
       <c r="B144" s="19"/>
@@ -45259,7 +45322,7 @@
       </c>
     </row>
     <row r="145" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A145" s="85" t="s">
+      <c r="A145" s="88" t="s">
         <v>57</v>
       </c>
       <c r="B145" s="19"/>
@@ -45372,10 +45435,10 @@
         <v>6.3238448990005924</v>
       </c>
       <c r="CC145" s="19">
-        <v>3.8194255795839342E-3</v>
+        <v>79.799518311563901</v>
       </c>
       <c r="CD145" s="19">
-        <v>797.9913636900593</v>
+        <v>718.19566480407491</v>
       </c>
       <c r="CE145" s="19">
         <v>1153.7710027191633</v>
@@ -45404,14 +45467,10 @@
       <c r="CM145" s="19">
         <v>2522.8237820714394</v>
       </c>
-      <c r="CN145" s="19">
-        <v>1.2341154471283763E-7</v>
-      </c>
-      <c r="CO145" s="19">
-        <v>5.633E-3</v>
-      </c>
+      <c r="CN145" s="19"/>
+      <c r="CO145" s="19"/>
       <c r="CP145" s="19">
-        <v>747.70090137245586</v>
+        <v>747.70653449586734</v>
       </c>
       <c r="CQ145" s="19">
         <v>291.73261871151385</v>
@@ -45483,7 +45542,7 @@
       </c>
     </row>
     <row r="146" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A146" s="85" t="s">
+      <c r="A146" s="88" t="s">
         <v>56</v>
       </c>
       <c r="B146" s="19"/>
@@ -45604,10 +45663,10 @@
         <v>6268.0970457965732</v>
       </c>
       <c r="CC146" s="19">
-        <v>2.6217631841670426E-2</v>
+        <v>547.76676456754706</v>
       </c>
       <c r="CD146" s="19">
-        <v>5477.6414280436275</v>
+        <v>4929.900881107922</v>
       </c>
       <c r="CE146" s="19">
         <v>6907.3678611226705</v>
@@ -45636,14 +45695,10 @@
       <c r="CM146" s="19">
         <v>3397.9938038280166</v>
       </c>
-      <c r="CN146" s="19">
-        <v>5.7632950385512282E-7</v>
-      </c>
-      <c r="CO146" s="19">
-        <v>2.6306E-2</v>
-      </c>
+      <c r="CN146" s="19"/>
+      <c r="CO146" s="19"/>
       <c r="CP146" s="19">
-        <v>3491.9541355784963</v>
+        <v>3491.9804421548261</v>
       </c>
       <c r="CQ146" s="19">
         <v>3761.6972356958322</v>
@@ -45741,7 +45796,7 @@
       </c>
     </row>
     <row r="147" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A147" s="85" t="s">
+      <c r="A147" s="88" t="s">
         <v>554</v>
       </c>
       <c r="B147" s="19">
@@ -45775,7 +45830,7 @@
         <v>-29.393607749241951</v>
       </c>
       <c r="L147" s="19">
-        <v>-2.5370904587473292E-2</v>
+        <v>-1.9812916160652144E-2</v>
       </c>
       <c r="M147" s="19">
         <v>-89.793089153744404</v>
@@ -45808,10 +45863,10 @@
         <v>-7492.3405897158909</v>
       </c>
       <c r="W147" s="19">
-        <v>2.3635383650669816E-2</v>
+        <v>493.81512175074414</v>
       </c>
       <c r="X147" s="19">
-        <v>4938.1331401122161</v>
+        <v>4444.3360957566965</v>
       </c>
       <c r="Y147" s="19">
         <v>2175.7058905664644</v>
@@ -45841,13 +45896,13 @@
         <v>-371.04312537281521</v>
       </c>
       <c r="AH147" s="19">
-        <v>-3.3470701570759046E-8</v>
+        <v>-8.2741771904378133E-4</v>
       </c>
       <c r="AI147" s="19">
-        <v>-1.527737639025542E-3</v>
+        <v>-3.7766677519666322E-3</v>
       </c>
       <c r="AJ147" s="19">
-        <v>-202.80144194939612</v>
+        <v>-202.79836563503486</v>
       </c>
       <c r="AK147" s="19">
         <v>-66.835358856716184</v>
@@ -46023,7 +46078,7 @@
       </c>
     </row>
     <row r="148" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A148" s="85" t="s">
+      <c r="A148" s="88" t="s">
         <v>723</v>
       </c>
       <c r="B148" s="19"/>
@@ -46039,7 +46094,7 @@
       <c r="J148" s="19"/>
       <c r="K148" s="19"/>
       <c r="L148" s="19">
-        <v>-3.2759501829775288E-4</v>
+        <v>-2.5582897960151481E-4</v>
       </c>
       <c r="M148" s="19"/>
       <c r="N148" s="19"/>
@@ -46054,10 +46109,10 @@
         <v>-1112.3858873922554</v>
       </c>
       <c r="W148" s="19">
-        <v>-1.8783813534295086E-4</v>
+        <v>-3.9245221091719964</v>
       </c>
       <c r="X148" s="19">
-        <v>-39.244961487545915</v>
+        <v>-35.32069898254796</v>
       </c>
       <c r="Y148" s="19">
         <v>-11.305779058197899</v>
@@ -46195,7 +46250,7 @@
       </c>
     </row>
     <row r="149" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A149" s="85" t="s">
+      <c r="A149" s="88" t="s">
         <v>724</v>
       </c>
       <c r="B149" s="19">
@@ -46269,13 +46324,13 @@
         <v>-90.744621482819468</v>
       </c>
       <c r="AH149" s="19">
-        <v>-8.2126397395817783E-9</v>
+        <v>-2.0302184662270785E-4</v>
       </c>
       <c r="AI149" s="19">
-        <v>-3.7485795806793643E-4</v>
+        <v>-9.2667348479169489E-4</v>
       </c>
       <c r="AJ149" s="19">
-        <v>-49.760988006832022</v>
+        <v>-49.76023317767131</v>
       </c>
       <c r="AK149" s="19">
         <v>-12.568338505345672</v>
@@ -46433,11 +46488,11 @@
       <c r="EP149" s="19"/>
       <c r="EQ149" s="19"/>
       <c r="ER149" s="19">
-        <v>-1.4210854715202004E-12</v>
+        <v>-9.6633812063373625E-13</v>
       </c>
     </row>
     <row r="150" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A150" s="85" t="s">
+      <c r="A150" s="88" t="s">
         <v>61</v>
       </c>
       <c r="B150" s="19"/>
@@ -46619,7 +46674,7 @@
       </c>
     </row>
     <row r="151" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A151" s="85" t="s">
+      <c r="A151" s="88" t="s">
         <v>535</v>
       </c>
       <c r="B151" s="19"/>
@@ -46775,7 +46830,7 @@
       </c>
     </row>
     <row r="152" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A152" s="85" t="s">
+      <c r="A152" s="88" t="s">
         <v>62</v>
       </c>
       <c r="B152" s="19"/>
@@ -46931,7 +46986,7 @@
       </c>
     </row>
     <row r="153" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A153" s="85" t="s">
+      <c r="A153" s="88" t="s">
         <v>63</v>
       </c>
       <c r="B153" s="19"/>
@@ -47052,10 +47107,10 @@
         <v>1044.3551056567485</v>
       </c>
       <c r="CC153" s="19">
-        <v>0.21770858512357269</v>
+        <v>4548.6002706840864</v>
       </c>
       <c r="CD153" s="19">
-        <v>45485.784998255731</v>
+        <v>40937.402436156764</v>
       </c>
       <c r="CE153" s="19">
         <v>38214.607829584405</v>
@@ -47084,14 +47139,10 @@
       <c r="CM153" s="19">
         <v>122695.11522531725</v>
       </c>
-      <c r="CN153" s="19">
-        <v>8.5211804743752499E-6</v>
-      </c>
-      <c r="CO153" s="19">
-        <v>0.38894099999999998</v>
-      </c>
+      <c r="CN153" s="19"/>
+      <c r="CO153" s="19"/>
       <c r="CP153" s="19">
-        <v>51630.352677772476</v>
+        <v>51630.741627293653</v>
       </c>
       <c r="CQ153" s="19">
         <v>77597.511874622709</v>
@@ -47223,7 +47274,7 @@
       </c>
     </row>
     <row r="154" spans="1:148" x14ac:dyDescent="0.25">
-      <c r="A154" s="85" t="s">
+      <c r="A154" s="88" t="s">
         <v>64</v>
       </c>
       <c r="B154" s="19">
@@ -47257,7 +47308,7 @@
         <v>4298.2455999999938</v>
       </c>
       <c r="L154" s="19">
-        <v>1.0000009999999999</v>
+        <v>1.0000009999999997</v>
       </c>
       <c r="M154" s="19">
         <v>265777.35384823533</v>
@@ -47266,7 +47317,7 @@
         <v>83271.309034825244</v>
       </c>
       <c r="O154" s="19">
-        <v>27058.639307158497</v>
+        <v>27058.639307158493</v>
       </c>
       <c r="P154" s="19">
         <v>43502.883350147546</v>
@@ -47290,10 +47341,10 @@
         <v>143459.59604189472</v>
       </c>
       <c r="W154" s="19">
-        <v>0.57338577417059167</v>
+        <v>11979.787963430021</v>
       </c>
       <c r="X154" s="19">
-        <v>119797.30624852602</v>
+        <v>107818.09167087021</v>
       </c>
       <c r="Y154" s="19">
         <v>118993.61324641833</v>
@@ -47308,7 +47359,7 @@
         <v>12175.124401069872</v>
       </c>
       <c r="AC154" s="19">
-        <v>43034.026847537272</v>
+        <v>43034.026847537265</v>
       </c>
       <c r="AD154" s="19">
         <v>138654.32297346054</v>
@@ -47323,13 +47374,13 @@
         <v>91469.036572743964</v>
       </c>
       <c r="AH154" s="19">
-        <v>8.8624956625664931E-6</v>
+        <v>0.21908671172170713</v>
       </c>
       <c r="AI154" s="19">
-        <v>0.40451999999999999</v>
+        <v>1</v>
       </c>
       <c r="AJ154" s="19">
-        <v>53698.51296122458</v>
+        <v>53697.698403375354</v>
       </c>
       <c r="AK154" s="19">
         <v>36473.691071377209</v>
@@ -47464,10 +47515,10 @@
         <v>41390.091502618336</v>
       </c>
       <c r="CC154" s="19">
-        <v>1</v>
+        <v>20893.067988578739</v>
       </c>
       <c r="CD154" s="19">
-        <v>208929.67988578734</v>
+        <v>188037.61189720864</v>
       </c>
       <c r="CE154" s="19">
         <v>206883.52519499726</v>
@@ -47497,13 +47548,13 @@
         <v>247575.66395037499</v>
       </c>
       <c r="CN154" s="19">
-        <v>2.1908693080841888E-5</v>
+        <v>0.21908671172170716</v>
       </c>
       <c r="CO154" s="19">
-        <v>1.0000010000000001</v>
+        <v>1</v>
       </c>
       <c r="CP154" s="19">
-        <v>132746.09494240116</v>
+        <v>132745.87587859813</v>
       </c>
       <c r="CQ154" s="19">
         <v>132565.68088169565</v>
@@ -47599,13 +47650,13 @@
         <v>61052.790993083589</v>
       </c>
       <c r="DV154" s="19">
-        <v>44084.355958913446</v>
+        <v>44084.355958913438</v>
       </c>
       <c r="DW154" s="19">
         <v>60676.037751798758</v>
       </c>
       <c r="DX154" s="19">
-        <v>75694.060148779667</v>
+        <v>75694.060148779652</v>
       </c>
       <c r="DY154" s="19">
         <v>87806.609504460925</v>
@@ -47614,7 +47665,7 @@
         <v>103926.56524366631</v>
       </c>
       <c r="EA154" s="19">
-        <v>127594.73173932376</v>
+        <v>127594.73173932378</v>
       </c>
       <c r="EB154" s="19">
         <v>170395.87905669748</v>
@@ -47662,11 +47713,16 @@
         <v>59877.442894178559</v>
       </c>
       <c r="EQ154" s="19">
-        <v>1195258.6267731716</v>
+        <v>1195258.6267731721</v>
       </c>
       <c r="ER154" s="19"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B8:ER154">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -51215,10 +51271,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AJ101"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52431,13 +52487,11 @@
         <f>Demand!A31</f>
         <v>cammo</v>
       </c>
-      <c r="B31" s="22">
-        <f>VLOOKUP(VLOOKUP($A31,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C31" s="22">
-        <f>VLOOKUP(VLOOKUP($A31,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.27700000000000002</v>
+      <c r="B31" s="72">
+        <v>0.94</v>
+      </c>
+      <c r="C31" s="72">
+        <v>0.94</v>
       </c>
       <c r="D31" s="11">
         <f t="shared" si="1"/>

--- a/CGE/1model.xlsx
+++ b/CGE/1model.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C127D55A-980C-41F7-A944-197943E6499D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A96302-3D00-4457-9153-A278513C73EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="-17430" windowWidth="28770" windowHeight="15570" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
+    <author>tc={C7AEE201-4D85-4D0F-8941-FF043E24C344}</author>
     <author>tc={F2825210-4950-456F-8849-015930D0B032}</author>
+    <author>tc={CEAAEFF7-AA04-468B-BF7E-ADB4DBB607B6}</author>
   </authors>
   <commentList>
     <comment ref="M7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -145,7 +147,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{F2825210-4950-456F-8849-015930D0B032}">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{C7AEE201-4D85-4D0F-8941-FF043E24C344}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed from 0.39 to allow for faster ramp up of gas imports</t>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="2" shapeId="0" xr:uid="{F2825210-4950-456F-8849-015930D0B032}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Changed from 0.39 to allow for faster ramp up of gas imports</t>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="3" shapeId="0" xr:uid="{CEAAEFF7-AA04-468B-BF7E-ADB4DBB607B6}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -3104,10 +3122,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3429,7 +3443,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B16" dT="2021-09-27T08:56:01.52" personId="{00000000-0000-0000-0000-000000000000}" id="{C7AEE201-4D85-4D0F-8941-FF043E24C344}">
+    <text>Changed from 0.39 to allow for faster ramp up of gas imports</text>
+  </threadedComment>
   <threadedComment ref="B17" dT="2021-09-27T08:56:01.52" personId="{00000000-0000-0000-0000-000000000000}" id="{F2825210-4950-456F-8849-015930D0B032}">
+    <text>Changed from 0.39 to allow for faster ramp up of gas imports</text>
+  </threadedComment>
+  <threadedComment ref="B18" dT="2021-09-27T08:56:01.52" personId="{00000000-0000-0000-0000-000000000000}" id="{CEAAEFF7-AA04-468B-BF7E-ADB4DBB607B6}">
     <text>Changed from 0.39 to allow for faster ramp up of gas imports</text>
   </threadedComment>
 </ThreadedComments>
@@ -51320,7 +51340,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="P20" sqref="P20"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51842,13 +51862,11 @@
         <f>Demand!A16</f>
         <v>ccoil</v>
       </c>
-      <c r="B16" s="22">
-        <f>VLOOKUP(VLOOKUP($A16,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="C16" s="22">
-        <f>VLOOKUP(VLOOKUP($A16,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.38600000000000001</v>
+      <c r="B16" s="72">
+        <v>0.74</v>
+      </c>
+      <c r="C16" s="72">
+        <v>0.74</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
@@ -51934,13 +51952,11 @@
         <f>Demand!A18</f>
         <v>chydr</v>
       </c>
-      <c r="B18" s="22">
-        <f>VLOOKUP(VLOOKUP($A18,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.38600000000000001</v>
-      </c>
-      <c r="C18" s="22">
-        <f>VLOOKUP(VLOOKUP($A18,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.38600000000000001</v>
+      <c r="B18" s="72">
+        <v>0.74</v>
+      </c>
+      <c r="C18" s="72">
+        <v>0.74</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="1"/>

--- a/CGE/1model.xlsx
+++ b/CGE/1model.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7A96302-3D00-4457-9153-A278513C73EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA3D9CF-5891-4EF1-BB7B-DCB1D4E7BEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="-17430" windowWidth="28770" windowHeight="15570" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -3457,6 +3457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -5159,7 +5160,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23AFCDF-769B-4D79-B62D-C5A6F52B7628}">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A2:R43"/>
@@ -5874,6 +5875,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A2:E43"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -6115,6 +6117,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr codeName="Sheet12"/>
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6191,6 +6194,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -6338,6 +6342,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+  <sheetPr codeName="Sheet14"/>
   <dimension ref="A1:AG66"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -10010,6 +10015,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11530,6 +11536,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -12356,6 +12363,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AX176"/>
   <sheetViews>
     <sheetView topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -15411,6 +15419,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AT66"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -16343,14 +16352,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCBF0E9-6DC9-429A-AB79-5F8256D1D190}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:ER154"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="7" topLeftCell="DO56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G10" sqref="G10"/>
       <selection pane="topRight" activeCell="G10" sqref="G10"/>
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
-      <selection pane="bottomRight" activeCell="EQ72" sqref="EQ72"/>
+      <selection pane="bottomRight" activeCell="A7" sqref="A7:ER154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18657,7 +18667,7 @@
       <c r="BI13" s="87"/>
       <c r="BJ13" s="87"/>
       <c r="BK13" s="87">
-        <v>98199.69575640859</v>
+        <v>89476.206652745168</v>
       </c>
       <c r="BL13" s="87"/>
       <c r="BM13" s="87"/>
@@ -18744,7 +18754,7 @@
       <c r="EP13" s="87"/>
       <c r="EQ13" s="87"/>
       <c r="ER13" s="87">
-        <v>98199.69575640859</v>
+        <v>89476.206652745168</v>
       </c>
     </row>
     <row r="14" spans="1:148" x14ac:dyDescent="0.25">
@@ -18814,7 +18824,7 @@
       <c r="BJ14" s="87"/>
       <c r="BK14" s="87"/>
       <c r="BL14" s="87">
-        <v>107795.80717375339</v>
+        <v>116519.29627741681</v>
       </c>
       <c r="BM14" s="87">
         <v>20022.292323937541</v>
@@ -18902,7 +18912,7 @@
       <c r="EP14" s="87"/>
       <c r="EQ14" s="87"/>
       <c r="ER14" s="87">
-        <v>127818.09949769093</v>
+        <v>136541.58860135436</v>
       </c>
     </row>
     <row r="15" spans="1:148" x14ac:dyDescent="0.25">
@@ -26658,13 +26668,13 @@
         <v>134.4266717394338</v>
       </c>
       <c r="AH64" s="87">
-        <v>3.5133854383545305E-4</v>
+        <v>2.7301509541168261E-4</v>
       </c>
       <c r="AI64" s="87">
-        <v>1.6036506325483471E-3</v>
+        <v>1.2822711803486973E-3</v>
       </c>
       <c r="AJ64" s="87">
-        <v>86.1123478584515</v>
+        <v>86.112747561352123</v>
       </c>
       <c r="AK64" s="87">
         <v>12.278975385051188</v>
@@ -27492,13 +27502,13 @@
         <v>112.9473647089075</v>
       </c>
       <c r="AH68" s="87">
-        <v>2.5269577430749946E-4</v>
+        <v>1.9636263126599011E-4</v>
       </c>
       <c r="AI68" s="87">
-        <v>1.1534052993067141E-3</v>
+        <v>9.2225722021025943E-4</v>
       </c>
       <c r="AJ68" s="87">
-        <v>61.935210185252863</v>
+        <v>61.935497666475001</v>
       </c>
       <c r="AK68" s="87">
         <v>15.643469439310474</v>
@@ -27673,13 +27683,13 @@
       <c r="G69" s="89"/>
       <c r="H69" s="89"/>
       <c r="I69" s="89">
-        <v>0.13647386580237011</v>
+        <v>0.16863043331290395</v>
       </c>
       <c r="J69" s="89">
-        <v>8.9527808404686587E-3</v>
+        <v>1.1062274110927072E-2</v>
       </c>
       <c r="K69" s="89">
-        <v>9.9330278017672573E-3</v>
+        <v>1.227349113673341E-2</v>
       </c>
       <c r="L69" s="89"/>
       <c r="M69" s="89"/>
@@ -27688,58 +27698,46 @@
       <c r="P69" s="89"/>
       <c r="Q69" s="89"/>
       <c r="R69" s="89"/>
-      <c r="S69" s="89">
-        <v>8.2056034095653576</v>
-      </c>
+      <c r="S69" s="89"/>
       <c r="T69" s="89"/>
-      <c r="U69" s="89">
-        <v>0.27742686995506127</v>
-      </c>
-      <c r="V69" s="89">
-        <v>6.3661047750047652</v>
-      </c>
+      <c r="U69" s="89"/>
+      <c r="V69" s="89"/>
       <c r="W69" s="89"/>
       <c r="X69" s="89"/>
       <c r="Y69" s="89"/>
       <c r="Z69" s="89"/>
       <c r="AA69" s="89"/>
       <c r="AB69" s="89"/>
-      <c r="AC69" s="89">
-        <v>0.15659213524581297</v>
-      </c>
-      <c r="AD69" s="89">
-        <v>25388.785202557039</v>
-      </c>
+      <c r="AC69" s="89"/>
+      <c r="AD69" s="89"/>
       <c r="AE69" s="89">
-        <v>6899.5131833250034</v>
-      </c>
-      <c r="AF69" s="89">
-        <v>1584.0307774392547</v>
-      </c>
+        <v>4274.432897734725</v>
+      </c>
+      <c r="AF69" s="89"/>
       <c r="AG69" s="89">
-        <v>1375.3992289763646</v>
+        <v>1438.8338445568154</v>
       </c>
       <c r="AH69" s="89">
-        <v>6.2569663358519765E-3</v>
+        <v>4.8621089007824846E-3</v>
       </c>
       <c r="AI69" s="89">
-        <v>2.8559314650720712E-2</v>
+        <v>2.2835887919637282E-2</v>
       </c>
       <c r="AJ69" s="89">
-        <v>1506.0335852119708</v>
+        <v>1382.6933187950401</v>
       </c>
       <c r="AK69" s="89">
-        <v>398.03513872028998</v>
+        <v>386.45403777148385</v>
       </c>
       <c r="AL69" s="89">
-        <v>2254.165961371396</v>
+        <v>2679.8650630972984</v>
       </c>
       <c r="AM69" s="89">
-        <v>193.90557684901427</v>
+        <v>192.49788475142279</v>
       </c>
       <c r="AN69" s="89"/>
       <c r="AO69" s="89">
-        <v>165.5692319429437</v>
+        <v>125.08000859574234</v>
       </c>
       <c r="AP69" s="89"/>
       <c r="AQ69" s="89"/>
@@ -27755,11 +27753,11 @@
       <c r="BA69" s="89"/>
       <c r="BB69" s="89"/>
       <c r="BC69" s="89">
-        <v>802.69388925901012</v>
+        <v>620.15805643867645</v>
       </c>
       <c r="BD69" s="89"/>
       <c r="BE69" s="89">
-        <v>5.2201037594586435</v>
+        <v>4.0330310784632184</v>
       </c>
       <c r="BF69" s="89"/>
       <c r="BG69" s="89"/>
@@ -27850,13 +27848,13 @@
       <c r="EN69" s="89"/>
       <c r="EO69" s="89"/>
       <c r="EP69" s="89">
-        <v>110.48702985183937</v>
+        <v>23091.945986038769</v>
       </c>
       <c r="EQ69" s="89">
-        <v>58319.278859883379</v>
+        <v>56098.388979367926</v>
       </c>
       <c r="ER69" s="89">
-        <v>99018.313672292163</v>
+        <v>90294.602772421742</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.25">
@@ -27871,13 +27869,13 @@
       <c r="G70" s="87"/>
       <c r="H70" s="87"/>
       <c r="I70" s="87">
-        <v>3.2157644462681406E-2</v>
+        <v>1.0769521475717525E-6</v>
       </c>
       <c r="J70" s="87">
-        <v>2.1095639192708886E-3</v>
+        <v>7.0648812475551659E-8</v>
       </c>
       <c r="K70" s="87">
-        <v>2.3405417191722424E-3</v>
+        <v>7.8384206089396335E-8</v>
       </c>
       <c r="L70" s="87"/>
       <c r="M70" s="87"/>
@@ -27887,14 +27885,14 @@
       <c r="Q70" s="87"/>
       <c r="R70" s="87"/>
       <c r="S70" s="87">
-        <v>1.9335048179018202</v>
+        <v>10.139108227467178</v>
       </c>
       <c r="T70" s="87"/>
       <c r="U70" s="87">
-        <v>6.5370718385955484E-2</v>
+        <v>0.34279758834101676</v>
       </c>
       <c r="V70" s="87">
-        <v>1.5000596104109656</v>
+        <v>7.8661643854157308</v>
       </c>
       <c r="W70" s="87"/>
       <c r="X70" s="87"/>
@@ -27903,41 +27901,41 @@
       <c r="AA70" s="87"/>
       <c r="AB70" s="87"/>
       <c r="AC70" s="87">
-        <v>3.6898157616339217E-2</v>
+        <v>0.19349029286215219</v>
       </c>
       <c r="AD70" s="87">
-        <v>5982.4166559883379</v>
+        <v>31371.201858545377</v>
       </c>
       <c r="AE70" s="87">
-        <v>1625.7478353858987</v>
+        <v>4250.8281209761772</v>
       </c>
       <c r="AF70" s="87">
-        <v>373.24874077064328</v>
+        <v>1957.279518209898</v>
       </c>
       <c r="AG70" s="87">
-        <v>324.08841897772322</v>
+        <v>260.65380339727244</v>
       </c>
       <c r="AH70" s="87">
-        <v>1.3355273399394104E-3</v>
+        <v>1.0377999525985275E-3</v>
       </c>
       <c r="AI70" s="87">
-        <v>6.0958847273030938E-3</v>
+        <v>4.8742395294212437E-3</v>
       </c>
       <c r="AJ70" s="87">
-        <v>354.87085907194387</v>
+        <v>478.21976314562573</v>
       </c>
       <c r="AK70" s="87">
-        <v>93.789916474974405</v>
+        <v>105.37101742378053</v>
       </c>
       <c r="AL70" s="87">
-        <v>531.15420391646103</v>
+        <v>105.45510219055859</v>
       </c>
       <c r="AM70" s="87">
-        <v>45.690407925217983</v>
+        <v>47.098100022809462</v>
       </c>
       <c r="AN70" s="87"/>
       <c r="AO70" s="87">
-        <v>39.013451135696897</v>
+        <v>79.502674482898257</v>
       </c>
       <c r="AP70" s="87"/>
       <c r="AQ70" s="87"/>
@@ -27953,11 +27951,11 @@
       <c r="BA70" s="87"/>
       <c r="BB70" s="87"/>
       <c r="BC70" s="87">
-        <v>189.14056952514295</v>
+        <v>371.67640234547662</v>
       </c>
       <c r="BD70" s="87"/>
       <c r="BE70" s="87">
-        <v>1.2300248092778983</v>
+        <v>2.4170974902733233</v>
       </c>
       <c r="BF70" s="87"/>
       <c r="BG70" s="87"/>
@@ -28048,13 +28046,13 @@
       <c r="EN70" s="87"/>
       <c r="EO70" s="87"/>
       <c r="EP70" s="87">
-        <v>1547.1541326586262</v>
+        <v>-21434.304823528302</v>
       </c>
       <c r="EQ70" s="87">
-        <v>184374.48243414148</v>
+        <v>186595.37231465691</v>
       </c>
       <c r="ER70" s="87">
-        <v>195485.60752324792</v>
+        <v>204209.31842311833</v>
       </c>
     </row>
     <row r="71" spans="1:148" x14ac:dyDescent="0.25">
@@ -28492,11 +28490,9 @@
       <c r="F73" s="87">
         <v>2.4884898400794748</v>
       </c>
-      <c r="G73" s="87">
-        <v>8.5743490567291705</v>
-      </c>
+      <c r="G73" s="87"/>
       <c r="H73" s="87">
-        <v>8.5743490567291705</v>
+        <v>17.148698113458341</v>
       </c>
       <c r="I73" s="87">
         <v>4.7783449873560997</v>
@@ -29161,10 +29157,10 @@
         <v>31.42222042311074</v>
       </c>
       <c r="G76" s="87">
-        <v>57.004897121621234</v>
+        <v>100.48152332291113</v>
       </c>
       <c r="H76" s="87">
-        <v>85.507345682431833</v>
+        <v>42.030719481141944</v>
       </c>
       <c r="I76" s="87">
         <v>153.99670260254308</v>
@@ -29448,13 +29444,13 @@
         <v>49.747835891863119</v>
       </c>
       <c r="AH77" s="87">
-        <v>4.73809533916335E-5</v>
+        <v>3.681837856358754E-5</v>
       </c>
       <c r="AI77" s="87">
-        <v>2.1626575623545215E-4</v>
+        <v>1.7292503796563461E-4</v>
       </c>
       <c r="AJ77" s="87">
-        <v>11.612973102774555</v>
+        <v>11.613027006067654</v>
       </c>
       <c r="AK77" s="87"/>
       <c r="AL77" s="87">
@@ -29643,10 +29639,10 @@
         <v>114.87566226637986</v>
       </c>
       <c r="G78" s="87">
-        <v>166.34010758723144</v>
+        <v>349.02527732911034</v>
       </c>
       <c r="H78" s="87">
-        <v>665.36043034892577</v>
+        <v>482.67526060704682</v>
       </c>
       <c r="I78" s="87">
         <v>184.55395449324314</v>
@@ -29698,13 +29694,13 @@
         <v>109.10050590892386</v>
       </c>
       <c r="AH78" s="87">
-        <v>1.5435555045210521E-4</v>
+        <v>1.199452666762942E-4</v>
       </c>
       <c r="AI78" s="87">
-        <v>7.0454090637945177E-4</v>
+        <v>5.6334745317408426E-4</v>
       </c>
       <c r="AJ78" s="87">
-        <v>37.832225545139373</v>
+        <v>37.83240114887635</v>
       </c>
       <c r="AK78" s="87">
         <v>136.0748104760799</v>
@@ -29884,7 +29880,7 @@
         <v>5675.8936556490207</v>
       </c>
       <c r="ER78" s="87">
-        <v>109403.70373058437</v>
+        <v>109403.70373058438</v>
       </c>
     </row>
     <row r="79" spans="1:148" x14ac:dyDescent="0.25">
@@ -29901,10 +29897,10 @@
         <v>17.135111156596562</v>
       </c>
       <c r="G79" s="87">
-        <v>39.850937792223853</v>
+        <v>43.068407461545974</v>
       </c>
       <c r="H79" s="87">
-        <v>92.985521515188992</v>
+        <v>89.768051845866864</v>
       </c>
       <c r="I79" s="87">
         <v>21.867793897141102</v>
@@ -30123,10 +30119,10 @@
         <v>115.83218322780114</v>
       </c>
       <c r="G80" s="87">
-        <v>162.13057678768126</v>
+        <v>211.96269286421307</v>
       </c>
       <c r="H80" s="87">
-        <v>648.52230715072506</v>
+        <v>598.69019107419319</v>
       </c>
       <c r="I80" s="87">
         <v>146.99871021152131</v>
@@ -30341,10 +30337,10 @@
         <v>131.83310646223114</v>
       </c>
       <c r="G81" s="87">
-        <v>438.97153173659592</v>
+        <v>431.07570605065513</v>
       </c>
       <c r="H81" s="87">
-        <v>536.52076101139494</v>
+        <v>544.41658669733579</v>
       </c>
       <c r="I81" s="87">
         <v>795.1415561027635</v>
@@ -30422,13 +30418,13 @@
         <v>239.53317204334533</v>
       </c>
       <c r="AH81" s="87">
-        <v>3.3394427901633984E-4</v>
+        <v>2.5949851161371942E-4</v>
       </c>
       <c r="AI81" s="87">
-        <v>1.524256201537816E-3</v>
+        <v>1.2187877827191218E-3</v>
       </c>
       <c r="AJ81" s="87">
-        <v>81.849049827911486</v>
+        <v>81.849429742097712</v>
       </c>
       <c r="AK81" s="87">
         <v>123.66527191772326</v>
@@ -30604,7 +30600,7 @@
         <v>5029.9800896295146</v>
       </c>
       <c r="ER81" s="87">
-        <v>59771.082006278797</v>
+        <v>59771.082006278804</v>
       </c>
     </row>
     <row r="82" spans="1:148" x14ac:dyDescent="0.25">
@@ -30627,10 +30623,10 @@
         <v>29.082420698480046</v>
       </c>
       <c r="G82" s="87">
-        <v>105.46583206845051</v>
+        <v>105.54543828890147</v>
       </c>
       <c r="H82" s="87">
-        <v>130.99966509554906</v>
+        <v>130.92005887509811</v>
       </c>
       <c r="I82" s="87">
         <v>59.723949437851502</v>
@@ -30708,13 +30704,13 @@
         <v>226.87822649637727</v>
       </c>
       <c r="AH82" s="87">
-        <v>5.7754117020765796E-4</v>
+        <v>4.4879066204095647E-4</v>
       </c>
       <c r="AI82" s="87">
-        <v>2.6361305332898246E-3</v>
+        <v>2.1078370449698785E-3</v>
       </c>
       <c r="AJ82" s="87">
-        <v>141.55414189630511</v>
+        <v>141.55479894030159</v>
       </c>
       <c r="AK82" s="87">
         <v>81.849726550251688</v>
@@ -30915,10 +30911,10 @@
         <v>4.5944133584144931</v>
       </c>
       <c r="G83" s="87">
-        <v>20.376575712575058</v>
+        <v>26.747975978840866</v>
       </c>
       <c r="H83" s="87">
-        <v>11.320319840319474</v>
+        <v>4.9489195740536651</v>
       </c>
       <c r="I83" s="87">
         <v>5.4446201488513628</v>
@@ -30996,13 +30992,13 @@
         <v>37.291698418022172</v>
       </c>
       <c r="AH83" s="87">
-        <v>7.0606253111179363E-5</v>
+        <v>5.4866092172449184E-5</v>
       </c>
       <c r="AI83" s="87">
-        <v>3.2227537926109498E-4</v>
+        <v>2.5768981259076688E-4</v>
       </c>
       <c r="AJ83" s="87">
-        <v>17.305445961211184</v>
+        <v>17.305526286938793</v>
       </c>
       <c r="AK83" s="87">
         <v>1891.2989719572008</v>
@@ -31369,10 +31365,10 @@
         <v>1085.7639893589812</v>
       </c>
       <c r="G85" s="87">
-        <v>1946.7191209604866</v>
+        <v>3328.4798766251083</v>
       </c>
       <c r="H85" s="87">
-        <v>5693.0754858782038</v>
+        <v>4311.3147302135822</v>
       </c>
       <c r="I85" s="87">
         <v>1178.5522850351588</v>
@@ -31797,10 +31793,10 @@
         <v>37.137901005427636</v>
       </c>
       <c r="G87" s="87">
-        <v>137.97790380493788</v>
+        <v>228.23859926064705</v>
       </c>
       <c r="H87" s="87">
-        <v>121.76624512893653</v>
+        <v>31.505549673227378</v>
       </c>
       <c r="I87" s="87">
         <v>57.965793718524559</v>
@@ -31876,13 +31872,13 @@
         <v>97.60497265252998</v>
       </c>
       <c r="AH87" s="87">
-        <v>5.380086350736873E-4</v>
+        <v>4.1807106397567415E-4</v>
       </c>
       <c r="AI87" s="87">
-        <v>2.4556881193099822E-3</v>
+        <v>1.9635561757688214E-3</v>
       </c>
       <c r="AJ87" s="87">
-        <v>131.86479998133916</v>
+        <v>131.86541205085379</v>
       </c>
       <c r="AK87" s="87">
         <v>35.117769436752816</v>
@@ -32058,7 +32054,7 @@
         <v>3926.8027590883289</v>
       </c>
       <c r="ER87" s="87">
-        <v>20893.067988578747</v>
+        <v>20893.06798857875</v>
       </c>
     </row>
     <row r="88" spans="1:148" x14ac:dyDescent="0.25">
@@ -32081,10 +32077,10 @@
         <v>334.16418597192558</v>
       </c>
       <c r="G88" s="87">
-        <v>1241.8011342444406</v>
+        <v>2054.1473933458228</v>
       </c>
       <c r="H88" s="87">
-        <v>1095.8192830835053</v>
+        <v>283.47302398212321</v>
       </c>
       <c r="I88" s="87">
         <v>521.61522038979774</v>
@@ -32162,13 +32158,13 @@
         <v>878.36783079584632</v>
       </c>
       <c r="AH88" s="87">
-        <v>4.8420777156631843E-3</v>
+        <v>3.7626395757810664E-3</v>
       </c>
       <c r="AI88" s="87">
-        <v>2.2101193073789833E-2</v>
+        <v>1.7672005581919385E-2</v>
       </c>
       <c r="AJ88" s="87">
-        <v>1186.7831998320521</v>
+        <v>1186.7887084576837</v>
       </c>
       <c r="AK88" s="87">
         <v>316.05992493077525</v>
@@ -32367,10 +32363,10 @@
         <v>1266.7562210538081</v>
       </c>
       <c r="G89" s="87">
-        <v>3808.3976130068436</v>
+        <v>1423.7755003399416</v>
       </c>
       <c r="H89" s="87">
-        <v>5110.5663518803776</v>
+        <v>7495.1884645472801</v>
       </c>
       <c r="I89" s="87">
         <v>1687.9808356221197</v>
@@ -32448,13 +32444,13 @@
         <v>306.62203769326663</v>
       </c>
       <c r="AH89" s="87">
-        <v>1.3045896653131259E-3</v>
+        <v>1.0137591738735307E-3</v>
       </c>
       <c r="AI89" s="87">
-        <v>5.9546727186734569E-3</v>
+        <v>4.7613270999245548E-3</v>
       </c>
       <c r="AJ89" s="87">
-        <v>319.75221934936911</v>
+        <v>319.75370352547935</v>
       </c>
       <c r="AK89" s="87">
         <v>73.286500758557636</v>
@@ -32655,10 +32651,10 @@
         <v>390.60157780444706</v>
       </c>
       <c r="G90" s="87">
-        <v>1477.1036284499357</v>
+        <v>1123.7909905055421</v>
       </c>
       <c r="H90" s="87">
-        <v>1238.6207015558996</v>
+        <v>1591.9333395002932</v>
       </c>
       <c r="I90" s="87">
         <v>452.89314867551178</v>
@@ -32724,13 +32720,13 @@
         <v>420.79139053936831</v>
       </c>
       <c r="AH90" s="87">
-        <v>2.268130909578437E-5</v>
+        <v>1.7624994113220816E-5</v>
       </c>
       <c r="AI90" s="87">
-        <v>1.0352663070042828E-4</v>
+        <v>8.2779386140241311E-5</v>
       </c>
       <c r="AJ90" s="87">
-        <v>5.5591418365135858</v>
+        <v>5.5591676400731282</v>
       </c>
       <c r="AK90" s="87">
         <v>63.423578945224413</v>
@@ -32931,10 +32927,10 @@
         <v>122.17730358587094</v>
       </c>
       <c r="G91" s="87">
-        <v>486.04007759991839</v>
+        <v>287.51952967497772</v>
       </c>
       <c r="H91" s="87">
-        <v>667.71525223678111</v>
+        <v>866.23580016172173</v>
       </c>
       <c r="I91" s="87">
         <v>238.41446200055714</v>
@@ -33012,13 +33008,13 @@
         <v>659.86233853128999</v>
       </c>
       <c r="AH91" s="87">
-        <v>6.169797242234037E-3</v>
+        <v>4.7943723007748363E-3</v>
       </c>
       <c r="AI91" s="87">
-        <v>2.8161439795906764E-2</v>
+        <v>2.2517749137187754E-2</v>
       </c>
       <c r="AJ91" s="87">
-        <v>1512.2045010318311</v>
+        <v>1512.2115201474312</v>
       </c>
       <c r="AK91" s="87">
         <v>493.5729614559516</v>
@@ -33217,10 +33213,10 @@
         <v>13.008886383115954</v>
       </c>
       <c r="G92" s="87">
-        <v>48.031361560409657</v>
+        <v>31.452818587755644</v>
       </c>
       <c r="H92" s="87">
-        <v>64.041815413879561</v>
+        <v>80.620358386533567</v>
       </c>
       <c r="I92" s="87">
         <v>20.15355576569408</v>
@@ -33290,13 +33286,13 @@
         <v>134.95058421086716</v>
       </c>
       <c r="AH92" s="87">
-        <v>3.2287133179567646E-4</v>
+        <v>2.5089404223516533E-4</v>
       </c>
       <c r="AI92" s="87">
-        <v>1.4737148102610658E-3</v>
+        <v>1.1783751341449631E-3</v>
       </c>
       <c r="AJ92" s="87">
-        <v>79.135093071816925</v>
+        <v>79.13546038878259</v>
       </c>
       <c r="AK92" s="87">
         <v>264.62595755535926</v>
@@ -33499,10 +33495,10 @@
         <v>69.078520790903525</v>
       </c>
       <c r="G93" s="87">
-        <v>263.74467764510007</v>
+        <v>203.26645454484563</v>
       </c>
       <c r="H93" s="87">
-        <v>229.8556967186347</v>
+        <v>290.33391981888917</v>
       </c>
       <c r="I93" s="87">
         <v>214.91617422751767</v>
@@ -33562,13 +33558,13 @@
         <v>75.138403425486842</v>
       </c>
       <c r="AH93" s="87">
-        <v>1.6091421677284139E-4</v>
+        <v>1.2504181797346072E-4</v>
       </c>
       <c r="AI93" s="87">
-        <v>7.3447730128535212E-4</v>
+        <v>5.8728444771158773E-4</v>
       </c>
       <c r="AJ93" s="87">
-        <v>39.439740598813245</v>
+        <v>39.439923664065617</v>
       </c>
       <c r="AK93" s="87"/>
       <c r="AL93" s="87">
@@ -33769,10 +33765,10 @@
         <v>156.82225666015532</v>
       </c>
       <c r="G94" s="87">
-        <v>600.53417757116654</v>
+        <v>603.90286938985014</v>
       </c>
       <c r="H94" s="87">
-        <v>497.28444177822917</v>
+        <v>493.91574995954556</v>
       </c>
       <c r="I94" s="87">
         <v>247.21965998197396</v>
@@ -33842,13 +33838,13 @@
         <v>15398.129405640264</v>
       </c>
       <c r="AH94" s="90">
-        <v>1.7252138466251205E-2</v>
+        <v>1.3406141489631358E-2</v>
       </c>
       <c r="AI94" s="87">
-        <v>7.8745709087849988E-2</v>
+        <v>6.2964682761990798E-2</v>
       </c>
       <c r="AJ94" s="87">
-        <v>4228.4633375419908</v>
+        <v>4228.4829645652944</v>
       </c>
       <c r="AK94" s="87">
         <v>364.94844162745812</v>
@@ -34021,10 +34017,10 @@
         <v>54.698484198590521</v>
       </c>
       <c r="G95" s="87">
-        <v>199.0609354641675</v>
+        <v>129.06374366714738</v>
       </c>
       <c r="H95" s="87">
-        <v>178.59672714542128</v>
+        <v>248.59391894244141</v>
       </c>
       <c r="I95" s="87">
         <v>112.84194260500111</v>
@@ -34092,13 +34088,13 @@
         <v>1537.3086077697074</v>
       </c>
       <c r="AH95" s="87">
-        <v>3.5387705473923059E-2</v>
+        <v>2.7498769935383083E-2</v>
       </c>
       <c r="AI95" s="87">
-        <v>0.16152374188204513</v>
+        <v>0.12915359178220767</v>
       </c>
       <c r="AJ95" s="87">
-        <v>8673.4531766843484</v>
+        <v>8673.4934357699858</v>
       </c>
       <c r="AK95" s="87">
         <v>155.12736876339807</v>
@@ -34273,10 +34269,10 @@
         <v>954.53967015139915</v>
       </c>
       <c r="G96" s="87">
-        <v>3671.9180540420793</v>
+        <v>4372.2135880061551</v>
       </c>
       <c r="H96" s="87">
-        <v>3038.33219373678</v>
+        <v>2338.0366597727043</v>
       </c>
       <c r="I96" s="87">
         <v>1653.2223999034443</v>
@@ -34348,13 +34344,13 @@
         <v>12460.129631715641</v>
       </c>
       <c r="AH96" s="87">
-        <v>7.6138218911347205E-3</v>
+        <v>5.9164823971868076E-3</v>
       </c>
       <c r="AI96" s="87">
-        <v>3.4752549943814513E-2</v>
+        <v>2.7787968483988748E-2</v>
       </c>
       <c r="AJ96" s="87">
-        <v>1866.1319454471352</v>
+        <v>1866.1406073680887</v>
       </c>
       <c r="AK96" s="87">
         <v>161.59785946708635</v>
@@ -34559,10 +34555,10 @@
         <v>1788.9213915428616</v>
       </c>
       <c r="G97" s="87">
-        <v>6175.8659349919071</v>
+        <v>2688.3543084615576</v>
       </c>
       <c r="H97" s="87">
-        <v>6427.9420956038211</v>
+        <v>9915.4537221341707</v>
       </c>
       <c r="I97" s="87">
         <v>2298.458976876107</v>
@@ -34624,13 +34620,13 @@
         <v>9247.0002502149091</v>
       </c>
       <c r="AH97" s="87">
-        <v>2.4921133553988336E-2</v>
+        <v>1.9365497393863923E-2</v>
       </c>
       <c r="AI97" s="87">
-        <v>0.11375009172461438</v>
+        <v>9.0954015432096622E-2</v>
       </c>
       <c r="AJ97" s="87">
-        <v>6108.1181187247139</v>
+        <v>6108.1464704371665</v>
       </c>
       <c r="AK97" s="87">
         <v>331.87918766876635</v>
@@ -35151,10 +35147,10 @@
         <v>300.31787040947808</v>
       </c>
       <c r="G100" s="87">
-        <v>1136.8577637092424</v>
+        <v>531.46064008705127</v>
       </c>
       <c r="H100" s="87">
-        <v>993.63158875374734</v>
+        <v>1599.0287123759385</v>
       </c>
       <c r="I100" s="87">
         <v>427.8402818614943</v>
@@ -35208,13 +35204,13 @@
         <v>3276.4440442386772</v>
       </c>
       <c r="AH100" s="87">
-        <v>9.8279722309513578E-3</v>
+        <v>7.6370350575404068E-3</v>
       </c>
       <c r="AI100" s="87">
-        <v>4.4858823950195789E-2</v>
+        <v>3.5868895611175344E-2</v>
       </c>
       <c r="AJ100" s="87">
-        <v>2408.815598843576</v>
+        <v>2408.8267797090884</v>
       </c>
       <c r="AK100" s="87">
         <v>5164.4423461763581</v>
@@ -35413,10 +35409,10 @@
         <v>97.775609549932668</v>
       </c>
       <c r="G101" s="87">
-        <v>391.66531222222261</v>
+        <v>76.848643184579117</v>
       </c>
       <c r="H101" s="87">
-        <v>293.74898416666701</v>
+        <v>608.56565320431048</v>
       </c>
       <c r="I101" s="87">
         <v>120.95146262453373</v>
@@ -35470,13 +35466,13 @@
         <v>9460.5138008332287</v>
       </c>
       <c r="AH101" s="87">
-        <v>3.4371753972098303E-2</v>
+        <v>2.6709303191494508E-2</v>
       </c>
       <c r="AI101" s="87">
-        <v>0.15688653000442446</v>
+        <v>0.12544569990902912</v>
       </c>
       <c r="AJ101" s="87">
-        <v>8424.4455715169534</v>
+        <v>8424.4846747978318</v>
       </c>
       <c r="AK101" s="87">
         <v>7732.6410198646527</v>
@@ -35677,10 +35673,10 @@
         <v>422.94140754763214</v>
       </c>
       <c r="G102" s="87">
-        <v>1371.4638362523012</v>
+        <v>895.2379007640435</v>
       </c>
       <c r="H102" s="87">
-        <v>2948.8895560407254</v>
+        <v>3425.1154915289831</v>
       </c>
       <c r="I102" s="87">
         <v>747.27216490603189</v>
@@ -35738,13 +35734,13 @@
         <v>1080.8530012081999</v>
       </c>
       <c r="AH102" s="87">
-        <v>6.1057993405787894E-3</v>
+        <v>4.7446413687916439E-3</v>
       </c>
       <c r="AI102" s="87">
-        <v>2.7869327594521678E-2</v>
+        <v>2.2284177653685087E-2</v>
       </c>
       <c r="AJ102" s="87">
-        <v>1496.5187481265609</v>
+        <v>1496.5256944344735</v>
       </c>
       <c r="AK102" s="87">
         <v>37.25366217003473</v>
@@ -35935,10 +35931,10 @@
         <v>26.975158213037613</v>
       </c>
       <c r="G103" s="87">
-        <v>97.48816050803525</v>
+        <v>46.447202216334922</v>
       </c>
       <c r="H103" s="87">
-        <v>91.579787143911901</v>
+        <v>142.62074543561224</v>
       </c>
       <c r="I103" s="87">
         <v>45.166513931102152</v>
@@ -35976,13 +35972,13 @@
         <v>219.33296274627122</v>
       </c>
       <c r="AH103" s="87">
-        <v>5.8887720548226477E-3</v>
+        <v>4.5759956959291722E-3</v>
       </c>
       <c r="AI103" s="87">
-        <v>2.6878727644161302E-2</v>
+        <v>2.149209879197974E-2</v>
       </c>
       <c r="AJ103" s="87">
-        <v>1443.3258101725985</v>
+        <v>1443.3325095778096</v>
       </c>
       <c r="AK103" s="87"/>
       <c r="AL103" s="87">
@@ -36169,10 +36165,10 @@
         <v>4.0823158174540106</v>
       </c>
       <c r="G104" s="87">
-        <v>21.845601133015478</v>
+        <v>17.837183040117996</v>
       </c>
       <c r="H104" s="87">
-        <v>8.9952475253593143</v>
+        <v>13.003665618256797</v>
       </c>
       <c r="I104" s="87">
         <v>5.2622327923772625</v>
@@ -36220,13 +36216,13 @@
         <v>5.8628892450465937</v>
       </c>
       <c r="AH104" s="87">
-        <v>7.421304795007165E-5</v>
+        <v>5.7668828889920539E-5</v>
       </c>
       <c r="AI104" s="87">
-        <v>3.3873824371575796E-4</v>
+        <v>2.7085343826318398E-4</v>
       </c>
       <c r="AJ104" s="87">
-        <v>18.189464175279969</v>
+        <v>18.189548604304481</v>
       </c>
       <c r="AK104" s="87">
         <v>7.8542020556095284</v>
@@ -36419,10 +36415,10 @@
         <v>2.1075631728626942</v>
       </c>
       <c r="G105" s="87">
-        <v>7.7414691796026549</v>
+        <v>7.2809434769719648</v>
       </c>
       <c r="H105" s="87">
-        <v>7.1393549100780049</v>
+        <v>7.5998806127086951</v>
       </c>
       <c r="I105" s="87">
         <v>3.8357948670471806</v>
@@ -36500,13 +36496,13 @@
         <v>203.874744569364</v>
       </c>
       <c r="AH105" s="87">
-        <v>3.7347570727092326E-4</v>
+        <v>2.9021724955480868E-4</v>
       </c>
       <c r="AI105" s="87">
-        <v>1.7046935632742861E-3</v>
+        <v>1.3630646121711584E-3</v>
       </c>
       <c r="AJ105" s="87">
-        <v>91.538120843224064</v>
+        <v>91.53854573063289</v>
       </c>
       <c r="AK105" s="87">
         <v>13.776145405355704</v>
@@ -36711,10 +36707,10 @@
         <v>12716.171521870787</v>
       </c>
       <c r="G106" s="87">
-        <v>16353.289368041114</v>
+        <v>6687.1427314889488</v>
       </c>
       <c r="H106" s="87">
-        <v>3608.6657443966997</v>
+        <v>7412.2023308162779</v>
       </c>
       <c r="I106" s="87">
         <v>1528.5186870108737</v>
@@ -36783,7 +36779,7 @@
         <v>7087.4319569537702</v>
       </c>
       <c r="AE106" s="87">
-        <v>6882.1944066773849</v>
+        <v>12744.804456809972</v>
       </c>
       <c r="AF106" s="87">
         <v>897.76803490422924</v>
@@ -36792,13 +36788,13 @@
         <v>894.24859579824147</v>
       </c>
       <c r="AH106" s="87">
-        <v>1.9941539980007704E-3</v>
+        <v>1.5495998192693327E-3</v>
       </c>
       <c r="AI106" s="87">
-        <v>9.1021220882342956E-3</v>
+        <v>7.2780121785075078E-3</v>
       </c>
       <c r="AJ106" s="87">
-        <v>488.76300704156256</v>
+        <v>488.76527570565099</v>
       </c>
       <c r="AK106" s="87">
         <v>161.07945874819038</v>
@@ -36997,10 +36993,10 @@
         <v>272.32956912457763</v>
       </c>
       <c r="G107" s="87">
-        <v>1799.5154653102184</v>
+        <v>2157.9318016464031</v>
       </c>
       <c r="H107" s="87">
-        <v>3173.4193890325432</v>
+        <v>2815.0030526963583</v>
       </c>
       <c r="I107" s="87">
         <v>414.49640921779587</v>
@@ -37078,13 +37074,13 @@
         <v>23.806819236026524</v>
       </c>
       <c r="AH107" s="87">
-        <v>9.3710089851590099E-5</v>
+        <v>7.281942038745237E-5</v>
       </c>
       <c r="AI107" s="87">
-        <v>4.2773059632491292E-4</v>
+        <v>3.4201128692802298E-4</v>
       </c>
       <c r="AJ107" s="87">
-        <v>22.968148876015849</v>
+        <v>22.96825548599471</v>
       </c>
       <c r="AK107" s="87">
         <v>7.8677376787724729</v>
@@ -37285,10 +37281,10 @@
         <v>58.923730117492497</v>
       </c>
       <c r="G108" s="87">
-        <v>110.61757989867907</v>
+        <v>96.148574784909812</v>
       </c>
       <c r="H108" s="87">
-        <v>85.891297333091998</v>
+        <v>100.36030244686125</v>
       </c>
       <c r="I108" s="87">
         <v>14.572976017166461</v>
@@ -37366,13 +37362,13 @@
         <v>39.663125647149656</v>
       </c>
       <c r="AH108" s="87">
-        <v>2.1278530248937258E-3</v>
+        <v>1.65349349454091E-3</v>
       </c>
       <c r="AI108" s="87">
-        <v>9.712378300682202E-3</v>
+        <v>7.7659700528527557E-3</v>
       </c>
       <c r="AJ108" s="87">
-        <v>521.53236097377805</v>
+        <v>521.53478174155623</v>
       </c>
       <c r="AK108" s="87">
         <v>10.632431755378299</v>
@@ -37577,10 +37573,10 @@
         <v>21.127108776419192</v>
       </c>
       <c r="G109" s="87">
-        <v>20.05168364884657</v>
+        <v>19.179859361217598</v>
       </c>
       <c r="H109" s="87">
-        <v>19.148196713058468</v>
+        <v>20.020021000687439</v>
       </c>
       <c r="I109" s="87">
         <v>6.8864932900587181</v>
@@ -37658,13 +37654,13 @@
         <v>48.608835000525673</v>
       </c>
       <c r="AH109" s="87">
-        <v>1.4503724165509872E-4</v>
+        <v>1.1270427644072889E-4</v>
       </c>
       <c r="AI109" s="87">
-        <v>6.6200839163322201E-4</v>
+        <v>5.2933866299253443E-4</v>
       </c>
       <c r="AJ109" s="87">
-        <v>35.548326743599276</v>
+        <v>35.548491746293138</v>
       </c>
       <c r="AK109" s="87">
         <v>11.535290712979663</v>
@@ -37843,10 +37839,10 @@
         <v>20.914929418186667</v>
       </c>
       <c r="G110" s="87">
-        <v>112.65985847666785</v>
+        <v>147.58347206794213</v>
       </c>
       <c r="H110" s="87">
-        <v>34.924556127767019</v>
+        <v>9.4253649274378404E-4</v>
       </c>
       <c r="I110" s="87">
         <v>24.901150172443412</v>
@@ -37924,13 +37920,13 @@
         <v>115.22894375126199</v>
       </c>
       <c r="AH110" s="87">
-        <v>2.9574888233360362E-4</v>
+        <v>2.2981796544936764E-4</v>
       </c>
       <c r="AI110" s="87">
-        <v>1.3499170260461797E-3</v>
+        <v>1.079387033078636E-3</v>
       </c>
       <c r="AJ110" s="87">
-        <v>72.487437780610023</v>
+        <v>72.487774241519887</v>
       </c>
       <c r="AK110" s="87">
         <v>38.209848574020953</v>
@@ -38309,10 +38305,10 @@
         <v>770.06313756549082</v>
       </c>
       <c r="G112" s="87">
-        <v>37.095432348875633</v>
+        <v>1865.5861706252063</v>
       </c>
       <c r="H112" s="87">
-        <v>2783.369848878885</v>
+        <v>954.87911060255419</v>
       </c>
       <c r="I112" s="87">
         <v>988.22703605036543</v>
@@ -38390,13 +38386,13 @@
         <v>902.26477621643085</v>
       </c>
       <c r="AH112" s="87">
-        <v>5.476721596824349E-3</v>
+        <v>4.2558031150732546E-3</v>
       </c>
       <c r="AI112" s="87">
-        <v>2.4997963380732572E-2</v>
+        <v>1.9988248911540336E-2</v>
       </c>
       <c r="AJ112" s="87">
-        <v>1342.3330978248835</v>
+        <v>1342.3393284578344</v>
       </c>
       <c r="AK112" s="87">
         <v>252.79185433652896</v>
@@ -38776,11 +38772,9 @@
       <c r="F114" s="87">
         <v>14.865004511114494</v>
       </c>
-      <c r="G114" s="87">
-        <v>1.3822858390287069E-2</v>
-      </c>
+      <c r="G114" s="87"/>
       <c r="H114" s="87">
-        <v>54.431361028011253</v>
+        <v>54.445183886401537</v>
       </c>
       <c r="I114" s="87">
         <v>19.076357031367003</v>
@@ -38858,13 +38852,13 @@
         <v>17.416974419888138</v>
       </c>
       <c r="AH114" s="87">
-        <v>1.0572053902585139E-4</v>
+        <v>8.2152395618270845E-5</v>
       </c>
       <c r="AI114" s="87">
-        <v>4.8255112414185083E-4</v>
+        <v>3.8584551209180364E-4</v>
       </c>
       <c r="AJ114" s="87">
-        <v>25.911885118504557</v>
+        <v>25.912005392260017</v>
       </c>
       <c r="AK114" s="87">
         <v>4.8797973461830839</v>
@@ -39061,10 +39055,10 @@
         <v>4250.4623080367328</v>
       </c>
       <c r="G115" s="87">
-        <v>831.77187670882267</v>
+        <v>1570.3715384816498</v>
       </c>
       <c r="H115" s="87">
-        <v>12523.805125622992</v>
+        <v>11785.205463850165</v>
       </c>
       <c r="I115" s="87">
         <v>5024.216232104136</v>
@@ -39142,13 +39136,13 @@
         <v>351.05654260126664</v>
       </c>
       <c r="AH115" s="87">
-        <v>9.2920419330795243E-4</v>
+        <v>7.2205790097347987E-4</v>
       </c>
       <c r="AI115" s="87">
-        <v>4.2412622199025259E-3</v>
+        <v>3.3912924688842966E-3</v>
       </c>
       <c r="AJ115" s="87">
-        <v>227.74601996383896</v>
+        <v>227.7470770798823</v>
       </c>
       <c r="AK115" s="87">
         <v>88.497143762957847</v>
@@ -39505,10 +39499,10 @@
         <v>14.213756080223684</v>
       </c>
       <c r="G117" s="87">
-        <v>25.5754090541548</v>
+        <v>18.085390414579599</v>
       </c>
       <c r="H117" s="87">
-        <v>11.387590892725857</v>
+        <v>18.877609532301058</v>
       </c>
       <c r="I117" s="87">
         <v>83.965137975883266</v>
@@ -39586,13 +39580,13 @@
         <v>106.09332231000194</v>
       </c>
       <c r="AH117" s="87">
-        <v>3.1451452705855441E-4</v>
+        <v>2.444002091995542E-4</v>
       </c>
       <c r="AI117" s="87">
-        <v>1.4355709873361171E-3</v>
+        <v>1.1478755204184607E-3</v>
       </c>
       <c r="AJ117" s="87">
-        <v>77.086857418543801</v>
+        <v>77.087215228328589</v>
       </c>
       <c r="AK117" s="87">
         <v>10569.09070536055</v>
@@ -39791,10 +39785,10 @@
         <v>457.74786775753444</v>
       </c>
       <c r="G118" s="87">
-        <v>5760.4315996179757</v>
+        <v>5458.1835878187303</v>
       </c>
       <c r="H118" s="87">
-        <v>1782.3488308750357</v>
+        <v>2084.5968426742811</v>
       </c>
       <c r="I118" s="87">
         <v>5911.395753730063</v>
@@ -39872,13 +39866,13 @@
         <v>1486.6942377522523</v>
       </c>
       <c r="AH118" s="87">
-        <v>2.0140149637300365E-3</v>
+        <v>1.5650332055250785E-3</v>
       </c>
       <c r="AI118" s="87">
-        <v>9.192775535781102E-3</v>
+        <v>7.3504982305373093E-3</v>
       </c>
       <c r="AJ118" s="87">
-        <v>493.6308884167251</v>
+        <v>493.63317967578854</v>
       </c>
       <c r="AK118" s="87">
         <v>674.66101456827732</v>
@@ -40079,10 +40073,10 @@
         <v>6381.7367639630102</v>
       </c>
       <c r="G119" s="87">
-        <v>4143.1586061590833</v>
+        <v>5205.8948088384095</v>
       </c>
       <c r="H119" s="87">
-        <v>1062.7694499377494</v>
+        <v>3.3247258423216408E-2</v>
       </c>
       <c r="I119" s="87">
         <v>877.77507003334722</v>
@@ -40160,13 +40154,13 @@
         <v>3391.0620437932594</v>
       </c>
       <c r="AH119" s="87">
-        <v>8.4024571961487503E-3</v>
+        <v>6.5293082508291718E-3</v>
       </c>
       <c r="AI119" s="87">
-        <v>3.8352199136668284E-2</v>
+        <v>3.0666230323368956E-2</v>
       </c>
       <c r="AJ119" s="87">
-        <v>2059.4248220662657</v>
+        <v>2059.4343811840245</v>
       </c>
       <c r="AK119" s="87">
         <v>1130.8329468686077</v>
@@ -40569,10 +40563,10 @@
         <v>1858.3874239891518</v>
       </c>
       <c r="G121" s="87">
-        <v>1117.2433838305315</v>
+        <v>905.81891399614358</v>
       </c>
       <c r="H121" s="87">
-        <v>734.07327024244296</v>
+        <v>945.49774007683084</v>
       </c>
       <c r="I121" s="87">
         <v>686.23032581991288</v>
@@ -40650,13 +40644,13 @@
         <v>1337.0060187436272</v>
       </c>
       <c r="AH121" s="87">
-        <v>8.5147159529900349E-3</v>
+        <v>6.6165413077982193E-3</v>
       </c>
       <c r="AI121" s="87">
-        <v>3.8864593320501212E-2</v>
+        <v>3.1075938199618274E-2</v>
       </c>
       <c r="AJ121" s="87">
-        <v>2086.9392102122442</v>
+        <v>2086.9488970420102</v>
       </c>
       <c r="AK121" s="87">
         <v>480.75147173077352</v>
@@ -41069,10 +41063,10 @@
         <v>5082.4614129361635</v>
       </c>
       <c r="BK123" s="87">
-        <v>96.524249756018719</v>
+        <v>96.498097491252238</v>
       </c>
       <c r="BL123" s="87">
-        <v>125.63731551530407</v>
+        <v>125.66346778007055</v>
       </c>
       <c r="BM123" s="87">
         <v>12882.07637076112</v>
@@ -41243,10 +41237,10 @@
         <v>2307.1530276613476</v>
       </c>
       <c r="G124" s="87">
-        <v>1897.0204877534902</v>
+        <v>1728.9576395197957</v>
       </c>
       <c r="H124" s="87">
-        <v>2852.2361085188381</v>
+        <v>3020.2989567525328</v>
       </c>
       <c r="I124" s="87">
         <v>295.33266662670479</v>
@@ -41324,13 +41318,13 @@
         <v>398.34420691544324</v>
       </c>
       <c r="AH124" s="87">
-        <v>1.4530828879606311E-3</v>
+        <v>1.485866160597324E-3</v>
       </c>
       <c r="AI124" s="87">
-        <v>6.6324555996184562E-3</v>
+        <v>2.8197943823391526E-3</v>
       </c>
       <c r="AJ124" s="87">
-        <v>356.14760066311703</v>
+        <v>356.15138054106171</v>
       </c>
       <c r="AK124" s="87">
         <v>7.1613991924958835</v>
@@ -41507,10 +41501,10 @@
         <v>4418.470454693299</v>
       </c>
       <c r="G125" s="87">
-        <v>2493.0038138222553</v>
+        <v>2272.1409795443815</v>
       </c>
       <c r="H125" s="87">
-        <v>3748.3177131521879</v>
+        <v>3969.1805474300618</v>
       </c>
       <c r="I125" s="87">
         <v>997.77190178762191</v>
@@ -41588,13 +41582,13 @@
         <v>1328.6585213024609</v>
       </c>
       <c r="AH125" s="87">
-        <v>4.7491313305657668E-3</v>
+        <v>4.8562773636567679E-3</v>
       </c>
       <c r="AI125" s="87">
-        <v>2.1676948333581757E-2</v>
+        <v>9.2159738153100024E-3</v>
       </c>
       <c r="AJ125" s="87">
-        <v>1164.0022340037387</v>
+        <v>1164.0145878322239</v>
       </c>
       <c r="AK125" s="87">
         <v>672.37186979921614</v>
@@ -41775,10 +41769,10 @@
         <v>11612.668366175927</v>
       </c>
       <c r="G126" s="87">
-        <v>5303.173843492581</v>
+        <v>4833.3494496236162</v>
       </c>
       <c r="H126" s="87">
-        <v>7973.5058339168118</v>
+        <v>8443.3302277857765</v>
       </c>
       <c r="I126" s="87">
         <v>1882.2372086920916</v>
@@ -41856,13 +41850,13 @@
         <v>3777.1320546778193</v>
       </c>
       <c r="AH126" s="87">
-        <v>5.4862258230072751E-3</v>
+        <v>5.6100015817009425E-3</v>
       </c>
       <c r="AI126" s="87">
-        <v>2.50413444973153E-2</v>
+        <v>1.064634982913586E-2</v>
       </c>
       <c r="AJ126" s="87">
-        <v>1344.662564876563</v>
+        <v>1344.6768360954725</v>
       </c>
       <c r="AK126" s="87">
         <v>383.81853776121642</v>
@@ -42043,10 +42037,10 @@
         <v>13987.432478524532</v>
       </c>
       <c r="G127" s="87">
-        <v>9111.6873042735424</v>
+        <v>8304.4550521936198</v>
       </c>
       <c r="H127" s="87">
-        <v>13699.737934595669</v>
+        <v>14506.970186675591</v>
       </c>
       <c r="I127" s="87">
         <v>8487.712189220083</v>
@@ -42124,13 +42118,13 @@
         <v>11846.662409783157</v>
       </c>
       <c r="AH127" s="87">
-        <v>1.2222184940080299E-2</v>
+        <v>1.2497931922187481E-2</v>
       </c>
       <c r="AI127" s="87">
-        <v>5.5786975138891193E-2</v>
+        <v>2.3717881973214981E-2</v>
       </c>
       <c r="AJ127" s="87">
-        <v>2995.6321655743041</v>
+        <v>2995.6639589204874</v>
       </c>
       <c r="AK127" s="87">
         <v>2553.1423345374033</v>
@@ -42311,10 +42305,10 @@
         <v>16222.445084322033</v>
       </c>
       <c r="G128" s="87">
-        <v>33302.69000410047</v>
+        <v>30352.302819531385</v>
       </c>
       <c r="H128" s="87">
-        <v>40520.467297974887</v>
+        <v>43470.854482543975</v>
       </c>
       <c r="I128" s="87">
         <v>19959.593717182455</v>
@@ -42392,13 +42386,13 @@
         <v>7378.9380754579297</v>
       </c>
       <c r="AH128" s="87">
-        <v>6.3816843849269955E-4</v>
+        <v>4.3466803605586697E-2</v>
       </c>
       <c r="AI128" s="87">
-        <v>2.9128578062887129E-3</v>
+        <v>0.24359999999999998</v>
       </c>
       <c r="AJ128" s="87">
-        <v>156.41376029065151</v>
+        <v>156.13024451329071</v>
       </c>
       <c r="AK128" s="87">
         <v>1463.4649484582119</v>
@@ -44965,10 +44959,10 @@
         <v>835.05442659300331</v>
       </c>
       <c r="G143" s="87">
-        <v>332.0817597331</v>
+        <v>302.66162075858909</v>
       </c>
       <c r="H143" s="87">
-        <v>332.0817597331</v>
+        <v>361.50189870761091</v>
       </c>
       <c r="I143" s="87">
         <v>244.85185605166751</v>
@@ -45046,13 +45040,13 @@
         <v>-163.0446890783129</v>
       </c>
       <c r="AH143" s="87">
-        <v>5.9642360641561976E-4</v>
+        <v>4.63463661099483E-4</v>
       </c>
       <c r="AI143" s="87">
-        <v>2.7223175779516069E-3</v>
+        <v>2.1767517831592126E-3</v>
       </c>
       <c r="AJ143" s="87">
-        <v>146.18218790405916</v>
+        <v>146.18286642979928</v>
       </c>
       <c r="AK143" s="87">
         <v>65.757785048502853</v>
@@ -45681,10 +45675,10 @@
         <v>1042.0646315784118</v>
       </c>
       <c r="BK146" s="87">
-        <v>722.09366612754866</v>
+        <v>721.89802218532168</v>
       </c>
       <c r="BL146" s="87">
-        <v>939.88723033003998</v>
+        <v>940.08287427226696</v>
       </c>
       <c r="BM146" s="87">
         <v>5053.493257097075</v>
@@ -45881,10 +45875,10 @@
         <v>-3359.7453508653507</v>
       </c>
       <c r="G147" s="87">
-        <v>-8634.3571129291413</v>
+        <v>-1766.8129644249793</v>
       </c>
       <c r="H147" s="87">
-        <v>-953.44718626286249</v>
+        <v>-1958.381284634449</v>
       </c>
       <c r="I147" s="87">
         <v>-403.85060421393837</v>
@@ -45953,7 +45947,7 @@
         <v>180.89817884259264</v>
       </c>
       <c r="AE147" s="87">
-        <v>-4367.9739710249323</v>
+        <v>-10230.584021157507</v>
       </c>
       <c r="AF147" s="87">
         <v>22.914449623453038</v>
@@ -45962,13 +45956,13 @@
         <v>-371.04312537281521</v>
       </c>
       <c r="AH147" s="87">
-        <v>-8.2741771904378133E-4</v>
+        <v>-6.4296255413369137E-4</v>
       </c>
       <c r="AI147" s="87">
-        <v>-3.7766677519666322E-3</v>
+        <v>-3.0198050110226337E-3</v>
       </c>
       <c r="AJ147" s="87">
-        <v>-202.79836563503486</v>
+        <v>-202.7993069529407</v>
       </c>
       <c r="AK147" s="87">
         <v>-66.835358856716184</v>
@@ -46390,13 +46384,13 @@
         <v>-90.744621482819468</v>
       </c>
       <c r="AH149" s="87">
-        <v>-2.0302184662270785E-4</v>
+        <v>-1.5776244821095949E-4</v>
       </c>
       <c r="AI149" s="87">
-        <v>-9.2667348479169489E-4</v>
+        <v>-7.4096357337723542E-4</v>
       </c>
       <c r="AJ149" s="87">
-        <v>-49.76023317767131</v>
+        <v>-49.760464146981136</v>
       </c>
       <c r="AK149" s="87">
         <v>-12.568338505345672</v>
@@ -47359,10 +47353,10 @@
         <v>80856.433778936684</v>
       </c>
       <c r="G154" s="87">
-        <v>98199.69575640859</v>
+        <v>89476.206652745168</v>
       </c>
       <c r="H154" s="87">
-        <v>127818.09949769097</v>
+        <v>136541.58860135439</v>
       </c>
       <c r="I154" s="87">
         <v>58940.818114347952</v>
@@ -47431,7 +47425,7 @@
         <v>138654.32297346054</v>
       </c>
       <c r="AE154" s="87">
-        <v>58353.212225623225</v>
+        <v>58353.21222562324</v>
       </c>
       <c r="AF154" s="87">
         <v>86484.671755975025</v>
@@ -47446,7 +47440,7 @@
         <v>1</v>
       </c>
       <c r="AJ154" s="87">
-        <v>53697.698403375354</v>
+        <v>53697.698403375383</v>
       </c>
       <c r="AK154" s="87">
         <v>36473.691071377209</v>
@@ -47527,10 +47521,10 @@
         <v>61794.139270354732</v>
       </c>
       <c r="BK154" s="87">
-        <v>99018.313672292163</v>
+        <v>90294.602772421742</v>
       </c>
       <c r="BL154" s="87">
-        <v>195485.60752324775</v>
+        <v>204209.31842311818</v>
       </c>
       <c r="BM154" s="87">
         <v>121063.83472564709</v>
@@ -47795,6 +47789,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -51335,12 +51330,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:AJ101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51866,7 +51862,7 @@
         <v>0.74</v>
       </c>
       <c r="C16" s="72">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
@@ -51909,10 +51905,10 @@
         <v>cngas</v>
       </c>
       <c r="B17" s="72">
-        <v>0.74</v>
+        <v>1.3</v>
       </c>
       <c r="C17" s="72">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="D17" s="11">
         <f t="shared" si="1"/>
@@ -51956,7 +51952,7 @@
         <v>0.74</v>
       </c>
       <c r="C18" s="72">
-        <v>0.74</v>
+        <v>0.39</v>
       </c>
       <c r="D18" s="11">
         <f t="shared" si="1"/>
@@ -54122,6 +54118,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -56397,6 +56394,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:AO82"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">

--- a/CGE/1model.xlsx
+++ b/CGE/1model.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA3D9CF-5891-4EF1-BB7B-DCB1D4E7BEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6BCF06-548A-439A-BE84-26165B595599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51336,7 +51336,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D21" sqref="D21"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomLeft" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53053,9 +53053,8 @@
         <f>VLOOKUP(VLOOKUP($A42,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
         <v>0.88600000000000001</v>
       </c>
-      <c r="C42" s="22">
-        <f>VLOOKUP(VLOOKUP($A42,Elasticities_RawData!$N$8:$O$66,2,),Elasticities_RawData!$E$8:$G$48,2,)</f>
-        <v>0.88600000000000001</v>
+      <c r="C42" s="72">
+        <v>1.27</v>
       </c>
       <c r="D42" s="11">
         <f t="shared" si="1"/>
